--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -211,18 +211,421 @@
 Perform negative testing by sending malformed or invalid message payloads to verify error handling.
 Monitor the queue size and performance during message addition to ensure efficient handling of messages.</t>
   </si>
+  <si>
+    <t>Verify Pick Up Message from DSMQ via API</t>
+  </si>
+  <si>
+    <t>This test case validates the ability of the API to pick up a message from a Distributed State Machine Queue (DSMQ). It involves sending a request to the API endpoint responsible for retrieving messages from the queue and confirming that the message is successfully picked up.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for picking up messages from the DSMQ.
+A DSMQ is set up and accessible through the API.
+Messages are enqueued in the DSMQ for testing.</t>
+  </si>
+  <si>
+    <t>Open the API testing tool (Postman).
+Set the request method to GET.
+Enter the API endpoint URL for picking up messages from the DSMQ.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or the retrieved message content.</t>
+  </si>
+  <si>
+    <t>Access the DSMQ through the API or queue management interface.
+Verify that the picked-up message is no longer present in the queue.
+Confirm the correctness of the picked-up message, including its content, timestamp, and any metadata.
+The API successfully retrieves a message from the DSMQ.
+The HTTP response status code indicates a successful transaction.
+The response body contains the retrieved message content.
+The picked-up message is removed from the DSMQ.
+The picked-up message details match the expected content.</t>
+  </si>
+  <si>
+    <t>The message is successfully picked up from the DSMQ via the API.
+The DSMQ reflects the removal of the picked-up message.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>No specific test data required. Messages should be enqueued in the DSMQ prior to testing.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle message retrieval from the DSMQ.
+Perform negative testing by attempting to pick up messages from an empty queue or by sending invalid requests to verify error handling.
+Monitor the DSMQ status during message pickup to ensure timely and reliable retrieval of messages.</t>
+  </si>
+  <si>
+    <t>Verify ACL Information Translation from DSMQ into Usable Status via API</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to translate ACL (Access Control List) information received from a Distributed State Machine Queue (DSMQ) into usable status. It involves retrieving ACL data from the DSMQ, translating it into a usable format, and confirming the correctness of the status information.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for retrieving ACL information from the DSMQ.
+A DSMQ is set up and accessible, containing ACL data for testing.</t>
+  </si>
+  <si>
+    <t>Open the API testing tool (Postman).
+Set the request method to GET.
+Enter the API endpoint URL for retrieving ACL information from the DSMQ.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Extract the ACL data from the response received from the API.
+Translate the raw ACL data into a usable status format.
+Map ACL entries to their corresponding status indicators (e.g., allowed, denied, pending).
+Compare the translated ACL status with the expected status for each ACL entry.
+Confirm that the translated status accurately reflects the access permissions for each entry.
+Validate the correctness of the translated status against known ACL configurations.</t>
+  </si>
+  <si>
+    <t>The API successfully retrieves ACL information from the DSMQ.
+The ACL data is translated into a usable status format without errors.
+The translated status accurately reflects the access permissions for each ACL entry.
+The translated status matches the expected status based on known ACL configurations.</t>
+  </si>
+  <si>
+    <t>ACL information received from the DSMQ is translated into usable status without issues.
+The translated status can be used for access control decisions or reporting purposes.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>ACL data retrieved from the DSMQ during testing.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle ACL information retrieval from the DSMQ.
+Implement error handling mechanisms to address cases where ACL data cannot be retrieved or translated properly.
+Perform boundary testing by including different types of ACL entries (users, groups, permissions) to validate the translation process comprehensively.</t>
+  </si>
+  <si>
+    <t>Verify Sending Message to Docfusion via API</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to send a message to Docfusion, a document generation and management platform. It involves sending a message payload to the API endpoint responsible for communicating with Docfusion and confirming that the message is successfully delivered.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for sending messages to Docfusion.
+Docfusion integration is configured and accessible.
+Message payload is prepared and validated.</t>
+  </si>
+  <si>
+    <t>Open the API testing tool (Postman).
+Set the request method to POST.
+Enter the API endpoint URL for sending messages to Docfusion.
+Set the request headers:
+Content-Type: application/json (or appropriate content type)
+Prepare a message payload with necessary data for Docfusion.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (200 OK).
+Validate the response body for any error messages or confirmation of successful message delivery to Docfusion.
+Access Docfusion or its management interface.
+Verify that the sent message is received and processed by Docfusion.
+Confirm the correctness of the received message content and any associated metadata.</t>
+  </si>
+  <si>
+    <t>The API successfully sends the message payload to Docfusion.
+The HTTP response status code indicates a successful transaction.
+The response body confirms successful delivery of the message to Docfusion.
+Docfusion receives and processes the sent message without errors.
+The received message content matches the sent message payload.</t>
+  </si>
+  <si>
+    <t>The message is successfully sent to Docfusion via the API.
+Docfusion processes the received message and performs any necessary actions.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>Message payload containing required data for testing Docfusion integration.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to communicate with Docfusion and handle message delivery.
+Perform negative testing by sending malformed or invalid message payloads to verify error handling.
+Monitor Docfusion integration status and performance during message delivery to ensure timely and reliable communication.</t>
+  </si>
+  <si>
+    <t>Verify Rendering HTML Content for Document Body via API</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to render HTML content for a document body. It involves sending HTML content to the API endpoint responsible for rendering and confirming that the content is transformed into a document-ready format.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for rendering HTML content.
+HTML content to be rendered is prepared and validated.</t>
+  </si>
+  <si>
+    <t>Open the API testing tool (Postman).
+Set the request method to POST.
+Enter the API endpoint URL for rendering HTML content.
+Set the request headers:
+Content-Type: text/html (or appropriate content type)
+Prepare the HTML content to be rendered for the document body.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or the rendered document body content
+Inspect the rendered document body received in the API response.
+Confirm that the HTML content is transformed into a document-ready format suitable for display or further processing.
+Validate the correctness of the rendered document body content, including any styling, formatting, or embedded resources.</t>
+  </si>
+  <si>
+    <t>The API successfully renders the HTML content for the document body.
+The HTTP response status code indicates a successful transaction.
+The response body contains the rendered document body content.
+The rendered document body content is in a suitable format for display or further processing.
+The rendered document body content accurately reflects the input HTML content.</t>
+  </si>
+  <si>
+    <t>The HTML content is successfully rendered for the document body via the API.
+The rendered document body can be used in document generation or display applications.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>HTML content containing required data for rendering the document body.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle HTML content rendering and transformation.
+Perform boundary testing by including various types of HTML content (e.g., plain text, styled elements, embedded media) to validate rendering capabilities comprehensively.
+Monitor the performance of the API endpoint during HTML content rendering to ensure timely processing and responsiveness.</t>
+  </si>
+  <si>
+    <t>Verify Sending Rendered Information to CMA via API</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to send rendered information to a Content Management Application (CMA). It involves rendering content, sending it to the API endpoint responsible for communication with the CMA, and confirming that the information is successfully delivered.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for sending rendered information to the CMA.
+Rendered content is prepared and validated.
+Content Management Application integration is configured and accessible.</t>
+  </si>
+  <si>
+    <t>Generate or retrieve content to be rendered.
+Utilize the appropriate method or service to render the content into a suitable format for the CMA.
+Open the API testing tool (Postman).
+Set the request method to POST.
+Enter the API endpoint URL for sending rendered information to the CMA.
+Set the request headers:
+Content-Type: application/json (or appropriate content type)
+Prepare the rendered information payload containing the rendered content.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or confirmation of successful delivery to the CMA.
+Access the Content Management Application or its management interface.
+Verify that the rendered information is received and processed by the CMA.
+Confirm the correctness of the received information, including any metadata or formatting.</t>
+  </si>
+  <si>
+    <t>The API successfully sends the rendered information payload to the CMA.
+The HTTP response status code indicates a successful transaction.
+The response body confirms successful delivery of the rendered information to the CMA.
+The Content Management Application receives and processes the rendered information without errors.
+The received information accurately reflects the rendered content.</t>
+  </si>
+  <si>
+    <t>The rendered information is successfully sent to the CMA via the API.
+The CMA processes the received information and performs any necessary actions.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>Rendered information payload containing the rendered content.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to communicate with the Content Management Application and handle the delivery of rendered information.
+Perform negative testing by sending invalid or malformed rendered information payloads to verify error handling.
+Monitor the integration with the CMA during the test to ensure timely and reliable communication.</t>
+  </si>
+  <si>
+    <t>Verify Creating Email Using Translated Content for Subject and DF Generated Body via API</t>
+  </si>
+  <si>
+    <t>API-09</t>
+  </si>
+  <si>
+    <t>API-10</t>
+  </si>
+  <si>
+    <t>API-11</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to create an email using translated content for the subject and a Document Fusion (DF) generated body. It involves translating content for the email subject, generating a document body using Document Fusion, and confirming that the email is successfully created with the translated subject and DF generated body.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for creating emails.
+Translated content for the email subject is prepared and validated.
+Document Fusion (DF) integration is configured and accessible.</t>
+  </si>
+  <si>
+    <t>Utilize the appropriate translation service or method to translate the content for the email subject into the desired language.
+Validate the translated content to ensure accuracy and correctness.
+Prepare the necessary data or template for generating the document body using Document Fusion.
+Send a request to Document Fusion to generate the document body based on the provided data or template.
+Verify the generated document body to ensure completeness and correctness.
+Open the API testing tool (Postman).
+Set the request method to POST.
+Enter the API endpoint URL for creating emails.
+Set the request headers:
+Content-Type: application/json (or appropriate content type)
+Prepare the email creation payload containing the translated subject, DF generated body, recipient information, and any additional parameters.
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or confirmation of successful email creation.
+Access the email client or service used for sending emails.
+Verify that the email is successfully created and queued for sending.
+Confirm the correctness of the email subject, body, recipient information, and any attachments.</t>
+  </si>
+  <si>
+    <t>The API successfully creates an email using translated content for the subject and a Document Fusion (DF) generated body.
+The HTTP response status code indicates a successful transaction.
+The response body confirms successful email creation.
+The created email has the translated subject and DF generated body.
+The email is queued for sending without errors.</t>
+  </si>
+  <si>
+    <t>The email is successfully created and queued for sending via the API.
+Recipients receive the email with the translated subject and DF generated body.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>Translated content for the email subject.
+Data or template for generating the document body using Document Fusion.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle email creation and integration with Document Fusion.
+Perform boundary testing by including various types of translated content and document templates to validate email creation comprehensively.
+Monitor the email sending process to ensure timely delivery and reception of emails by recipients.</t>
+  </si>
+  <si>
+    <t>Verify Passing Created Email to Client via Adapter</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to pass through the created email to the client via an adapter. It involves creating an email, passing it to the API endpoint responsible for communication with the adapter, and confirming that the email is successfully delivered to the client.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for passing emails to the client via the adapter.
+An email is successfully created and queued for sending.
+Adapter integration is configured and accessible.</t>
+  </si>
+  <si>
+    <t>Create an email using the appropriate API endpoint as specified in the previous test case (API-Email-Create-01).
+Verify that the email creation is successful and the email is queued for sending.
+Pass Email to Client via Adapter:
+Open the API testing tool (Postman).
+Set the request method to POST.
+Enter the API endpoint URL for passing emails to the client via the adapter.
+Set the request headers:
+Content-Type: application/json (or appropriate content type)
+Prepare the payload containing the created email details (subject, body, recipient information, etc.).
+Send the request to the API endpoint.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or confirmation of successful email delivery to the client via the adapter.
+Access the client's email inbox or service.
+Verify that the email passed through the adapter is received by the client.
+Confirm the correctness of the received email, including the subject, body, sender information, and any attachments.</t>
+  </si>
+  <si>
+    <t>The API successfully passes the created email to the client via the adapter.
+The HTTP response status code indicates a successful transaction.
+The response body confirms successful delivery of the email to the client via the adapter.
+The client receives the email with the correct subject, body, sender information, and attachments.</t>
+  </si>
+  <si>
+    <t>The created email is successfully delivered to the client via the adapter through the API.
+Recipients receive the email without errors.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>Email details such as subject, body, recipient information, etc.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle email delivery via the adapter and integration with the client's system.
+Perform boundary testing by including various types of email content and recipient information to validate email delivery comprehensively.
+Monitor the email delivery process to ensure timely and reliable delivery of emails to the client.</t>
+  </si>
+  <si>
+    <t>Verify Passing Message Status to DSMQ System via API</t>
+  </si>
+  <si>
+    <t>This test case validates the functionality of the API to pass through message status updates to the DSMQ (Distributed State Machine Queue) system. It involves updating the status of a message, sending it to the API endpoint responsible for communication with the DSMQ, and confirming that the status update is successfully processed and reflected in the DSMQ.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint for passing message status updates to the DSMQ system.
+A message exists in the DSMQ system for which status needs to be updated.
+DSMQ integration is configured and accessible.</t>
+  </si>
+  <si>
+    <t>Determine a message in the DSMQ system for which the status needs to be updated.
+Prepare the status update payload with the necessary information, such as message ID and updated status.
+Ensure that the status update payload is validated and formatted correctly.
+Pass Message Status to DSMQ System via API:
+Open the API testing tool (e.g., Postman).
+Set the request method to POST.
+Enter the API endpoint URL for passing message status updates to the DSMQ system.
+Set the request headers:
+Content-Type: application/json (or appropriate content type)
+Send the request to the API endpoint, including the status update payload.</t>
+  </si>
+  <si>
+    <t>Check the HTTP response status code.
+Verify that the response indicates a successful transaction (e.g., 200 OK).
+Validate the response body for any error messages or confirmation of successful status update processing by the DSMQ system.
+Check DSMQ Integration:
+Access the DSMQ system or its management interface.
+Verify that the status of the message is updated as per the passed through status update.
+Confirm the correctness of the updated message status, including any transition changes or associated metadata.</t>
+  </si>
+  <si>
+    <t>The API successfully passes through the message status update to the DSMQ system.
+The HTTP response status code indicates a successful transaction.
+The response body confirms successful processing of the status update by the DSMQ system.
+The status of the message in the DSMQ system is updated as per the passed through status update.</t>
+  </si>
+  <si>
+    <t>The message status update is successfully processed and reflected in the DSMQ system via the API.
+Any necessary logs or audit trails are generated and accessible.</t>
+  </si>
+  <si>
+    <t>Message ID for the message in the DSMQ system.
+Updated status information for the message.</t>
+  </si>
+  <si>
+    <t>Ensure that the API endpoint is correctly configured to handle message status updates and integration with the DSMQ system.
+Perform boundary testing by updating message status to various states and validating the response and DSMQ status accordingly.
+Monitor the DSMQ system during the test to ensure timely and accurate processing of message status updates.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,11 +671,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -285,6 +701,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,12 +988,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,17 +1001,17 @@
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +1092,7 @@
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -737,29 +1159,260 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoDATA\CMA_Project\New_Project_CMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E172C8-FADA-4858-BE38-9F50E9EF0DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="160">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -608,12 +610,192 @@
 Perform boundary testing by updating message status to various states and validating the response and DSMQ status accordingly.
 Monitor the DSMQ system during the test to ensure timely and accurate processing of message status updates.</t>
   </si>
+  <si>
+    <t>Embedded Information Provided</t>
+  </si>
+  <si>
+    <t>Send an XML message to the API endpoint</t>
+  </si>
+  <si>
+    <t>Embedded_001</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly processes and responds to an XML message sent to a specific endpoint.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint.
+Valid credentials (if authentication is required).
+A tool to send HTTP requests, such as Postman or Curl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure you have the necessary access credentials for the API.
+Open your preferred HTTP request tool Postman 
+Prepare the XML message to be sent
+Set the request method to POST.
+Set the request URL to the API endpoint: 
+In the headers, set Content-Type to application/xml.
+If authentication is required, add the appropriate authentication headers 
+In the request body, paste the XML message defined in step 3.
+Send the request.
+</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK or another successful status code as per API documentation.
+Ensure the response body contains the expected XML structure and data.</t>
+  </si>
+  <si>
+    <t>The API returns a 200 OK status code.
+The response XML contains a Success Message
+The response XML contains accurate and corresponding data for the sent request.</t>
+  </si>
+  <si>
+    <t>If any test step fails, document the issue and include screenshots or logs if applicable.
+Retest after any bug fixes.</t>
+  </si>
+  <si>
+    <t>Add Actual test data</t>
+  </si>
+  <si>
+    <t>This test case ensures thorough validation of the API's ability to process XML messages correctly.</t>
+  </si>
+  <si>
+    <t>Receive an XML message from the DSMQ endpoint</t>
+  </si>
+  <si>
+    <t>Embedded_002</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly receives and processes an XML message from a DSMQ endpoint.</t>
+  </si>
+  <si>
+    <t>Access to the DSMQ endpoint.
+Valid credentials (if authentication is required).
+A tool to monitor DSMQ messages (such as a DSMQ client or logging system).
+A pre-configured XML message in the DSMQ queue.</t>
+  </si>
+  <si>
+    <t>Ensure you have the necessary access credentials for the DSMQ.
+Ensure a valid XML message is queued in DSMQ.
+Open your DSMQ client or monitoring tool.
+Connect to the DSMQ server using valid credentials.
+Identify the queue from which the API is expected to receive the message.
+Ensure the queue contains the pre-configured XML message.
+If the API has a specific endpoint to pull messages from DSMQ, use it. Otherwise, ensure the API is running and configured to automatically receive messages from DSMQ.
+Check the API's logs or the response endpoint to ensure the message has been received and processed.
+Validate the received message content against the expected XML structure.</t>
+  </si>
+  <si>
+    <t>Ensure the system processes the message correctly and updates any relevant data stores or services.
+Confirm that the message has been removed from the DSMQ queue.</t>
+  </si>
+  <si>
+    <t>The API successfully receives and processes the XML message.
+The logs or response endpoint indicate a successful processing of the message.
+The processed message content matches the expected XML structure.
+The message is removed from the DSMQ queue after successful processing.</t>
+  </si>
+  <si>
+    <t>This test case ensures thorough validation of the API's ability to receive and process XML messages from a DSMQ.</t>
+  </si>
+  <si>
+    <t>Embedded_003</t>
+  </si>
+  <si>
+    <t>Embedded_004</t>
+  </si>
+  <si>
+    <t>Embedded_005</t>
+  </si>
+  <si>
+    <t>Render an attachment from a converted message</t>
+  </si>
+  <si>
+    <t>Embedded_006</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly renders an attachment from a converted message.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint.
+Valid credentials (if authentication is required).
+A tool to send HTTP requests, such as Postman or Curl.
+A sample message containing an attachment to be converted.</t>
+  </si>
+  <si>
+    <t>Ensure you have the necessary access credentials for the API.
+Open your preferred HTTP request tool 
+Create a sample message that includes an attachment
+Set the request method to POST.
+Set the request URL to the API endpoint
+In the headers, set Content-Type to application/json.
+If authentication is required, add the appropriate authentication headers
+In the request body, paste the sample message defined 
+Send the request.</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK or another successful status code as per API documentation.
+Validate the response content. The response should include details of the converted attachment.</t>
+  </si>
+  <si>
+    <t>The API returns a 200 OK status code.
+The response includes a valid URL for the rendered attachment.
+The attachment is accessible and correctly rendered at the provided URL.
+The content of the attachment matches the original content sent in the request.</t>
+  </si>
+  <si>
+    <t>This test case ensures thorough validation of the API's ability to render an attachment from a converted message.</t>
+  </si>
+  <si>
+    <t>Create an email using rendered information and subject from a converted message</t>
+  </si>
+  <si>
+    <t>Embedded_007</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly creates an email using rendered information and a subject extracted from a converted message.</t>
+  </si>
+  <si>
+    <t>Access to the API endpoint.
+Valid credentials (if authentication is required).
+A tool to send HTTP requests, such as Postman or Curl.
+A sample converted message containing information to be rendered and a subject.</t>
+  </si>
+  <si>
+    <t>Ensure you have the necessary access credentials for the API.
+Open your preferred HTTP request tool 
+Create a sample converted message with rendered information and a subject
+Set the request method to POST.
+Set the request URL to the API endpoint.
+In the headers, set Content-Type to application/json.
+If authentication is required, add the appropriate authentication headers
+In the request body, paste the sample converted message defined.
+Send the request.</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK or another successful status code as per API documentation.
+Validate the response content.</t>
+  </si>
+  <si>
+    <t>Check the recipient's email inbox to ensure the email has been received.
+Verify the email's subject and body match the information provided in the converted message.
+Confirm that the email is properly formatted.</t>
+  </si>
+  <si>
+    <t>Ensure to test with different email formats (e.g., HTML, plain text) to cover various scenarios.
+Document any discrepancies or issues found during testing.</t>
+  </si>
+  <si>
+    <t>Embedded_008</t>
+  </si>
+  <si>
+    <t>Embedded_009</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +805,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -688,16 +876,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -706,6 +891,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,81 +1180,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1092,10 +1285,10 @@
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1159,7 +1352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1191,7 +1384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1223,7 +1416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -1255,14 +1448,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1287,7 +1480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -1319,7 +1512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -1351,7 +1544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -1383,7 +1576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>111</v>
       </c>
@@ -1422,4 +1615,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F3CDB2-F503-4880-8258-C3B09AFCAF3C}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" style="8"/>
+    <col min="2" max="2" width="16.88671875" style="8" customWidth="1"/>
+    <col min="3" max="8" width="40.33203125" style="8"/>
+    <col min="9" max="9" width="30.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="40.33203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="216.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILIPS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2193e7a4339f9527/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0942899-C2C6-4EA8-BC05-A7E24E3EFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573EB1EB-32F7-49C9-98F1-670A2DC81402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scenario_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="384">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Title </t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -129,9 +144,6 @@
 Monitor the DSMQ status or logs to track the processing of the XML message.</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Case Title </t>
-  </si>
-  <si>
     <t>The XML message is successfully enqueued in the DSMQ.
 The DSMQ processes the enqueued message without errors.
 The processed XML message is retrieved from the DSMQ.
@@ -152,21 +164,6 @@
   </si>
   <si>
     <t>API-03</t>
-  </si>
-  <si>
-    <t>API-04</t>
-  </si>
-  <si>
-    <t>API-05</t>
-  </si>
-  <si>
-    <t>API-06</t>
-  </si>
-  <si>
-    <t>API-07</t>
-  </si>
-  <si>
-    <t>API-08</t>
   </si>
   <si>
     <t>This test case verifies the ability of the API to add a message to a queue. It involves sending a message payload to the API endpoint responsible for adding messages to the queue and confirming that the message is successfully enqueued.</t>
@@ -217,6 +214,9 @@
     <t>Verify Pick Up Message from DSMQ via API</t>
   </si>
   <si>
+    <t>API-04</t>
+  </si>
+  <si>
     <t>This test case validates the ability of the API to pick up a message from a Distributed State Machine Queue (DSMQ). It involves sending a request to the API endpoint responsible for retrieving messages from the queue and confirming that the message is successfully picked up.</t>
   </si>
   <si>
@@ -262,6 +262,9 @@
     <t>Verify ACL Information Translation from DSMQ into Usable Status via API</t>
   </si>
   <si>
+    <t>API-05</t>
+  </si>
+  <si>
     <t>This test case validates the functionality of the API to translate ACL (Access Control List) information received from a Distributed State Machine Queue (DSMQ) into usable status. It involves retrieving ACL data from the DSMQ, translating it into a usable format, and confirming the correctness of the status information.</t>
   </si>
   <si>
@@ -303,6 +306,9 @@
   </si>
   <si>
     <t>Verify Sending Message to Docfusion via API</t>
+  </si>
+  <si>
+    <t>API-06</t>
   </si>
   <si>
     <t>This test case validates the functionality of the API to send a message to Docfusion, a document generation and management platform. It involves sending a message payload to the API endpoint responsible for communicating with Docfusion and confirming that the message is successfully delivered.</t>
@@ -353,6 +359,9 @@
     <t>Verify Rendering HTML Content for Document Body via API</t>
   </si>
   <si>
+    <t>API-07</t>
+  </si>
+  <si>
     <t>This test case validates the functionality of the API to render HTML content for a document body. It involves sending HTML content to the API endpoint responsible for rendering and confirming that the content is transformed into a document-ready format.</t>
   </si>
   <si>
@@ -398,6 +407,9 @@
   </si>
   <si>
     <t>Verify Sending Rendered Information to CMA via API</t>
+  </si>
+  <si>
+    <t>API-08</t>
   </si>
   <si>
     <t>This test case validates the functionality of the API to send rendered information to a Content Management Application (CMA). It involves rendering content, sending it to the API endpoint responsible for communication with the CMA, and confirming that the information is successfully delivered.</t>
@@ -451,12 +463,6 @@
   </si>
   <si>
     <t>API-09</t>
-  </si>
-  <si>
-    <t>API-10</t>
-  </si>
-  <si>
-    <t>API-11</t>
   </si>
   <si>
     <t>This test case validates the functionality of the API to create an email using translated content for the subject and a Document Fusion (DF) generated body. It involves translating content for the email subject, generating a document body using Document Fusion, and confirming that the email is successfully created with the translated subject and DF generated body.</t>
@@ -513,6 +519,9 @@
     <t>Verify Passing Created Email to Client via Adapter</t>
   </si>
   <si>
+    <t>API-10</t>
+  </si>
+  <si>
     <t>This test case validates the functionality of the API to pass through the created email to the client via an adapter. It involves creating an email, passing it to the API endpoint responsible for communication with the adapter, and confirming that the email is successfully delivered to the client.</t>
   </si>
   <si>
@@ -563,6 +572,9 @@
     <t>Verify Passing Message Status to DSMQ System via API</t>
   </si>
   <si>
+    <t>API-11</t>
+  </si>
+  <si>
     <t>This test case validates the functionality of the API to pass through message status updates to the DSMQ (Distributed State Machine Queue) system. It involves updating the status of a message, sending it to the API endpoint responsible for communication with the DSMQ, and confirming that the status update is successfully processed and reflected in the DSMQ.</t>
   </si>
   <si>
@@ -668,6 +680,12 @@
     <t>This test case verifies that the API correctly receives and processes an XML message from a DSMQ endpoint.</t>
   </si>
   <si>
+    <t>Access to the DSMQ endpoint.
+Valid credentials (if authentication is required).
+A tool to monitor DSMQ messages (such as a DSMQ client or logging system).
+A pre-configured XML message in the DSMQ queue.</t>
+  </si>
+  <si>
     <t>Ensure you have the necessary access credentials for the DSMQ.
 Ensure a valid XML message is queued in DSMQ.
 Open your DSMQ client or monitoring tool.
@@ -785,17 +803,757 @@
     <t>Embedded_009</t>
   </si>
   <si>
-    <t>Access to the DSMQ endpoint.
-Valid credentials (if authentication is required).
-A tool to monitor DSMQ messages (such as a DSMQ client or logging system).
-A pre-configured XML message in the DSMQ queue</t>
+    <t>Password Protection With Encryption Key Provided By Business</t>
+  </si>
+  <si>
+    <t>To verify that the consumer can successfully send an XML message with a valid key for password protection.</t>
+  </si>
+  <si>
+    <t>TestCase_1</t>
+  </si>
+  <si>
+    <t>API endpoint is up and running.
+Consumer has valid credentials and API key.</t>
+  </si>
+  <si>
+    <t>Construct a valid XML message including the necessary fields.
+Include a valid password key in the XML.
+Send the XML message to the API endpoint.
+Observe the response from the API.</t>
+  </si>
+  <si>
+    <t>The API responds with a status code 200 OK.
+The response body contains a success message and any relevant data.</t>
+  </si>
+  <si>
+    <t>Valid XML Message with Correct Password</t>
+  </si>
+  <si>
+    <t>TestCase_2</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible</t>
+  </si>
+  <si>
+    <t>Create a valid XML message with all required fields populated.
+Include a correctly hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API successfully processes the message and returns a success response code</t>
+  </si>
+  <si>
+    <t>Valid XML Message with Incorrect Password</t>
+  </si>
+  <si>
+    <t>TestCase_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a valid XML message with all required fields populated.
+Include an incorrectly hashed password in the XML message.
+Send the XML message to the API endpoint.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The API returns an authentication failure response code (401 Unauthorized) with an appropriate error message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missing Password in XML Message</t>
+  </si>
+  <si>
+    <t>TestCase_4</t>
+  </si>
+  <si>
+    <t>XML message without a password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a valid XML message with all required fields populated but omit the password.
+Send the XML message to the API endpoint.
+</t>
+  </si>
+  <si>
+    <t>Expected Result:
+The API returns a validation error response code (400 Bad Request) indicating that the password is missing.</t>
+  </si>
+  <si>
+    <t>Malformed XML Message</t>
+  </si>
+  <si>
+    <t>TestCase_5</t>
+  </si>
+  <si>
+    <t>Malformed XML message</t>
+  </si>
+  <si>
+    <t>Create a malformed XML message with syntax errors.
+Include a correctly hashed password in the malformed XML message.
+Send the malformed XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API returns a parsing error response code (400 Bad Request) indicating that the XML is malformed</t>
+  </si>
+  <si>
+    <t>Empty XML Message</t>
+  </si>
+  <si>
+    <t>TestCase_6</t>
+  </si>
+  <si>
+    <t>Empty XML message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an empty XML message (no content inside the tags).
+Send the empty XML message to the API endpoint.
+</t>
+  </si>
+  <si>
+    <t>The API returns a validation error response code (400 Bad Request) indicating that the message is empty.</t>
+  </si>
+  <si>
+    <t>XML Message with Extra Unrecognized Fields</t>
+  </si>
+  <si>
+    <t>TestCase_7</t>
+  </si>
+  <si>
+    <t>Create a valid XML message with all required fields populated.
+Add extra, unrecognized fields to the XML message.
+Include a correctly hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API processes the message successfully and returns a success response code (200 OK), ignoring the unrecognized fields.</t>
+  </si>
+  <si>
+    <t>XML Message with Special Characters in Data Fields</t>
+  </si>
+  <si>
+    <t>TestCase_8</t>
+  </si>
+  <si>
+    <t>Create a valid XML message with special characters in one or more data fields.
+Include a correctly hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API successfully processes the message and returns a success response code (200 OK), correctly handling the special characters.</t>
+  </si>
+  <si>
+    <t>Large XML Message</t>
+  </si>
+  <si>
+    <t>TestCase_9</t>
+  </si>
+  <si>
+    <t>Create a valid but very large XML message (near the upper limit of acceptable size).
+Include a correctly hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API successfully processes the large message and returns a success response code (200 OK).</t>
+  </si>
+  <si>
+    <t>XML Message with Invalid XML Schema</t>
+  </si>
+  <si>
+    <t>TestCase_10</t>
+  </si>
+  <si>
+    <t>Create an XML message that does not conform to the required XML schema (missing required fields).
+Include a correctly hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API returns a validation error response code (400 Bad Request) indicating schema validation failure.</t>
+  </si>
+  <si>
+    <t>XML Message with Expired Password</t>
+  </si>
+  <si>
+    <t>TestCase_11</t>
+  </si>
+  <si>
+    <t>Create a valid XML message with all required fields populated.
+Include a previously correct, but now expired, hashed password in the XML message.
+Send the XML message to the API endpoint.</t>
+  </si>
+  <si>
+    <t>The API returns an authentication failure response code (401 Unauthorized) indicating that the password is expired.</t>
+  </si>
+  <si>
+    <t>Valid XML message</t>
+  </si>
+  <si>
+    <t>TestCase_12</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; DSMQ server is running</t>
+  </si>
+  <si>
+    <t>Create a valid XML message with all required fields populated.
+Send the XML message to the DSMQ API endpoint.</t>
+  </si>
+  <si>
+    <t>The DSMQ successfully receives and processes the message, returning a success response code 200.</t>
+  </si>
+  <si>
+    <t>TestCase_13</t>
+  </si>
+  <si>
+    <t>Create a malformed XML message with syntax errors.
+Send the malformed XML message to the DSMQ API endpoint.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a parsing error response code (400 Bad Request) indicating that the XML is malformed.</t>
+  </si>
+  <si>
+    <t>Missing Required Fields in XML Message</t>
+  </si>
+  <si>
+    <t>TestCase_14</t>
+  </si>
+  <si>
+    <t>Create an XML message with some required fields missing.
+Send the XML message to the DSMQ API endpoint.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a validation error response code (e.g., 400 Bad Request) indicating that required fields are missing.</t>
+  </si>
+  <si>
+    <t>Write Valid Message to Queue</t>
+  </si>
+  <si>
+    <t>TestCase_15</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue is available</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint for writing to the queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ successfully writes the message to the queue and returns a success response code 200</t>
+  </si>
+  <si>
+    <t>Write Message to Queue with Invalid Data</t>
+  </si>
+  <si>
+    <t>TestCase_16</t>
+  </si>
+  <si>
+    <t>Create a message with invalid data (e.g., string where integer is expected).
+Send the message to the DSMQ API endpoint for writing to the queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a validation error response code (400 Bad Request) indicating that the data is invalid.</t>
+  </si>
+  <si>
+    <t>Write Message to Full Queue</t>
+  </si>
+  <si>
+    <t>TestCase_17</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue is full</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint for writing to the full queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a queue full error response code (e.g., 503 Service Unavailable) indicating that the queue is full.</t>
+  </si>
+  <si>
+    <t>Write Large Message to Queue</t>
+  </si>
+  <si>
+    <t>TestCase_18</t>
+  </si>
+  <si>
+    <t>Create a very large message (e.g., near the upper limit of acceptable size).
+Send the message to the DSMQ API endpoint for writing to the queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ successfully writes the large message to the queue and returns a success response code (200).</t>
+  </si>
+  <si>
+    <t>Write Empty Message to Queue</t>
+  </si>
+  <si>
+    <t>TestCase_19</t>
+  </si>
+  <si>
+    <t>Create an empty message (no content inside the fields).
+Send the empty message to the DSMQ API endpoint for writing to the queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a validation error response code (400 Bad Request) indicating that the message is empty.</t>
+  </si>
+  <si>
+    <t>Write Message to Queue with Invalid Authentication</t>
+  </si>
+  <si>
+    <t>TestCase_20</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue is available; incorrect authentication credentials are provided</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint with invalid authentication credentials.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns an authentication failure response code (401 Unauthorized).</t>
+  </si>
+  <si>
+    <t>Write Message to Queue with Correct Authentication</t>
+  </si>
+  <si>
+    <t>TestCase_21</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue is available; correct authentication credentials are provided</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint with valid authentication credentials.</t>
+  </si>
+  <si>
+    <t>Write Message to Non-existent Queue</t>
+  </si>
+  <si>
+    <t>TestCase_22</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint for writing to a non-existent queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ returns a queue not found error response code 400</t>
+  </si>
+  <si>
+    <t>Write Message to Queue During Network Interruption</t>
+  </si>
+  <si>
+    <t>TestCase_23</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Network stability is controllable</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Induce a network interruption during the message sending process.
+Send the message to the DSMQ API endpoint for writing to the queue.</t>
+  </si>
+  <si>
+    <t>The DSMQ handles the network interruption gracefully, potentially returning a network error response code (500 Internal Server Error) or a timeout response code (408 Request Timeout).</t>
+  </si>
+  <si>
+    <t>Write Duplicate Messages to Queue</t>
+  </si>
+  <si>
+    <t>TestCase_24</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint for writing to the queue.
+Send the same message again to the DSMQ API endpoint.</t>
+  </si>
+  <si>
+    <t>The DSMQ processes both messages and writes them to the queue, returning a success response code (200 OK) for each request. If deduplication is a feature, verify that only one instance of the message exists in the queue.</t>
+  </si>
+  <si>
+    <t>Write Message to Queue with Delayed Response</t>
+  </si>
+  <si>
+    <t>TestCase_25</t>
+  </si>
+  <si>
+    <t>Write message to queue with delayed response</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue is available; Simulate a delayed response</t>
+  </si>
+  <si>
+    <t>Create a valid message with all required fields populated.
+Send the message to the DSMQ API endpoint for writing to the queue.
+Simulate a delayed response from the server.</t>
+  </si>
+  <si>
+    <t>The DSMQ handles the delayed response appropriately, returning a success response code (200 OK) after the delay, or providing a timeout error response code (408 Request Timeout) if the delay exceeds a threshold.</t>
+  </si>
+  <si>
+    <t>Pull Valid Message from Queue</t>
+  </si>
+  <si>
+    <t>TestCase_26</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue has valid messages</t>
+  </si>
+  <si>
+    <t>Send a request to the CMA API endpoint to pull a message from the DSMQ.</t>
+  </si>
+  <si>
+    <t>The CMA successfully pulls a valid message from the queue and returns a success response code (200 OK) with the message content.</t>
+  </si>
+  <si>
+    <t>Pull Message with Network Interruption</t>
+  </si>
+  <si>
+    <t>TestCase_27</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue has valid messages; Network stability is controllable</t>
+  </si>
+  <si>
+    <t>Send a request to the CMA API endpoint to pull a message from the DSMQ.
+Induce a network interruption during the message pulling process.</t>
+  </si>
+  <si>
+    <t>The CMA handles the network interruption gracefully, potentially returning a network error response code (500 Internal Server Error) or a timeout response code (408 Request Timeout).</t>
+  </si>
+  <si>
+    <t>Pull Message with Specific Filters/Criteria</t>
+  </si>
+  <si>
+    <t>TestCase_28</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Queue has messages matching the criteria</t>
+  </si>
+  <si>
+    <t>Send a request to the CMA API endpoint to pull a message from the DSMQ with specific filters or criteria (priority, type).</t>
+  </si>
+  <si>
+    <t>The CMA successfully pulls a message that matches the specified filters/criteria from the queue and returns a success response code (200 OK) with the filtered message content.</t>
+  </si>
+  <si>
+    <t>Transform Valid Message</t>
+  </si>
+  <si>
+    <t>TestCase_29</t>
+  </si>
+  <si>
+    <t>Send a valid message to the ACL API endpoint for transformation.</t>
+  </si>
+  <si>
+    <t>The ACL successfully transforms the message according to the specified rules and returns a success response code (200 OK) with the transformed message.</t>
+  </si>
+  <si>
+    <t>Send Valid Information</t>
+  </si>
+  <si>
+    <t>TestCase_30</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Doc Fusion system is available</t>
+  </si>
+  <si>
+    <t>Create a payload with valid information.
+Send the payload to the Doc Fusion API endpoint.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system successfully receives and processes the information, returning a success response code (200 OK) with a confirmation message.</t>
+  </si>
+  <si>
+    <t>Send Information with Missing Required Fields</t>
+  </si>
+  <si>
+    <t>TestCase_31</t>
+  </si>
+  <si>
+    <t>Create a payload with some required fields missing.
+Send the payload to the Doc Fusion API endpoint.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system returns a validation error response code (e.g., 400 Bad Request) indicating that required fields are missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Render Document with Valid Template and Data</t>
+  </si>
+  <si>
+    <t>TestCase_32</t>
+  </si>
+  <si>
+    <t>Create a payload with a valid template ID and corresponding data.
+Send a request to the Doc Fusion API endpoint to render the document.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system successfully renders the document and returns a success response code (200 OK) along with the rendered document in the desired format</t>
+  </si>
+  <si>
+    <t>Render Document with Missing Template ID</t>
+  </si>
+  <si>
+    <t>TestCase_33</t>
+  </si>
+  <si>
+    <t>Create a payload with data but omit the template ID.
+Send a request to the Doc Fusion API endpoint to render the document.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system returns a validation error response code (400 Bad Request) indicating that the template ID is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Render Document with Invalid Template ID</t>
+  </si>
+  <si>
+    <t>TestCase_34</t>
+  </si>
+  <si>
+    <t>Create a payload with an invalid template ID and valid data.
+Send a request to the Doc Fusion API endpoint to render the document.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system returns an error response code (404 Not Found) indicating that the template ID is invalid or does not exist.</t>
+  </si>
+  <si>
+    <t>Render Document with Missing Data Fields</t>
+  </si>
+  <si>
+    <t>TestCase_35</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid template ID is available</t>
+  </si>
+  <si>
+    <t>Create a payload with a valid template ID but omit some required data fields.
+Send a request to the Doc Fusion API endpoint to render the document.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system returns a validation error response code (400 Bad Request) indicating that required data fields are missing.</t>
+  </si>
+  <si>
+    <t>Render Document with Extra Unrecognized Data Fields</t>
+  </si>
+  <si>
+    <t>TestCase_36</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid template ID and data are available</t>
+  </si>
+  <si>
+    <t>Create a payload with a valid template ID, valid data, and extra, unrecognized data fields.
+Send a request to the Doc Fusion API endpoint to render the document.</t>
+  </si>
+  <si>
+    <t>The Doc Fusion system successfully renders the document, ignoring the unrecognized data fields, and returns a success response code (200 OK) along with the rendered document.</t>
+  </si>
+  <si>
+    <t>TestCase_37</t>
+  </si>
+  <si>
+    <t>Pass Valid Rendered Document with Password Protection</t>
+  </si>
+  <si>
+    <t>TestCase_38</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid rendered document is available; Password protection application is available</t>
+  </si>
+  <si>
+    <t>Render a document using the appropriate Doc Fusion API.
+Create a payload with the rendered document and a valid password.
+Send the payload to the password protection application API endpoint.</t>
+  </si>
+  <si>
+    <t>The password protection application successfully applies password protection to the document and returns a success response code (200 OK) along with a confirmation message.</t>
+  </si>
+  <si>
+    <t>Pass Rendered Document with Missing Password</t>
+  </si>
+  <si>
+    <t>TestCase_39</t>
+  </si>
+  <si>
+    <t>Render a document using the appropriate Doc Fusion API.
+Create a payload with the rendered document but omit the password.
+Send the payload to the password protection application API endpoint.</t>
+  </si>
+  <si>
+    <t>The password protection application returns a validation error response code (400 Bad Request) indicating that the password is missing.</t>
+  </si>
+  <si>
+    <t>Pass rendered document with invalid password format</t>
+  </si>
+  <si>
+    <t>TestCase_40</t>
+  </si>
+  <si>
+    <t>Render a document using the appropriate Doc Fusion API.
+Create a payload with the rendered document and an invalid password format (too short, contains invalid characters).
+Send the payload to the password protection application API endpoint.</t>
+  </si>
+  <si>
+    <t>The password protection application returns a validation error response code (400 Bad Request) indicating that the password format is invalid.</t>
+  </si>
+  <si>
+    <t>Apply Password Protection to Valid Document</t>
+  </si>
+  <si>
+    <t>TestCase_41</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid document is available</t>
+  </si>
+  <si>
+    <t>Create a payload with a valid document and a valid password.
+Send the payload to the password protection API endpoint.</t>
+  </si>
+  <si>
+    <t>The system successfully applies password protection to the document and returns a success response code (200 OK) along with a confirmation message and the protected document.</t>
+  </si>
+  <si>
+    <t>Apply Password Protection During Network Interruption</t>
+  </si>
+  <si>
+    <t>TestCase_42</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid document is available; Network stability is controllable</t>
+  </si>
+  <si>
+    <t>Create a payload with the valid document and a valid password.
+Send the payload to the password protection API endpoint.
+Induce a network interruption during the process.</t>
+  </si>
+  <si>
+    <t>The system handles the network interruption gracefully, potentially returning a network error response code (500 Internal Server Error) or a timeout response code (408 Request Timeout).</t>
+  </si>
+  <si>
+    <t>Apply Password Protection with Delayed Response</t>
+  </si>
+  <si>
+    <t>TestCase_43</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid document is available; Simulate a delayed response</t>
+  </si>
+  <si>
+    <t>Create a payload with the valid document and a valid password.
+Send the payload to the password protection API endpoint.
+Simulate a delayed response from the server.</t>
+  </si>
+  <si>
+    <t>The system handles the delayed response appropriately, returning a success response code (200 OK) after the delay, or providing a timeout error response code (408 Request Timeout) if the delay exceeds a threshold.</t>
+  </si>
+  <si>
+    <t>Send password-protected document to valid client</t>
+  </si>
+  <si>
+    <t>TestCase_44</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid password-protected document is available; Valid client information is available</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document and valid client information (e.g., email address or client ID).
+Send the payload to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>The system successfully sends the password-protected document to the client and returns a success response code (200 OK) along with a confirmation message.</t>
+  </si>
+  <si>
+    <t>Send Password-Protected Document with Missing Client Information</t>
+  </si>
+  <si>
+    <t>TestCase_45</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid password-protected document is available</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document but omit client information.
+Send the payload to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>The system returns a validation error response code (e.g., 400 Bad Request) indicating that the client information is missing.</t>
+  </si>
+  <si>
+    <t>Send Password-Protected Document with Invalid Client Information</t>
+  </si>
+  <si>
+    <t>TestCase_46</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document and invalid client information (e.g., invalid email address).
+Send the payload to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>The system returns an error response code (404 Not Found or 400 Bad Request) indicating that the client information is invalid.</t>
+  </si>
+  <si>
+    <t>Send large password-protected document to client</t>
+  </si>
+  <si>
+    <t>TestCase_47</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid large password-protected document is available; Valid client information is available</t>
+  </si>
+  <si>
+    <t>Create a payload with the large password-protected document and valid client information.
+Send the payload to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>The system successfully sends the large password-protected document to the client and returns a success response code (200 OK) along with a confirmation message.</t>
+  </si>
+  <si>
+    <t>Send Password-Protected Document During Network Interruption</t>
+  </si>
+  <si>
+    <t>TestCase_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API endpoint is accessible; Valid password-protected document is available; Valid client information is available; Network stability is controllable
+</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document and valid client information.
+Send the payload to the API endpoint responsible for sending documents to clients.
+Induce a network interruption during the process.</t>
+  </si>
+  <si>
+    <t>Send Password-Protected Document with Correct Authentication</t>
+  </si>
+  <si>
+    <t>TestCase_49</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid password-protected document is available; Valid client information is available; Correct authentication credentials are provided</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document and valid client information.
+Send the payload with correct authentication credentials to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>Send Password-Protected Document with Specific Client Policies</t>
+  </si>
+  <si>
+    <t>TestCase_50</t>
+  </si>
+  <si>
+    <t>API endpoint is accessible; Valid password-protected document is available; Valid client information is available; Specific client policies are configured (only certain clients can receive certain types of documents)</t>
+  </si>
+  <si>
+    <t>Create a payload with the password-protected document and client information that meets the specific policies.
+Send the payload to the API endpoint responsible for sending documents to clients.</t>
+  </si>
+  <si>
+    <t>The system successfully sends the password-protected document to the client according to the specific policies and returns a success response code (200 OK) along with a confirmation message.</t>
+  </si>
+  <si>
+    <t>TestCase_51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,8 +1573,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,8 +1599,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -872,11 +1642,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -900,6 +1722,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,28 +2023,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="E12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:J13"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1220,92 +2060,92 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="172.9">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="158.44999999999999">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
@@ -1314,13 +2154,13 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="201.6">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1328,164 +2168,164 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="259.14999999999998">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="216">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="201.6">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="244.9">
+      <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="216">
+      <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -1512,7 +2352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="374.45">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -1520,68 +2360,68 @@
         <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="273.60000000000002">
+      <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="273.60000000000002">
+      <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>112</v>
@@ -1618,23 +2458,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F3CDB2-F503-4880-8258-C3B09AFCAF3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E9891-F9C2-4E9A-9FC1-C5F5A86348EB}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="H1" zoomScale="58" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="7"/>
-    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
-    <col min="3" max="8" width="40.33203125" style="7"/>
-    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.33203125" style="7"/>
+    <col min="1" max="1" width="40.28515625" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.28515625" style="7"/>
+    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>120</v>
       </c>
@@ -1650,39 +2493,39 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="216.6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="179.45" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -1714,7 +2557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="288.60000000000002">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -1725,216 +2568,216 @@
         <v>133</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.14999999999998">
       <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.15">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="216">
       <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" ht="202.15">
       <c r="A8" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>128</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="201.6">
       <c r="A9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002">
       <c r="A10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="B11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -1966,5 +2809,1316 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E34D38-4229-4676-BE70-E5B405438767}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="34.85546875" style="12"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="34.85546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.75">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="106.5">
+      <c r="A3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="91.5">
+      <c r="A4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="106.5">
+      <c r="A5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="91.5">
+      <c r="A6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="91.5">
+      <c r="A7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="76.5">
+      <c r="A8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="121.5">
+      <c r="A9" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="106.5">
+      <c r="A10" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="106.5">
+      <c r="A11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="106.5">
+      <c r="A12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="106.5">
+      <c r="A13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="60.75">
+      <c r="A14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="60.75">
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="60.75">
+      <c r="A16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="60.75">
+      <c r="A17" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="60.75">
+      <c r="A18" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="60.75">
+      <c r="A19" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="60.75">
+      <c r="A20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="60.75">
+      <c r="A21" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="76.5">
+      <c r="A22" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="76.5">
+      <c r="A23" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="76.5">
+      <c r="A24" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="91.5">
+      <c r="A25" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="106.5">
+      <c r="A26" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="91.5">
+      <c r="A27" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="60.75">
+      <c r="A28" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" ht="91.5">
+      <c r="A29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="76.5">
+      <c r="A30" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" ht="76.5">
+      <c r="A31" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="76.5">
+      <c r="A32" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="60.75">
+      <c r="A33" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="76.5">
+      <c r="A34" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="60.75">
+      <c r="A35" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="60.75">
+      <c r="A36" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" ht="60.75">
+      <c r="A37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="76.5">
+      <c r="A38" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="409.6">
+      <c r="A39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="91.5">
+      <c r="A40" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="91.5">
+      <c r="A41" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="121.5">
+      <c r="A42" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="76.5">
+      <c r="A43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="91.5">
+      <c r="A44" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" ht="91.5">
+      <c r="A45" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" ht="106.5">
+      <c r="A46" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="91.5">
+      <c r="A47" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="106.5">
+      <c r="A48" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" ht="91.5">
+      <c r="A49" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" ht="121.5">
+      <c r="A50" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" ht="106.5">
+      <c r="A51" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" ht="106.5">
+      <c r="A52" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" ht="409.6">
+      <c r="A53" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2193e7a4339f9527/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{573EB1EB-32F7-49C9-98F1-670A2DC81402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD51073C-5A4B-440D-B136-D2B4B26AD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
+    <sheet name="scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenario4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="489">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -1548,12 +1549,521 @@
   <si>
     <t>TestCase_51</t>
   </si>
+  <si>
+    <t>Password Protection where fields are not found in Projections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify Consumer Sends XML Message Successfully</t>
+  </si>
+  <si>
+    <t>TC_API_01</t>
+  </si>
+  <si>
+    <t>This test case verifies that a consumer can send an XML message to the API endpoint and receive the correct response.</t>
+  </si>
+  <si>
+    <t>The API endpoint is up and running.
+The consumer has the necessary authentication credentials (if required).
+The API endpoint URL is known.</t>
+  </si>
+  <si>
+    <t>Prepare the XML message to be sent.
+ Send the XML message to the API endpoint using an HTTP POST request.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK (or other relevant success code as per API documentation).
+The response body should confirm the successful processing of the XML message.</t>
+  </si>
+  <si>
+    <t>The response headers should include Content-Type: application/xml</t>
+  </si>
+  <si>
+    <t>The XML message has been processed by the API.
+The consumer has received a confirmation response.
+The XML message is sent and processed successfully.
+The response status code is 200 OK.
+The response body contains a success message.
+The response headers include the correct content type.</t>
+  </si>
+  <si>
+    <t>Verify DSMQ Receives XML Message Successfully</t>
+  </si>
+  <si>
+    <t>TC_API_02</t>
+  </si>
+  <si>
+    <t>This test case verifies that the DSMQ can receive an XML message sent by a producer and processes it correctly.</t>
+  </si>
+  <si>
+    <t>DSMQ service is up and running.
+Producer has access to DSMQ endpoint.
+The DSMQ endpoint URL is known.
+Necessary authentication credentials are available if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The XML message is well-formed and valid according to the DSMQ schema.
+Send the XML message to the DSMQ endpoint using an HTTP POST request.
+</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK (or another relevant success code as per DSMQ documentation).</t>
+  </si>
+  <si>
+    <t>The DSMQ endpoint accepts the request and processes the XML message without errors.
+The response body should confirm the successful reception and processing of the XML message.
+xml
+ Validate the response headers.
+The response headers should include Content-Type: application/xml.
+Check the DSMQ system or logs to ensure the message has been received and processed.
+The DSMQ system should show an entry for the received message with the correct details (MessageID, Timestamp, Customer details).
+The XML message is sent and processed successfully by DSMQ.
+The response status code is 200 OK.
+The response body contains a success message.
+The response headers include the correct content type.
+The DSMQ system logs show the message was received and processed.</t>
+  </si>
+  <si>
+    <t>The XML message has been received and processed by DSMQ.
+The producer has received a confirmation response.</t>
+  </si>
+  <si>
+    <t>Verify Message is Added to Queue Successfully</t>
+  </si>
+  <si>
+    <t>TC_API_03</t>
+  </si>
+  <si>
+    <t>This test case verifies that a message can be successfully added to a queue by sending an XML message to the queue's API endpoint.</t>
+  </si>
+  <si>
+    <t>The queue service is up and running.
+Producer has access to the queue API endpoint.
+The queue API endpoint URL is known.
+Necessary authentication credentials are available if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare the XML message to be added to the queue.
+The XML message is well-formed and valid according to the queue schema.
+Send the XML message to the queue API endpoint using an HTTP POST request.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The queue API endpoint accepts the request and processes the XML message without errors.
+The response status code should be 200 OK (or another relevant success code as per API documentation).
+The response body should confirm the successful addition of the message to the queue.</t>
+  </si>
+  <si>
+    <t>The XML message is sent and added to the queue successfully.
+The response status code is 200 OK.
+The response body contains a success message.
+The response headers include the correct content type.
+The queue system logs show the message was added with the correct details</t>
+  </si>
+  <si>
+    <t>The XML message has been added to the queue.
+The producer has received a confirmation response.</t>
+  </si>
+  <si>
+    <t>Verify Enrichment Application Picks Up Message from Queue Successfully</t>
+  </si>
+  <si>
+    <t>TC_API_04</t>
+  </si>
+  <si>
+    <t>This test case verifies that an enrichment application correctly picks up a message from the queue, processes it, and updates the queue status.</t>
+  </si>
+  <si>
+    <t>The queue service is up and running.
+The enrichment application is up and running.
+A valid message is present in the queue.
+Necessary authentication credentials are available if required.</t>
+  </si>
+  <si>
+    <t>At least one message is available in the queue for processing.
+Initiate the enrichment application to pick up messages from the queue.
+Verify that the enrichment application picks up the message from the queue.</t>
+  </si>
+  <si>
+    <t>The message with MessageID 12345 is picked up from the queue by the enrichment application.</t>
+  </si>
+  <si>
+    <t>The message is picked up from the queue by the enrichment application.
+The message is processed and enriched correctly.
+The message status in the queue is updated to indicate successful processing.
+The logs of the enrichment application confirm the processing steps.</t>
+  </si>
+  <si>
+    <t>The message is processed and its status is updated in the queue.
+The enrichment application logs confirm the successful processing of the message.</t>
+  </si>
+  <si>
+    <t>Verify Enrichment Field Exists in Projections</t>
+  </si>
+  <si>
+    <t>TC_API_05</t>
+  </si>
+  <si>
+    <t>This test case verifies that the enrichment field exists in the projections returned by the API after processing a message.</t>
+  </si>
+  <si>
+    <t>The enrichment application is up and running.
+A valid message has been processed by the enrichment application and projections are available.
+Necessary authentication credentials are available if required.
+The API endpoint for retrieving projections is known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a request to the API endpoint to retrieve projections.
+Verify the structure of the response body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the enrichment field exists in the projections.
+Validate the contents of the enrichment field.
+</t>
+  </si>
+  <si>
+    <t>The response status code is 200 OK.
+The response body contains a list of projections.
+Each projection includes the enrichedData field with the correct enrichment information.</t>
+  </si>
+  <si>
+    <t>The presence of the enrichment field in the projections is confirmed.
+Any issues found are documented for further investigation.</t>
+  </si>
+  <si>
+    <t>Verify Handling of Incomplete Enrichment Process</t>
+  </si>
+  <si>
+    <t>TC_API_06</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly indicates when the enrichment process for a message is not completed.</t>
+  </si>
+  <si>
+    <t>The enrichment application and queue service are up and running.
+A message that has not completed the enrichment process is present in the queue or projections.
+Necessary authentication credentials are available if required.
+The API endpoint for checking the status of enrichment is known.</t>
+  </si>
+  <si>
+    <t>Send a request to the API endpoint to retrieve the status of a specific message.</t>
+  </si>
+  <si>
+    <t>Verify the response status code.
+Verify the structure of the response body
+Validate the handling of incomplete enrichment in the application or system.
+Check the logs of the enrichment application for errors or warnings related to the incomplete process.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK (or another relevant success code as per API documentation).</t>
+  </si>
+  <si>
+    <t>The status of the message is correctly reported as incomplete.
+Any issues related to the incomplete enrichment process are documented.</t>
+  </si>
+  <si>
+    <t>The response status code is 200 OK.
+The response body indicates that the enrichment process is not completed.
+The status field accurately reflects the incomplete status.
+The details field provides a clear explanation.
+Logs provide information about the cause of the incomplete enrichment process.</t>
+  </si>
+  <si>
+    <t>Verify Enrichment Application Picks Up Non-Enriched XML Message from DSMQ</t>
+  </si>
+  <si>
+    <t>TC_API_07</t>
+  </si>
+  <si>
+    <t>This test case verifies that the enrichment application correctly picks up a non-enriched XML message from DSMQ for processing.</t>
+  </si>
+  <si>
+    <t>The DSMQ service is up and running.
+The enrichment application is up and running.
+A valid non-enriched XML message is present in DSMQ.
+Necessary authentication credentials are available if required.
+The API endpoint for checking the queue or picking up messages is known.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify the presence of a non-enriched XML message in DSMQ.
+Initiate the enrichment application to pick up messages from DSMQ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document any issues or discrepancies found during the test.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the enrichment application picks up the non-enriched XML message from DSMQ.
+Verify the processing of the non-enriched message by the enrichment application.
+Verify the status of the message in DSMQ after processing.</t>
+  </si>
+  <si>
+    <t>The non-enriched XML message is picked up from DSMQ by the enrichment application.
+The message is processed and enriched correctly.
+The message status in DSMQ is updated to indicate successful processing.
+The logs of the enrichment application confirm the processing steps.</t>
+  </si>
+  <si>
+    <t>The non-enriched XML message is picked up and processed by the enrichment application.
+The message status in DSMQ is updated to indicate successful processing.
+Logs provide confirmation of the message processing steps.</t>
+  </si>
+  <si>
+    <t>Verify ACL Converts DSMQ Message for CMA Successfully</t>
+  </si>
+  <si>
+    <t>TC_API_08</t>
+  </si>
+  <si>
+    <t>This test case verifies that the Access Control Layer (ACL) converts a DSMQ message into the appropriate format required by the Central Management Application (CMA).</t>
+  </si>
+  <si>
+    <t>The DSMQ service is up and running.
+The ACL service is up and running.
+The CMA service is up and running.
+A valid message is present in DSMQ that needs to be converted.
+Necessary authentication credentials are available if required.
+The API endpoints for ACL and CMA are known.</t>
+  </si>
+  <si>
+    <t>Verify the presence of a valid DSMQ message.
+Send a request to the ACL endpoint to initiate the conversion process.
+Verify the response status code from the ACL endpoint.
+Verify the structure of the response body.
+Document any issues or discrepancies found during the test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The response status code should be 200 OK (or another relevant success code as per API documentation).
+The converted message should match the format required by CMA.
+</t>
+  </si>
+  <si>
+    <t>The non-enriched XML message is picked up from DSMQ by the ACL.
+The message is converted successfully into the required format by the ACL.
+The converted message is sent to CMA and processed successfully.
+The response status codes from both ACL and CMA are 200 OK.
+The logs of both ACL and CMA confirm the processing steps.</t>
+  </si>
+  <si>
+    <t>The DSMQ message is successfully converted by the ACL and sent to CMA.
+The message is received and processed by CMA.
+Logs provide confirmation of the message conversion and processing steps.</t>
+  </si>
+  <si>
+    <t>Verify Sending Documents Through to DocFusion</t>
+  </si>
+  <si>
+    <t>TC_API_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This test case verifies that documents are successfully sent through to DocFusion, an external document management system.</t>
+  </si>
+  <si>
+    <t>The system under test is up and running.
+The DocFusion service is up and running.
+Necessary authentication credentials are available if required.
+The API endpoint for sending documents to DocFusion is known.
+A valid document is available to be sent.</t>
+  </si>
+  <si>
+    <t>Prepare the document to be sent to DocFusion.
+Send a request to the DocFusion endpoint to upload the document.
+Verify the response status code from DocFusion.
+Verify the structure of the response body.</t>
+  </si>
+  <si>
+    <t>The response should confirm that the document ID matches the one sent, and the status should indicate success.
+The response status code should be 200 OK (or another relevant success code as per API documentation).</t>
+  </si>
+  <si>
+    <t>The document is successfully sent to and uploaded in DocFusion.
+The response status codes for upload and retrieval are 200 OK.
+The response body confirms successful upload and matches the document ID.
+The retrieved document matches the original document sent.
+The logs confirm the successful handling of the document.</t>
+  </si>
+  <si>
+    <t>The document is successfully sent to DocFusion.
+The document is available in DocFusion and can be retrieved.
+Logs provide confirmation of the document handling steps.</t>
+  </si>
+  <si>
+    <t>Verify Rendering of Body and Attachment in DocFusion</t>
+  </si>
+  <si>
+    <t>TC_API_10</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly renders the body content and attachment within the DocFusion document management system.</t>
+  </si>
+  <si>
+    <t>The system under test is up and running.
+The DocFusion service is up and running.
+Necessary authentication credentials are available if required.
+The API endpoint for uploading and rendering documents in DocFusion is known.
+A valid document with an attachment is available for testing.</t>
+  </si>
+  <si>
+    <t>Prepare the document with body content and attachment to be sent to DocFusion
+Send a request to the DocFusion endpoint to upload the document with body content and attachment.
+Verify the response status code from DocFusion.
+Verify the structure of the response body.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK (or another relevant success code as per API documentation).
+The converted message should match the format required by CMA.
+Verify the document's presence in DocFusion through a retrieval request.</t>
+  </si>
+  <si>
+    <t>The document with body content and attachment is successfully sent to and uploaded in DocFusion.
+The response status codes for upload and retrieval are 200 OK.
+The response body confirms successful upload and matches the document and attachment IDs.
+The retrieved document and attachment match the original content sent.
+The document and attachment are correctly rendered in the DocFusion UI.
+The logs confirm the successful handling of the document and attachment.</t>
+  </si>
+  <si>
+    <t>The document with body content and attachment is successfully sent to and rendered by DocFusion.
+The document and attachment are available and viewable in DocFusion.
+Logs provide confirmation of the document handling steps.</t>
+  </si>
+  <si>
+    <t>Verify Sending Documentation Through to CMA</t>
+  </si>
+  <si>
+    <t>TC_API_11</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly sends documentation to the Central Management Application (CMA).</t>
+  </si>
+  <si>
+    <t>The system under test is up and running.
+The CMA service is up and running.
+Necessary authentication credentials are available if required.
+The API endpoint for sending documentation to CMA is known.
+A valid document is available for testing.</t>
+  </si>
+  <si>
+    <t>Prepare the document to be sent to CMA.
+Send a request to the CMA endpoint to upload the document.
+Verify the response status code from CMA.
+Verify the structure of the response body.
+Check the logs of the system and CMA for confirmation of document handling.</t>
+  </si>
+  <si>
+    <t>Verify the response status code for the retrieval request.
+The response status code should be 200 OK (or another relevant success code as per API documentation).</t>
+  </si>
+  <si>
+    <t>The document is successfully sent to and uploaded in CMA.
+The response status codes for upload and retrieval are 200 OK.
+The response body confirms successful upload and matches the document ID.
+The retrieved document matches the original document sent.
+The logs confirm the successful handling of the document.</t>
+  </si>
+  <si>
+    <t>The document is successfully sent to CMA.
+The document is available in CMA and can be retrieved.
+Logs provide confirmation of the document handling steps.</t>
+  </si>
+  <si>
+    <t>Verify Determination of Sending Non-Password-Protected Email via Adapter</t>
+  </si>
+  <si>
+    <t>TC_API_12</t>
+  </si>
+  <si>
+    <t>This test case verifies that the API correctly determines whether a non-password-protected email should be sent through the adapter.</t>
+  </si>
+  <si>
+    <t>The system under test is up and running.
+The adapter service is up and running.
+Necessary authentication credentials are available if required.
+The API endpoint for email determination is known.
+Sample emails (both password-protected and non-password-protected) are available for testing.</t>
+  </si>
+  <si>
+    <t>Prepare the non-password-protected email payload.
+Send a request to the API endpoint to determine if the email should be sent via the adapter.
+Send a request to the API endpoint to determine if the password-protected email should be sent via the adapter.
+Verify the response status code from the API for the password-protected email.</t>
+  </si>
+  <si>
+    <t>The response status codes for both requests are 200 OK.
+The response body correctly indicates whether the email should be sent via the adapter based on its password protection status.
+The logs confirm the correct handling of the emails based on the determination.</t>
+  </si>
+  <si>
+    <t>The determination process correctly identifies whether the email should be sent via the adapter.
+The system and adapter logs provide confirmation of email handling steps.</t>
+  </si>
+  <si>
+    <t>Verify Sending Status Updates from CMA to DSMQ</t>
+  </si>
+  <si>
+    <t>TC_API_13</t>
+  </si>
+  <si>
+    <t>This test case verifies that the Central Management Application (CMA) correctly sends status updates to the Distributed Systems Message Queue (DSMQ) via the API.</t>
+  </si>
+  <si>
+    <t>The Central Management Application (CMA) is up and running.
+The Distributed Systems Message Queue (DSMQ) is up and running.
+Necessary authentication credentials are available if required.
+The API endpoint for sending status updates from CMA to DSMQ is known.
+A valid status update message is available for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare the status update message to be sent from CMA to DSMQ.
+Send a request from CMA to the API endpoint to send the status update message to DSMQ.
+Verify the response status code from the API.
+Verify the structure of the response body.
+Validate the contents of the response.
+Check the logs of CMA and DSMQ for confirmation of status update message handling.
+Document any issues or discrepancies found during the test.
+</t>
+  </si>
+  <si>
+    <t>The response status code for the request is 200 OK.</t>
+  </si>
+  <si>
+    <t>The response body confirms successful submission of the status update message.
+The logs confirm the correct handling of the status update message by both CMA and DSMQ.</t>
+  </si>
+  <si>
+    <t>The status update message is successfully sent from CMA to DSMQ.
+Logs provide confirmation of the status update message handling steps.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,8 +2089,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,6 +2125,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1698,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1720,15 +2248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1740,6 +2259,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2024,8 +2564,8 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="E12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:J13"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2045,20 +2585,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -2462,7 +3002,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="58" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -2478,20 +3018,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -2817,1302 +3357,1716 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E34D38-4229-4676-BE70-E5B405438767}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="34.85546875" style="12"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="34.85546875" style="12"/>
+    <col min="1" max="5" width="34.85546875" style="9"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="106.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="91.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="106.5">
+      <c r="A5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="91.5">
+      <c r="A6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="91.5">
+      <c r="A7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="76.5">
+      <c r="A8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="121.5">
+      <c r="A9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="106.5">
+      <c r="A10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="106.5">
+      <c r="A11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="106.5">
+      <c r="A12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="106.5">
+      <c r="A13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="60.75">
+      <c r="A14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="60.75">
+      <c r="A15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="60.75">
+      <c r="A16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="60.75">
+      <c r="A17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="60.75">
+      <c r="A18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="60.75">
+      <c r="A19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="60.75">
+      <c r="A20" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="60.75">
+      <c r="A21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="76.5">
+      <c r="A22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="76.5">
+      <c r="A23" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="76.5">
+      <c r="A24" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="91.5">
+      <c r="A25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="106.5">
+      <c r="A26" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="91.5">
+      <c r="A27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="60.75">
+      <c r="A28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="91.5">
+      <c r="A29" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="76.5">
+      <c r="A30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="76.5">
+      <c r="A31" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="76.5">
+      <c r="A32" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="60.75">
+      <c r="A33" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="76.5">
+      <c r="A34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="60.75">
+      <c r="A35" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="60.75">
+      <c r="A36" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="60.75">
+      <c r="A37" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="76.5">
+      <c r="A38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="409.6">
+      <c r="A39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="91.5">
+      <c r="A40" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="91.5">
+      <c r="A41" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="121.5">
+      <c r="A42" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="76.5">
+      <c r="A43" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="91.5">
+      <c r="A44" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="91.5">
+      <c r="A45" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="106.5">
+      <c r="A46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="91.5">
+      <c r="A47" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="106.5">
+      <c r="A48" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="91.5">
+      <c r="A49" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="121.5">
+      <c r="A50" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="106.5">
+      <c r="A51" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="106.5">
+      <c r="A52" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="409.6">
+      <c r="A53" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04436822-DFE4-4252-A5DC-3AA8D26C5943}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.140625" style="9"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.140625" style="9"/>
+    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="137.25">
+      <c r="A3" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="351">
+      <c r="A4" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>400</v>
+      </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="106.5">
-      <c r="A5" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="91.5">
-      <c r="A6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="91.5">
-      <c r="A7" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="76.5">
-      <c r="A8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="121.5">
+      <c r="A5" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="106.5">
+      <c r="A6" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="121.5">
+      <c r="A7" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="121.5">
+      <c r="A8" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="121.5">
-      <c r="A9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="106.5">
-      <c r="A10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="106.5">
-      <c r="A11" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="106.5">
-      <c r="A12" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="106.5">
-      <c r="A13" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="60.75">
-      <c r="A14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="60.75">
-      <c r="A15" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="60.75">
-      <c r="A16" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="60.75">
-      <c r="A17" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="60.75">
-      <c r="A18" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="60.75">
-      <c r="A19" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="60.75">
-      <c r="A20" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="60.75">
-      <c r="A21" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="76.5">
-      <c r="A22" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="76.5">
-      <c r="A23" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="76.5">
-      <c r="A24" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="91.5">
-      <c r="A25" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="106.5">
-      <c r="A26" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="91.5">
-      <c r="A27" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="60.75">
-      <c r="A28" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="91.5">
-      <c r="A29" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="76.5">
-      <c r="A30" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="76.5">
-      <c r="A31" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" ht="76.5">
-      <c r="A32" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" ht="60.75">
-      <c r="A33" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" ht="76.5">
-      <c r="A34" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="60.75">
-      <c r="A35" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="60.75">
-      <c r="A36" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" ht="60.75">
-      <c r="A37" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="76.5">
-      <c r="A38" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" ht="409.6">
-      <c r="A39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="91.5">
-      <c r="A40" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="91.5">
-      <c r="A41" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" ht="121.5">
-      <c r="A42" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" ht="76.5">
-      <c r="A43" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" ht="91.5">
-      <c r="A44" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" ht="91.5">
-      <c r="A45" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" ht="106.5">
-      <c r="A46" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" ht="91.5">
-      <c r="A47" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" ht="106.5">
-      <c r="A48" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="91.5">
-      <c r="A49" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" ht="121.5">
-      <c r="A50" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="106.5">
-      <c r="A51" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" ht="106.5">
-      <c r="A52" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="409.6">
-      <c r="A53" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>119</v>
+      <c r="A9" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="152.25">
+      <c r="A10" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="152.25">
+      <c r="A11" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="183">
+      <c r="A12" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="152.25">
+      <c r="A13" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="121.5">
+      <c r="A14" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="183">
+      <c r="A15" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2193e7a4339f9527/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILIPS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD51073C-5A4B-440D-B136-D2B4B26AD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2B082-2227-4F1E-A64F-9D195CADC4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario3" sheetId="3" r:id="rId3"/>
     <sheet name="Scenario4" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="490">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -2058,12 +2048,15 @@
     <t>The status update message is successfully sent from CMA to DSMQ.
 Logs provide confirmation of the status update message handling steps.</t>
   </si>
+  <si>
+    <t>Password Protection with Information Existing in Projection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2263,6 +2256,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,15 +2273,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2565,42 +2558,42 @@
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +2627,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="172.9">
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2661,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="158.44999999999999">
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="201.6">
+    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -2732,7 +2725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.14999999999998">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="216">
+    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="201.6">
+    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -2828,7 +2821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="244.9">
+    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2860,7 +2853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="216">
+    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -2892,7 +2885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="374.45">
+    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="273.60000000000002">
+    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -2956,7 +2949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="273.60000000000002">
+    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -3003,37 +2996,37 @@
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="58" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="7"/>
-    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.28515625" style="7"/>
-    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.28515625" style="7"/>
+    <col min="1" max="1" width="40.33203125" style="7"/>
+    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.33203125" style="7"/>
+    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.45" customHeight="1">
+    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -3097,7 +3090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="288.60000000000002">
+    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -3126,7 +3119,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.14999999999998">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.15">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -3190,7 +3183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="216">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -3222,7 +3215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="202.15">
+    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
@@ -3251,7 +3244,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="201.6">
+    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>150</v>
       </c>
@@ -3280,7 +3273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -3312,7 +3305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -3362,28 +3355,28 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="34.85546875" style="9"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.85546875" style="9"/>
+    <col min="1" max="5" width="34.88671875" style="9"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="106.5">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>161</v>
       </c>
@@ -3439,7 +3432,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="91.5">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
@@ -3463,7 +3456,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="106.5">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>171</v>
       </c>
@@ -3487,7 +3480,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="91.5">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>175</v>
       </c>
@@ -3511,7 +3504,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="91.5">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>180</v>
       </c>
@@ -3535,7 +3528,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="76.5">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>185</v>
       </c>
@@ -3559,7 +3552,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="121.5">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>190</v>
       </c>
@@ -3583,7 +3576,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="106.5">
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>194</v>
       </c>
@@ -3607,7 +3600,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="106.5">
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>198</v>
       </c>
@@ -3631,7 +3624,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="106.5">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>202</v>
       </c>
@@ -3655,7 +3648,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="106.5">
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>206</v>
       </c>
@@ -3679,7 +3672,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="60.75">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>210</v>
       </c>
@@ -3703,7 +3696,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="60.75">
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>180</v>
       </c>
@@ -3727,7 +3720,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="60.75">
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>218</v>
       </c>
@@ -3751,7 +3744,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="60.75">
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>222</v>
       </c>
@@ -3775,7 +3768,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="60.75">
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>227</v>
       </c>
@@ -3799,7 +3792,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="60.75">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>231</v>
       </c>
@@ -3823,7 +3816,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="60.75">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>236</v>
       </c>
@@ -3847,7 +3840,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="60.75">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>240</v>
       </c>
@@ -3871,7 +3864,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="76.5">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>244</v>
       </c>
@@ -3895,7 +3888,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="76.5">
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>249</v>
       </c>
@@ -3919,7 +3912,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="76.5">
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>253</v>
       </c>
@@ -3943,7 +3936,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="91.5">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>257</v>
       </c>
@@ -3967,7 +3960,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="106.5">
+    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>262</v>
       </c>
@@ -3991,7 +3984,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="91.5">
+    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>266</v>
       </c>
@@ -4015,7 +4008,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="60.75">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>272</v>
       </c>
@@ -4039,7 +4032,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="91.5">
+    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>277</v>
       </c>
@@ -4063,7 +4056,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="76.5">
+    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>282</v>
       </c>
@@ -4087,7 +4080,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="76.5">
+    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>287</v>
       </c>
@@ -4111,7 +4104,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="76.5">
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>291</v>
       </c>
@@ -4135,7 +4128,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="60.75">
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>296</v>
       </c>
@@ -4159,7 +4152,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="76.5">
+    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>300</v>
       </c>
@@ -4183,7 +4176,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="60.75">
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>304</v>
       </c>
@@ -4207,7 +4200,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="60.75">
+    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>308</v>
       </c>
@@ -4231,7 +4224,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="60.75">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>312</v>
       </c>
@@ -4255,7 +4248,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="76.5">
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>317</v>
       </c>
@@ -4279,7 +4272,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.6">
+    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="91.5">
+    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>323</v>
       </c>
@@ -4335,7 +4328,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="91.5">
+    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>328</v>
       </c>
@@ -4359,7 +4352,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="121.5">
+    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>332</v>
       </c>
@@ -4383,7 +4376,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="76.5">
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>336</v>
       </c>
@@ -4407,7 +4400,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="91.5">
+    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>341</v>
       </c>
@@ -4431,7 +4424,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="91.5">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>346</v>
       </c>
@@ -4455,7 +4448,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="106.5">
+    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>351</v>
       </c>
@@ -4479,7 +4472,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="91.5">
+    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>356</v>
       </c>
@@ -4503,7 +4496,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="106.5">
+    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>361</v>
       </c>
@@ -4527,7 +4520,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="91.5">
+    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>365</v>
       </c>
@@ -4551,7 +4544,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="121.5">
+    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>370</v>
       </c>
@@ -4575,7 +4568,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="106.5">
+    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>374</v>
       </c>
@@ -4599,7 +4592,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="106.5">
+    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>378</v>
       </c>
@@ -4623,7 +4616,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.6">
+    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -4667,35 +4660,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04436822-DFE4-4252-A5DC-3AA8D26C5943}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="9"/>
-    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.140625" style="9"/>
-    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.140625" style="9"/>
+    <col min="1" max="1" width="46.109375" style="9"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.109375" style="9"/>
+    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="137.25">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>385</v>
       </c>
@@ -4753,34 +4746,34 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="351">
+    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>393</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>400</v>
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="121.5">
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>401</v>
       </c>
@@ -4806,7 +4799,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="106.5">
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>409</v>
       </c>
@@ -4832,7 +4825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="121.5">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>417</v>
       </c>
@@ -4858,7 +4851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="121.5">
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>425</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="121.5">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>434</v>
       </c>
@@ -4900,10 +4893,10 @@
       <c r="D9" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>439</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -4913,7 +4906,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="152.25">
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>442</v>
       </c>
@@ -4939,7 +4932,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="152.25">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>450</v>
       </c>
@@ -4965,7 +4958,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="183">
+    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>458</v>
       </c>
@@ -4991,7 +4984,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="152.25">
+    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>466</v>
       </c>
@@ -5017,7 +5010,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="121.5">
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>474</v>
       </c>
@@ -5043,7 +5036,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="183">
+    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>481</v>
       </c>
@@ -5067,6 +5060,70 @@
       </c>
       <c r="H15" s="10" t="s">
         <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2630F56D-01BC-468E-A632-55FBB048E4ED}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILIPS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2B082-2227-4F1E-A64F-9D195CADC4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B9482D-241A-4ABF-A330-4CC272F262CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="502">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -629,18 +629,6 @@
     <t>Access to the API endpoint.
 Valid credentials (if authentication is required).
 A tool to send HTTP requests, such as Postman or Curl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure you have the necessary access credentials for the API.
-Open your preferred HTTP request tool Postman 
-Prepare the XML message to be sent
-Set the request method to POST.
-Set the request URL to the API endpoint: 
-In the headers, set Content-Type to application/xml.
-If authentication is required, add the appropriate authentication headers 
-In the request body, paste the XML message defined in step 3.
-Send the request.
-</t>
   </si>
   <si>
     <t>Check the status code of the response. It should be 200 OK or another successful status code as per API documentation.
@@ -2051,12 +2039,84 @@
   <si>
     <t>Password Protection with Information Existing in Projection</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ensure you have the necessary access credentials for the API.
+Open your preferred HTTP request tool Postman 
+Prepare the XML message to be sent
+Set the request method to POST.
+Set the request URL to the API endpoint: 
+In the headers, set Content-Type to application/xml.
+If authentication is required, add the appropriate authentication headers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure you have the necessary access credentials for the API.
+Open your preferred HTTP request tool Postman 
+Prepare the XML message to be sent
+Set the request method to POST.
+Set the request URL to the API endpoint: 
+In the headers, set Content-Type to application/xml.
+If authentication is required, add the appropriate authentication headers 
+</t>
+  </si>
+  <si>
+    <t>Test_001</t>
+  </si>
+  <si>
+    <t>Test_002</t>
+  </si>
+  <si>
+    <t>Test_003</t>
+  </si>
+  <si>
+    <t>To ensure the enrichment application correctly picks up and processes messages from the queue.</t>
+  </si>
+  <si>
+    <t>The message queue service is up and running.
+The enrichment application is deployed and connected to the message queue.
+Test messages are available in the queue.</t>
+  </si>
+  <si>
+    <t>Test_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Test Message into Queue
+Action: Use a message queue client or API to insert the sample message into the test-queue.
+Expected Result: The message should be successfully inserted into the queueTrigger Enrichment Application
+Action: Ensure the enrichment application is running and monitoring the queue.
+Expected Result: The application should be in a ready state to pick up messages from the queue.
+Verify Message Picked Up
+Action: Check the logs or monitoring tool of the enrichment application to verify that the message with id: 12345 is picked up from the queue.
+Expected Result: The logs should indicate that the message is picked up for processing
+Validate Message Processing
+Action: Check the output or the destination where the enriched message is stored (e.g., another queue, database, or log).
+Expected Result: The processed message should match the expected processed message format, indicating it was enriched and a timestamp was added.
+</t>
+  </si>
+  <si>
+    <t>The message is successfully inserted into the test-queue.
+The enrichment application picks up the message from the queue.
+The message is processed and enriched correctly.
+No errors occur during the process.
+Test data is cleaned up after the test.</t>
+  </si>
+  <si>
+    <t>The message queue and the enrichment application return to their normal state.
+Any test data inserted into the queue or produced by the enrichment application is removed.</t>
+  </si>
+  <si>
+    <t>Check the status code of the response</t>
+  </si>
+  <si>
+    <t>Ensure the time format in the processed message's timestamp matches the expected ISO 8601 format.
+If the enrichment application has a retry mechanism, verify that the message is processed only once.
+This test assumes synchronous message processing. Adjust the verification steps if the application processes messages asynchronously.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2093,6 +2153,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2219,7 +2285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2274,6 +2340,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2556,10 +2641,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,10 +3079,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E9891-F9C2-4E9A-9FC1-C5F5A86348EB}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="58" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,51 +3157,51 @@
         <v>124</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
@@ -3124,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -3156,7 +3241,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -3188,7 +3273,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>72</v>
@@ -3217,60 +3302,60 @@
     </row>
     <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -3278,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>102</v>
@@ -3310,7 +3395,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -3364,7 +3449,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3410,23 +3495,23 @@
     </row>
     <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -3434,23 +3519,23 @@
     </row>
     <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3458,23 +3543,23 @@
     </row>
     <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3482,23 +3567,23 @@
     </row>
     <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3506,23 +3591,23 @@
     </row>
     <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3530,23 +3615,23 @@
     </row>
     <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3554,23 +3639,23 @@
     </row>
     <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -3578,23 +3663,23 @@
     </row>
     <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3602,23 +3687,23 @@
     </row>
     <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -3626,23 +3711,23 @@
     </row>
     <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3650,23 +3735,23 @@
     </row>
     <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3674,23 +3759,23 @@
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -3698,23 +3783,23 @@
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3722,23 +3807,23 @@
     </row>
     <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3746,23 +3831,23 @@
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -3770,23 +3855,23 @@
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3794,23 +3879,23 @@
     </row>
     <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -3818,23 +3903,23 @@
     </row>
     <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -3842,23 +3927,23 @@
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -3866,23 +3951,23 @@
     </row>
     <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -3890,23 +3975,23 @@
     </row>
     <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -3914,23 +3999,23 @@
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -3938,23 +4023,23 @@
     </row>
     <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -3962,23 +4047,23 @@
     </row>
     <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -3986,23 +4071,23 @@
     </row>
     <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -4010,23 +4095,23 @@
     </row>
     <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4034,23 +4119,23 @@
     </row>
     <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -4058,23 +4143,23 @@
     </row>
     <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -4082,23 +4167,23 @@
     </row>
     <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -4106,23 +4191,23 @@
     </row>
     <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -4130,23 +4215,23 @@
     </row>
     <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -4154,23 +4239,23 @@
     </row>
     <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -4178,23 +4263,23 @@
     </row>
     <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -4202,23 +4287,23 @@
     </row>
     <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -4226,23 +4311,23 @@
     </row>
     <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -4250,23 +4335,23 @@
     </row>
     <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -4277,7 +4362,7 @@
         <v>80</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>82</v>
@@ -4306,23 +4391,23 @@
     </row>
     <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -4330,23 +4415,23 @@
     </row>
     <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -4354,23 +4439,23 @@
     </row>
     <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -4378,23 +4463,23 @@
     </row>
     <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -4402,23 +4487,23 @@
     </row>
     <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4426,23 +4511,23 @@
     </row>
     <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -4450,23 +4535,23 @@
     </row>
     <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -4474,23 +4559,23 @@
     </row>
     <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -4498,23 +4583,23 @@
     </row>
     <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -4522,23 +4607,23 @@
     </row>
     <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -4546,23 +4631,23 @@
     </row>
     <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>373</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -4570,23 +4655,23 @@
     </row>
     <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -4594,23 +4679,23 @@
     </row>
     <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -4621,7 +4706,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>112</v>
@@ -4676,7 +4761,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4722,344 +4807,344 @@
     </row>
     <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -5072,17 +5157,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2630F56D-01BC-468E-A632-55FBB048E4ED}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5094,7 +5180,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5126,10 +5212,158 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILIPS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B9482D-241A-4ABF-A330-4CC272F262CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED24F8E-B629-41F1-A82A-0BCBA6FEF900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="590">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -2110,6 +2110,462 @@
     <t>Ensure the time format in the processed message's timestamp matches the expected ISO 8601 format.
 If the enrichment application has a retry mechanism, verify that the message is processed only once.
 This test assumes synchronous message processing. Adjust the verification steps if the application processes messages asynchronously.</t>
+  </si>
+  <si>
+    <t>Verify the existence of the enrichment field in the projections endpoint response.</t>
+  </si>
+  <si>
+    <t>Test_005</t>
+  </si>
+  <si>
+    <t>Test_006</t>
+  </si>
+  <si>
+    <t>Test_007</t>
+  </si>
+  <si>
+    <t>To ensure that the 'enrichment' field is present in the response of the projections endpoint.</t>
+  </si>
+  <si>
+    <t>The API server is up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the structure and endpoint of the projections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a GET request to the projections endpoint
+</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK.
+Parse the JSON response body.
+Verify that the 'enrichment' field exists in the response.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK.
+The JSON response should include an 'enrichment' field.</t>
+  </si>
+  <si>
+    <t>If the 'enrichment' field is missing, log a defect with the details of the request and response for further investigation.</t>
+  </si>
+  <si>
+    <t>Verify the completeness of the enrichment field in the projections endpoint response.</t>
+  </si>
+  <si>
+    <t>To ensure that the 'enrichment' field in the response of the projections endpoint is complete and contains all expected subfields.</t>
+  </si>
+  <si>
+    <t>The API server is up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the expected structure of the 'enrichment' field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the API server is running.
+Have the authentication token ready (if required).
+Send a GET request to the projections endpoint.
+</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK.
+Parse the JSON response body.
+Verify that the 'enrichment' field exists in each projection object.
+Check that the 'enrichment' field contains all expected subfields (field1, field2, field3)</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK.
+Each 'enrichment' field in the projection objects should contain the subfields field1, field2, and field3.</t>
+  </si>
+  <si>
+    <t>Status code is 200.
+ Each 'enrichment' field is present and complete with subfields field1, field2, and field3.</t>
+  </si>
+  <si>
+    <t>If any subfield is missing or the 'enrichment' field itself is missing, log a defect with the details of the request and response for further investigation.</t>
+  </si>
+  <si>
+    <t>Verify that a message received from the enrichment process is correctly written to the queue.</t>
+  </si>
+  <si>
+    <t>To ensure that the system correctly receives a message from the enrichment process and successfully writes this message to the queue.</t>
+  </si>
+  <si>
+    <t>The API server and the message queue server are up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the message format.
+Tools for inspecting the queue, such as a message queue client (e.g., RabbitMQ management interface, AWS SQS console).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation:
+Ensure the API and message queue servers are running.
+Have the authentication token ready (if required).
+Prepare a sample message to send to the enrichment endpoint.
+Send Message to Enrichment:
+Send a POST request with the sample message to the enrichment endpoint
+</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK or another appropriate success status code.</t>
+  </si>
+  <si>
+    <t>The response status code from the enrichment endpoint should be 200 OK.
+The message queue enrichmentQueue should contain the message with the correct content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Status code is 200.
+ The message is present in the enrichmentQueue.
+ The message content in the queue matches the sample message.</t>
+  </si>
+  <si>
+    <t>If the message is not present in the queue or if the content does not match, log a defect with the details of the request, response, and queue inspection for further investigation.</t>
+  </si>
+  <si>
+    <t>Verify that ACL correctly translates the message received from DSMQ</t>
+  </si>
+  <si>
+    <t>Test_008</t>
+  </si>
+  <si>
+    <t>Test_009</t>
+  </si>
+  <si>
+    <t>To ensure that the ACL system correctly translates a message received from the DSMQ queue and outputs the expected translated message.</t>
+  </si>
+  <si>
+    <t>The API server and the DSMQ message queue server are up and running.
+ACL translation service is up and running.
+Access to the API documentation to understand the message format.
+Tools for inspecting the DSMQ queue, such as a message queue client (RabbitMQ management interface, AWS SQS console).
+Knowledge of the expected translation rules or output.</t>
+  </si>
+  <si>
+    <t>Preparation:
+Ensure the API server, DSMQ server, and ACL translation service are running.
+Use the message queue client to place a sample message into the dsmqQueue.
+Place the sample message into the dsmqQueue
+Process Message:
+Wait for the ACL system to process the message from dsmqQueue and place the translated message into the translatedQueue.
+Inspect Translated Queue:
+Use the message queue client to inspect the translatedQueue.
+Verify that the translated message is present in the queue.
+Ensure that the translated message content matches the expected translated message.</t>
+  </si>
+  <si>
+    <t>The translated message should be present in the translatedQueue.
+The message content should match the expected translated message</t>
+  </si>
+  <si>
+    <t>Verify that the translated message is present in the queue.</t>
+  </si>
+  <si>
+    <t>If the translated message is not present in the queue or if the content does not match, log a defect with the details of the DSMQ queue message, translated queue message, and any relevant logs for further investigation.</t>
+  </si>
+  <si>
+    <t>SMQ Queue name: dsmqQueue
+Translated Queue name: translatedQueue</t>
+  </si>
+  <si>
+    <t>Verify sending a document through to DocFusion and receiving the expected response.</t>
+  </si>
+  <si>
+    <t>To ensure that the system correctly sends a document to the DocFusion endpoint and receives the expected response indicating successful processing.</t>
+  </si>
+  <si>
+    <t>The API server and the DocFusion service are up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the document format and endpoint.
+A sample document ready for testing.</t>
+  </si>
+  <si>
+    <t>Preparation:
+Ensure the API server and DocFusion service are running.
+Have the authentication token ready (if required).
+Prepare the sample document for sending.</t>
+  </si>
+  <si>
+    <t>Method: POST
+Authentication: Bearer Token (if applicable)</t>
+  </si>
+  <si>
+    <t>Check the status code of the response. It should be 200 OK or another appropriate success status code.
+Parse the JSON response body.
+Verify that the response contains the expected status, message, and document URL.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK.
+The JSON response should include:
+status field with value "success".
+message field with value "Document processed successfully."
+documentUrl field with a valid URL to the processed document.</t>
+  </si>
+  <si>
+    <t>Status code is 200.
+ Response contains status field with value "success".
+ Response contains message field with value "Document processed successfully."
+ Response contains documentUrl field with a valid URL.</t>
+  </si>
+  <si>
+    <t>Verify that DocFusion correctly renders the body and attachment from the provided input</t>
+  </si>
+  <si>
+    <t>Test_010</t>
+  </si>
+  <si>
+    <t>Test_011</t>
+  </si>
+  <si>
+    <t>Test_012</t>
+  </si>
+  <si>
+    <t>To ensure that the system correctly sends a request with both body content and an attachment to the DocFusion endpoint and receives the expected response indicating successful processing.</t>
+  </si>
+  <si>
+    <t>The API server and DocFusion service are up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the document and attachment format and endpoint.
+A sample document and attachment file ready for testing.</t>
+  </si>
+  <si>
+    <t>Preparation:
+Ensure the API server and DocFusion service are running.
+Have the authentication token ready (if required).
+Prepare the sample JSON body and attachment file (report.pdf).
+Send a POST request with the sample JSON body and attachment file to the DocFusion endpoint using a tool like curl or Postman.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK.
+The JSON response should include:
+status field with value "success".
+message field with value "Document and attachment processed successfully."
+documentUrl field with a valid URL to the processed document.</t>
+  </si>
+  <si>
+    <t>Status code is 200.
+ Response contains status field with value "success".
+ Response contains message field with value "Document and attachment processed successfully."
+ Response contains documentUrl field with a valid URL.</t>
+  </si>
+  <si>
+    <t>If the response status is not 200 or if the expected fields are missing, log a defect with the details of the request and response for further investigation.</t>
+  </si>
+  <si>
+    <t>Verify that the system sends documentation to the CMA endpoint and receives the expected response.</t>
+  </si>
+  <si>
+    <t>To ensure that the system correctly sends documentation to the CMA (Content Management Application) endpoint and receives the expected response indicating successful processing.</t>
+  </si>
+  <si>
+    <t>The API server and the CMA service are up and running.
+Valid authentication token (if required).
+Access to the API documentation to understand the document format and endpoint.
+A sample document ready for testing.</t>
+  </si>
+  <si>
+    <t>Preparation:
+Ensure the API server and CMA service are running.
+Have the authentication token ready (if required).
+Prepare the sample document for sending.</t>
+  </si>
+  <si>
+    <t>The response status code should be 200 OK.
+The JSON response should include:
+status field with value "success".
+message field with value "Documentation processed successfully."
+documentUrl field with a valid URL to the processed document.</t>
+  </si>
+  <si>
+    <t>Status code is 200.
+ Response contains status field with value "success".
+ Response contains message field with value "Documentation processed successfully."
+ Response contains documentUrl field with a valid URL.</t>
+  </si>
+  <si>
+    <t>Verify that the system passes rendered documents to the Password Protection Application and receives the expected response.</t>
+  </si>
+  <si>
+    <t>Ensure that the password protection application successfully applies a password to rendered documents and that the password works correctly.</t>
+  </si>
+  <si>
+    <t>Password protection application installed and configured.
+Rendered document (e.g., PDF, DOCX) available for testing.
+Known password for testing (e.g., "Test@123").</t>
+  </si>
+  <si>
+    <t>Step Description: Launch the password protection application.
+Expected Result: Application opens without any errors and is ready to use.
+Select Document
+Step Description: Navigate to the option to select a document for password protection.
+Expected Result: The application allows the user to browse and select a document from the file system.
+Upload Document
+Step Description: Select and upload the rendered document for password protection.
+Expected Result: The document is successfully uploaded and displayed in the application.
+Set Password
+Step Description: Enter the password (e.g., "Test@123") in the designated field and confirm the password.
+Expected Result: The application accepts the password and shows a confirmation message.
+Apply Password Protection
+Step Description: Click on the button to apply the password protection to the document.
+Expected Result: The application processes the document and applies the password protection. A confirmation message indicating successful password protection should be displayed.
+Download Protected Document
+Step Description: Download the password-protected document from the application.
+Expected Result: The document is successfully downloaded and saved to the local file system.</t>
+  </si>
+  <si>
+    <t>Step Description: Attempt to open the downloaded document using a compatible viewer.
+Expected Result: The viewer prompts for a password before opening the document.</t>
+  </si>
+  <si>
+    <t>The rendered document should remain password-protected.
+The application should log the password protection process (if applicable).</t>
+  </si>
+  <si>
+    <t>Ensure to use a strong password and avoid common or easily guessable passwords.
+Check for any application-specific logging or auditing features that might record the password protection process for later review.</t>
+  </si>
+  <si>
+    <t>Verify Complete Password Protection Functionality via API</t>
+  </si>
+  <si>
+    <t>Test_013</t>
+  </si>
+  <si>
+    <t>Test_014</t>
+  </si>
+  <si>
+    <t>Test_015</t>
+  </si>
+  <si>
+    <t>Ensure that the API successfully applies password protection to documents and handles various scenarios related to password protection.</t>
+  </si>
+  <si>
+    <t>Access to the API under test.
+Rendered documents available for testing.
+Testing environment set up and configured.</t>
+  </si>
+  <si>
+    <t>Authenticate with API
+Step Description: Authenticate with the API using valid credentials (e.g., API key, OAuth token).
+Expected Result: Successful authentication response with a valid token or session established.
+Select Document
+Step Description: Choose a rendered document to apply password protection.
+Expected Result: The API accepts the document selection request and acknowledges the document to be protected.
+Set Password
+Step Description: Send a request to set a password for the selected document.
+Expected Result: The API accepts the password and confirms its successful assignment to the document.
+Apply Password Protection
+Step Description: Trigger the API to apply password protection to the document using the provided password.
+Expected Result: The API processes the document and returns a success response indicating that password protection has been applied.
+Retrieve Protected Document
+Step Description: Retrieve the protected document using the API.
+Expected Result: The API provides a link or a downloadable resource for the protected document.
+Attempt to Open Document without Password
+Step Description: Try to open the protected document without providing any password.
+Expected Result: Access to the document should be denied, and an error indicating the need for a password should be returned.
+Attempt to Open Document with Incorrect Password
+Step Description: Try to open the protected document with an incorrect password.
+Expected Result: Access to the document should be denied, and an error indicating an incorrect password should be returned.
+Open Document with Correct Password
+Step Description: Open the protected document using the correct password.
+Expected Result: Access to the document should be granted, and the document contents should be visible and intact.
+Check Document Integrity
+Step Description: Verify that the protected document's contents are intact and have not been altered during password protection.
+Expected Result: The document contents should match the original document before password protection.</t>
+  </si>
+  <si>
+    <t>The document should remain password-protected until the password protection is removed or updated via the API.
+Any error or exception messages should be logged for troubleshooting purposes.</t>
+  </si>
+  <si>
+    <t>Ensure that the API responses include appropriate error messages for different scenarios (e.g., incorrect password, invalid document).
+Perform boundary testing with different lengths and types of passwords to ensure robustness.
+Test the API's performance under varying document sizes to ensure scalability.</t>
+  </si>
+  <si>
+    <t>Verify Sending Password-Protected Document to Client via Adapter</t>
+  </si>
+  <si>
+    <t>Ensure that the API, along with the adapter, successfully sends password-protected documents to clients and that clients can access them securely.</t>
+  </si>
+  <si>
+    <t>Access to the API under test.
+Adapter configured to communicate with the API and clients.
+Rendered documents available for testing.
+Client application or system set up to receive documents via the adapter.</t>
+  </si>
+  <si>
+    <t>Authenticate with API
+Step Description: Authenticate with the API using valid credentials (e.g., API key, OAuth token).
+Expected Result: Successful authentication response with a valid token or session established.
+Select Document
+Step Description: Choose a rendered document to apply password protection.
+Expected Result: The API accepts the document selection request and acknowledges the document to be protected.
+Set Password
+Step Description: Send a request to set a password for the selected document.
+Expected Result: The API accepts the password and confirms its successful assignment to the document.
+Apply Password Protection
+Step Description: Trigger the API to apply password protection to the document using the provided password.
+Expected Result: The API processes the document and returns a success response indicating that password protection has been applied.
+Send Document to Client via Adapter
+Step Description: Use the adapter to send the password-protected document to the client.
+Expected Result: The adapter successfully communicates with the API, retrieves the protected document, and forwards it to the designated client.
+Client Receives Document
+Step Description: Verify that the client receives the password-protected document via the adapter.
+Expected Result: The client application or system should receive the document without any loss of data or corruption.
+Attempt to Open Document without Password
+Step Description: Instruct the client to attempt to open the received document without providing any password.
+Expected Result: Access to the document should be denied, and the client should be prompted to enter a password.
+Attempt to Open Document with Incorrect Password
+Step Description: Instruct the client to attempt to open the document with an incorrect password.
+Expected Result: Access to the document should be denied, and the client should receive an error indicating an incorrect password.
+Open Document with Correct Password
+Step Description: Instruct the client to open the document using the correct password.
+Expected Result: Access to the document should be granted, and the document contents should be visible and intact.</t>
+  </si>
+  <si>
+    <t>The document remains securely password-protected until accessed by the client with the correct password.
+The adapter should log any communication errors or exceptions for troubleshooting purposes.</t>
+  </si>
+  <si>
+    <t>Ensure that the adapter securely communicates with both the API and the client, using appropriate encryption and authentication mechanisms.
+Test the adapter's ability to handle concurrent requests and large document sizes to ensure scalability and performance.
+Consider implementing timeout mechanisms to handle cases where document retrieval or transmission takes longer than expected.</t>
+  </si>
+  <si>
+    <t>Verify Writing Status of Message to DSMQ</t>
+  </si>
+  <si>
+    <t>Ensure that the API successfully writes the status of a message to the DSMQ.</t>
+  </si>
+  <si>
+    <t>Access to the API under test.
+Access to the DSMQ where the message status will be written.
+Message or request ID for testing.</t>
+  </si>
+  <si>
+    <t>Authenticate with API
+Step Description: Authenticate with the API using valid credentials (e.g., API key, OAuth token).
+Expected Result: Successful authentication response with a valid token or session established.
+Prepare Message Status Data
+Step Description: Prepare the data containing the status of the message to be written to the DSMQ. This data should include:
+Message ID or Request ID.
+Status of the message (e.g., "Processing", "Completed", "Failed").
+Additional metadata relevant to the message status (optional).
+Expected Result: Message status data is properly formatted and ready for writing to the DSMQ.
+Write Status of Message to DSMQ
+Step Description: Send a request to the API to write the status of the message to the DSMQ, providing the prepared message status data.
+Expected Result: The API successfully writes the message status data to the DSMQ and returns a success response indicating that the operation was completed.
+Verify Status Data in DSMQ
+Step Description: Access the DSMQ where the message status was written and verify that the status data is present and correctly formatted.
+Expected Result: The status data for the message should be visible in the DSMQ and should match the data sent in the API request.
+Check for Error Handling
+Step Description: Send a request to the API to write the status of a non-existent message or with invalid data.
+Expected Result: The API should handle the error gracefully and return an appropriate error response indicating the reason for failure (e.g., invalid message ID, missing status data).</t>
+  </si>
+  <si>
+    <t>The status of the message is recorded in the DSMQ for further processing or tracking.
+Any error or exception messages should be logged for troubleshooting purposes.</t>
+  </si>
+  <si>
+    <t>Ensure that the API request includes proper error handling mechanisms to deal with communication failures or DSMQ unavailability.
+Consider implementing retries or fallback mechanisms in case of temporary DSMQ outages to ensure data integrity.
+Test the performance of the API when writing status data to the DSMQ under different load conditions to ensure scalability and reliability.</t>
   </si>
 </sst>
 </file>
@@ -2331,15 +2787,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2358,7 +2805,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2663,20 +3121,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3096,20 +3554,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3448,18 +3906,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4760,18 +5218,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5157,28 +5615,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2630F56D-01BC-468E-A632-55FBB048E4ED}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5212,14 +5670,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5244,11 +5702,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>492</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5274,11 +5732,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>493</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5306,64 +5764,354 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="26" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILIPS\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED24F8E-B629-41F1-A82A-0BCBA6FEF900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -18,10 +12,11 @@
     <sheet name="Scenario3" sheetId="3" r:id="rId3"/>
     <sheet name="Scenario4" sheetId="4" r:id="rId4"/>
     <sheet name="Scenario5" sheetId="5" r:id="rId5"/>
+    <sheet name="DSMQ_Flow" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="677">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -2567,12 +2562,284 @@
 Consider implementing retries or fallback mechanisms in case of temporary DSMQ outages to ensure data integrity.
 Test the performance of the API when writing status data to the DSMQ under different load conditions to ensure scalability and reliability.</t>
   </si>
+  <si>
+    <t>DSMQ_migration_flow</t>
+  </si>
+  <si>
+    <t>Verify that a critical message can be sent to the IBM Message Queue.</t>
+  </si>
+  <si>
+    <t>Consumer has a valid API key and a properly formatted message.</t>
+  </si>
+  <si>
+    <t>Send a message to the IBM Message Queue endpoint for critical messages.</t>
+  </si>
+  <si>
+    <t>The message is accepted with a 201 Created status, and the message appears in the critical queue.</t>
+  </si>
+  <si>
+    <t>Verify that a non-critical message can be sent to the IBM Message Queue.</t>
+  </si>
+  <si>
+    <t>Send a message to the IBM Message Queue endpoint for non-critical messages.</t>
+  </si>
+  <si>
+    <t>The message is accepted with a 201 Created status, and the message appears in the non-critical queue.</t>
+  </si>
+  <si>
+    <t>Ensure that messages are correctly enriched by the DS Enrichment layer.</t>
+  </si>
+  <si>
+    <t>Messages exist in the IBM Message Queue.</t>
+  </si>
+  <si>
+    <t>Test Case_1</t>
+  </si>
+  <si>
+    <t>Test Case_2</t>
+  </si>
+  <si>
+    <t>Test Case_3</t>
+  </si>
+  <si>
+    <t>Test Case_4</t>
+  </si>
+  <si>
+    <t>Test Case_5</t>
+  </si>
+  <si>
+    <t>Test Case_6</t>
+  </si>
+  <si>
+    <t>Test Case_7</t>
+  </si>
+  <si>
+    <t>Test Case_8</t>
+  </si>
+  <si>
+    <t>Test Case_9</t>
+  </si>
+  <si>
+    <t>Check the IBM Message Queue for the presence of messages.
+Verify that the DS Enrichment layer processes these messages.</t>
+  </si>
+  <si>
+    <t>Messages are correctly enriched and forwarded to the Local MQ.</t>
+  </si>
+  <si>
+    <t>Ensure that messages are correctly processed by the Local MQ.</t>
+  </si>
+  <si>
+    <t>Messages are available in the DS Enrichment layer.</t>
+  </si>
+  <si>
+    <t>Check the Local MQ for the presence of messages.
+Verify that messages are correctly processed and sent to the DSMQ Engine.</t>
+  </si>
+  <si>
+    <t>Messages appear in the Local MQ and are subsequently forwarded to the DSMQ Engine.</t>
+  </si>
+  <si>
+    <t>Validate Local MQ Processing</t>
+  </si>
+  <si>
+    <t>Verify Message Enrichment</t>
+  </si>
+  <si>
+    <t>Send a Message to IBM Message Queue (Non-Critical)</t>
+  </si>
+  <si>
+    <t>Send a Message to IBM Message Queue (Critical)</t>
+  </si>
+  <si>
+    <t>Ensure Message Processing by DSMQ Engine</t>
+  </si>
+  <si>
+    <t>Verify that messages are correctly processed by the DSMQ Engine.</t>
+  </si>
+  <si>
+    <t>Messages are available in the Local MQ.</t>
+  </si>
+  <si>
+    <t>Check the DSMQ Engine for the presence of messages.
+Verify that the DSMQ Engine processes and routes messages to the appropriate adapters.</t>
+  </si>
+  <si>
+    <t>Messages are processed by the DSMQ Engine and appear in the appropriate adapter queues.</t>
+  </si>
+  <si>
+    <t>Test Adapter Layer Functionality</t>
+  </si>
+  <si>
+    <t>Verify that messages are correctly processed by the adapters (Docfusion, Clickatel, Bluelabel).</t>
+  </si>
+  <si>
+    <t>Messages are available in the DSMQ Engine.</t>
+  </si>
+  <si>
+    <t>Check each adapter (Docfusion, Clickatel, Bluelabel) for the presence of messages.
+Verify that each adapter processes and sends messages to the respective service providers.</t>
+  </si>
+  <si>
+    <t>Messages are processed by each adapter and correctly sent to the respective service providers.</t>
+  </si>
+  <si>
+    <t>Validate Service Provider Integration</t>
+  </si>
+  <si>
+    <t>Ensure messages are correctly delivered to the service providers (Docfusion, Clickatel, Bluelabel).</t>
+  </si>
+  <si>
+    <t>Messages are available in the adapter queues.</t>
+  </si>
+  <si>
+    <t>Check each service provider (Docfusion, Clickatel, Bluelabel) for the presence of messages.
+Verify that messages are received and processed by each service provider.</t>
+  </si>
+  <si>
+    <t>Messages are correctly delivered and acknowledged by each service provider.</t>
+  </si>
+  <si>
+    <t>Verify Message Tracking and Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ensure that message tracking and reporting are accurate.</t>
+  </si>
+  <si>
+    <t>Messages have been processed by the DSMQ Engine and adapters.</t>
+  </si>
+  <si>
+    <t>Send a message and track its status through the DSMQ infrastructure.
+Verify that message tracking logs are updated at each stage.
+Check the reporting database for accurate message status and logs.</t>
+  </si>
+  <si>
+    <t>The message tracking logs are accurate and reflect the correct status at each stage of processing. The reporting database contains the correct information.</t>
+  </si>
+  <si>
+    <t>Verify Message Delivery via APIM</t>
+  </si>
+  <si>
+    <t>Ensure messages can be delivered via APIM (API Management).</t>
+  </si>
+  <si>
+    <t>APIM is configured and integrated with DSMQ.</t>
+  </si>
+  <si>
+    <t>Send a message via the APIM endpoint.
+Verify that the message is correctly routed through the DSMQ infrastructure.</t>
+  </si>
+  <si>
+    <t>The message is delivered successfully through APIM, and the status is updated in the tracking logs.</t>
+  </si>
+  <si>
+    <t>Validate Front Door Functionality</t>
+  </si>
+  <si>
+    <t>Test Case_10</t>
+  </si>
+  <si>
+    <t>Test Case_11</t>
+  </si>
+  <si>
+    <t>Test Case_12</t>
+  </si>
+  <si>
+    <t>Ensure the Front Door handles messages correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Front Door is configured and integrated with the DSMQ.
+</t>
+  </si>
+  <si>
+    <t>Send a message via the Front Door.
+Verify that the message is correctly processed and routed through the DSMQ infrastructure.</t>
+  </si>
+  <si>
+    <t>The message is successfully processed and routed, with updated tracking logs.</t>
+  </si>
+  <si>
+    <t>Validate Message Delivery to Push Notification Service (PNS)</t>
+  </si>
+  <si>
+    <t>Ensure messages can be delivered to PNS (Push Notification Service).</t>
+  </si>
+  <si>
+    <t>Test Case_13</t>
+  </si>
+  <si>
+    <t>Test Case_14</t>
+  </si>
+  <si>
+    <t>Test Case_15</t>
+  </si>
+  <si>
+    <t>PNS is configured and integrated with DSMQ.</t>
+  </si>
+  <si>
+    <t>Send a message to the endpoint /notifications/pns with a valid payload.</t>
+  </si>
+  <si>
+    <t>The message is delivered successfully to the PNS.</t>
+  </si>
+  <si>
+    <t>Validate Message Delivery to SMS</t>
+  </si>
+  <si>
+    <t>Ensure messages can be delivered to SMS service.</t>
+  </si>
+  <si>
+    <t>SMS service is configured and integrated with DSMQ</t>
+  </si>
+  <si>
+    <t>Send a message to the endpoint /notifications/sms with a valid payload.</t>
+  </si>
+  <si>
+    <t>The message is delivered successfully to the SMS service.</t>
+  </si>
+  <si>
+    <t>Validate Message Delivery to Email</t>
+  </si>
+  <si>
+    <t>Ensure messages can be delivered to Email service.</t>
+  </si>
+  <si>
+    <t>Email service is configured and integrated with DSMQ.</t>
+  </si>
+  <si>
+    <t>Send a message to the endpoint /notifications/email with a valid payload.</t>
+  </si>
+  <si>
+    <t>The message is delivered successfully to the Email service.</t>
+  </si>
+  <si>
+    <t>Verify Message Tracking in SQL Databases</t>
+  </si>
+  <si>
+    <t>Ensure message tracking and status updates in the SQL databases.</t>
+  </si>
+  <si>
+    <t>Messages have been processed through the DSMQ infrastructure.</t>
+  </si>
+  <si>
+    <t>Send a GET request to /tracking/messages with a valid API key.
+Verify that the message status and logs are updated in the SQL databases (Doc_Message, Doc_MsgTrack, Doc_MsgTrack_Events).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Response status code 200 OK, and the tracking information should accurately reflect the message's status at each stage.</t>
+  </si>
+  <si>
+    <t>Verify Message Delivery to Service Providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Messages are correctly delivered and acknowledged by each service provider.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2649,7 +2916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2737,11 +3004,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2805,6 +3085,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2814,8 +3097,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2877,7 +3169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2912,7 +3204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3089,14 +3381,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -3105,38 +3397,38 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3462,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="225">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +3496,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +3528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="240">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -3268,7 +3560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="270">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3300,7 +3592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="255">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -3332,7 +3624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -3364,7 +3656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="255">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -3396,7 +3688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="240">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -3428,7 +3720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="405">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -3460,7 +3752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="285">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -3492,7 +3784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="285">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -3534,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E9891-F9C2-4E9A-9FC1-C5F5A86348EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
@@ -3543,33 +3835,33 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="7"/>
-    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.33203125" style="7"/>
-    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.33203125" style="7"/>
+    <col min="1" max="1" width="40.28515625" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.28515625" style="7"/>
+    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3601,7 +3893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="179.45" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -3633,7 +3925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="315">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -3662,7 +3954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="270">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +3986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="225">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -3726,7 +4018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="240">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -3758,7 +4050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="210">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -3787,7 +4079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="210">
       <c r="A9" s="7" t="s">
         <v>149</v>
       </c>
@@ -3816,7 +4108,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="285">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -3848,7 +4140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="315">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -3890,7 +4182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E34D38-4229-4676-BE70-E5B405438767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,28 +4190,28 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="34.88671875" style="9"/>
-    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.88671875" style="9"/>
+    <col min="1" max="5" width="34.85546875" style="9"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3951,7 +4243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="105">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
@@ -3975,7 +4267,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="90">
       <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
@@ -3999,7 +4291,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="105">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -4023,7 +4315,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="90">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -4047,7 +4339,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="90">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -4071,7 +4363,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="75">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -4095,7 +4387,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -4119,7 +4411,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="105">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -4143,7 +4435,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="105">
       <c r="A11" s="10" t="s">
         <v>197</v>
       </c>
@@ -4167,7 +4459,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="105">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -4191,7 +4483,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -4215,7 +4507,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="60">
       <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
@@ -4239,7 +4531,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="10" t="s">
         <v>179</v>
       </c>
@@ -4263,7 +4555,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="10" t="s">
         <v>217</v>
       </c>
@@ -4287,7 +4579,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60">
       <c r="A17" s="10" t="s">
         <v>221</v>
       </c>
@@ -4311,7 +4603,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="75">
       <c r="A18" s="10" t="s">
         <v>226</v>
       </c>
@@ -4335,7 +4627,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="75">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -4359,7 +4651,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75">
       <c r="A20" s="10" t="s">
         <v>235</v>
       </c>
@@ -4383,7 +4675,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="75">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
@@ -4407,7 +4699,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="75">
       <c r="A22" s="10" t="s">
         <v>243</v>
       </c>
@@ -4431,7 +4723,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="75">
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
@@ -4455,7 +4747,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="75">
       <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
@@ -4479,7 +4771,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
@@ -4503,7 +4795,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="105">
       <c r="A26" s="10" t="s">
         <v>261</v>
       </c>
@@ -4527,7 +4819,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="105">
       <c r="A27" s="10" t="s">
         <v>265</v>
       </c>
@@ -4551,7 +4843,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60">
       <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
@@ -4575,7 +4867,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="90">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -4599,7 +4891,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="90">
       <c r="A30" s="10" t="s">
         <v>281</v>
       </c>
@@ -4623,7 +4915,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="75">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -4647,7 +4939,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="75">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
@@ -4671,7 +4963,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="60">
       <c r="A33" s="10" t="s">
         <v>295</v>
       </c>
@@ -4695,7 +4987,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="75">
       <c r="A34" s="10" t="s">
         <v>299</v>
       </c>
@@ -4719,7 +5011,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="60">
       <c r="A35" s="10" t="s">
         <v>303</v>
       </c>
@@ -4743,7 +5035,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="60">
       <c r="A36" s="10" t="s">
         <v>307</v>
       </c>
@@ -4767,7 +5059,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="75">
       <c r="A37" s="10" t="s">
         <v>311</v>
       </c>
@@ -4791,7 +5083,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="75">
       <c r="A38" s="10" t="s">
         <v>316</v>
       </c>
@@ -4815,7 +5107,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="409.5">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -4847,7 +5139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="90">
       <c r="A40" s="10" t="s">
         <v>322</v>
       </c>
@@ -4871,7 +5163,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="90">
       <c r="A41" s="10" t="s">
         <v>327</v>
       </c>
@@ -4895,7 +5187,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="120">
       <c r="A42" s="10" t="s">
         <v>331</v>
       </c>
@@ -4919,7 +5211,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="90">
       <c r="A43" s="10" t="s">
         <v>335</v>
       </c>
@@ -4943,7 +5235,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="90">
       <c r="A44" s="10" t="s">
         <v>340</v>
       </c>
@@ -4967,7 +5259,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="105">
       <c r="A45" s="10" t="s">
         <v>345</v>
       </c>
@@ -4991,7 +5283,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="105">
       <c r="A46" s="10" t="s">
         <v>350</v>
       </c>
@@ -5015,7 +5307,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="90">
       <c r="A47" s="10" t="s">
         <v>355</v>
       </c>
@@ -5039,7 +5331,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="105">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -5063,7 +5355,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="90">
       <c r="A49" s="10" t="s">
         <v>364</v>
       </c>
@@ -5087,7 +5379,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="120">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -5111,7 +5403,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="105">
       <c r="A51" s="10" t="s">
         <v>373</v>
       </c>
@@ -5135,7 +5427,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="105">
       <c r="A52" s="10" t="s">
         <v>377</v>
       </c>
@@ -5159,7 +5451,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="409.5">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -5200,7 +5492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04436822-DFE4-4252-A5DC-3AA8D26C5943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5208,30 +5500,30 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="9"/>
-    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.109375" style="9"/>
-    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.109375" style="9"/>
+    <col min="1" max="1" width="46.140625" style="9"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.140625" style="9"/>
+    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +5555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="135">
       <c r="A3" s="10" t="s">
         <v>384</v>
       </c>
@@ -5289,7 +5581,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="345">
       <c r="A4" s="10" t="s">
         <v>392</v>
       </c>
@@ -5316,7 +5608,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="120">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
@@ -5342,7 +5634,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="105">
       <c r="A6" s="10" t="s">
         <v>408</v>
       </c>
@@ -5368,7 +5660,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="120">
       <c r="A7" s="10" t="s">
         <v>416</v>
       </c>
@@ -5394,7 +5686,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="135">
       <c r="A8" s="10" t="s">
         <v>424</v>
       </c>
@@ -5423,7 +5715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>433</v>
       </c>
@@ -5449,7 +5741,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="150">
       <c r="A10" s="10" t="s">
         <v>441</v>
       </c>
@@ -5475,7 +5767,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="150">
       <c r="A11" s="10" t="s">
         <v>449</v>
       </c>
@@ -5501,7 +5793,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="180">
       <c r="A12" s="10" t="s">
         <v>457</v>
       </c>
@@ -5527,7 +5819,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="150">
       <c r="A13" s="10" t="s">
         <v>465</v>
       </c>
@@ -5553,7 +5845,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="135">
       <c r="A14" s="10" t="s">
         <v>473</v>
       </c>
@@ -5579,7 +5871,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="180">
       <c r="A15" s="10" t="s">
         <v>480</v>
       </c>
@@ -5614,31 +5906,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2630F56D-01BC-468E-A632-55FBB048E4ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5670,7 +5962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="150">
       <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
@@ -5702,7 +5994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="285">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -5732,7 +6024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="195">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -5764,192 +6056,192 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.5">
+      <c r="A6" s="23" t="s">
         <v>494</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>497</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>499</v>
       </c>
       <c r="I6" s="21"/>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="75">
+      <c r="A7" s="23" t="s">
         <v>502</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="23" t="s">
         <v>510</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A8" s="21" t="s">
         <v>512</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>518</v>
       </c>
       <c r="I8" s="21"/>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="180">
       <c r="A9" s="21" t="s">
         <v>520</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="23" t="s">
         <v>526</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="330">
       <c r="A10" s="21" t="s">
         <v>528</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>533</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>534</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="23" t="s">
         <v>537</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A11" s="21" t="s">
         <v>538</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>542</v>
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:10" ht="150">
+      <c r="A12" s="23" t="s">
         <v>546</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>550</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -5968,18 +6260,18 @@
         <v>554</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="23" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="21" t="s">
         <v>556</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>557</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -6000,14 +6292,14 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="409.5">
       <c r="A14" s="21" t="s">
         <v>562</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>563</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -6019,7 +6311,7 @@
       <c r="F14" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="8" t="s">
         <v>567</v>
       </c>
@@ -6028,14 +6320,14 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="409.5">
       <c r="A15" s="21" t="s">
         <v>569</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>573</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -6054,14 +6346,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="409.5">
       <c r="A16" s="21" t="s">
         <v>578</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>579</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -6080,14 +6372,14 @@
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="21" t="s">
         <v>584</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>585</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -6114,4 +6406,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="60">
+      <c r="A3" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" s="28" customFormat="1" ht="60">
+      <c r="A4" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" s="28" customFormat="1" ht="75">
+      <c r="A5" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" s="28" customFormat="1" ht="75">
+      <c r="A6" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" s="28" customFormat="1" ht="75">
+      <c r="A7" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" s="28" customFormat="1" ht="105">
+      <c r="A8" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="28" customFormat="1" ht="105">
+      <c r="A9" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" s="28" customFormat="1" ht="120">
+      <c r="A10" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" s="28" customFormat="1" ht="75">
+      <c r="A11" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" s="28" customFormat="1" ht="90">
+      <c r="A12" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" s="28" customFormat="1" ht="45">
+      <c r="A13" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" s="28" customFormat="1" ht="45">
+      <c r="A14" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" s="28" customFormat="1" ht="45">
+      <c r="A15" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" s="28" customFormat="1" ht="120">
+      <c r="A16" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="105">
+      <c r="A17" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Scenario4" sheetId="4" r:id="rId4"/>
     <sheet name="Scenario5" sheetId="5" r:id="rId5"/>
     <sheet name="DSMQ_Flow" sheetId="6" r:id="rId6"/>
+    <sheet name="Cloud_infrastru" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="846">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -2833,6 +2834,563 @@
   </si>
   <si>
     <t xml:space="preserve"> Messages are correctly delivered and acknowledged by each service provider.</t>
+  </si>
+  <si>
+    <t>Cloud_infrastructure_flow</t>
+  </si>
+  <si>
+    <t>Verify Message Sending to IBM MQ</t>
+  </si>
+  <si>
+    <t>Access to IBM MQ endpoint and valid message payload.</t>
+  </si>
+  <si>
+    <t>Test_case_1</t>
+  </si>
+  <si>
+    <t>Send a valid message payload to IBM MQ.
+Verify that the message is received by IBM MQ.
+Check the message log in IBM MQ for any errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Access to IBM MQ endpoint and valid message payload.</t>
+  </si>
+  <si>
+    <t>The message should be successfully received by IBM MQ with no errors in the logs.</t>
+  </si>
+  <si>
+    <t>Verify Message Processing by PNS ACL</t>
+  </si>
+  <si>
+    <t>Test_case_2</t>
+  </si>
+  <si>
+    <t>Test_case_3</t>
+  </si>
+  <si>
+    <t>Test_case_4</t>
+  </si>
+  <si>
+    <t>Test_case_5</t>
+  </si>
+  <si>
+    <t>Test_case_6</t>
+  </si>
+  <si>
+    <t>Test_case_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IBM MQ contains messages for processing, and PNS ACL is configured.</t>
+  </si>
+  <si>
+    <t>Send a message to IBM MQ.
+Monitor PNS ACL for message processing.
+Verify that the message is forwarded to the next stage.</t>
+  </si>
+  <si>
+    <t>The message should be processed by PNS ACL and forwarded correctly.</t>
+  </si>
+  <si>
+    <t>Validate that the front door correctly forwards messages to the Ingestion Queue</t>
+  </si>
+  <si>
+    <t>Front Door API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Front Door API is accessible, and a valid message is available.</t>
+  </si>
+  <si>
+    <t>Send a message to the Front Door API.
+Verify that the message is forwarded to the Ingestion Queue.</t>
+  </si>
+  <si>
+    <t>The message should be successfully forwarded to the Ingestion Queue.</t>
+  </si>
+  <si>
+    <t>Ingestion Queue API</t>
+  </si>
+  <si>
+    <t>Ensure that the Ingestion Queue correctly categorizes and queues messages for different topics (Email, SMS, PNS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ingestion Queue is operational, and message topics are defined.</t>
+  </si>
+  <si>
+    <t>Send messages with different topics (Email, SMS, PNS) to the Ingestion Queue.
+Check if the messages are queued under the correct topics.</t>
+  </si>
+  <si>
+    <t>Messages should be correctly categorized and queued under the specified topics.</t>
+  </si>
+  <si>
+    <t>Validate that each engine (Email, SMS, PNS) processes messages correctly.</t>
+  </si>
+  <si>
+    <t>Verify Email Engine Processing</t>
+  </si>
+  <si>
+    <t>Email Engine is active, and email messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue an email message.
+Monitor the Email Engine for processing.
+Verify that the email message is processed and forwarded to the Adapter Queue.</t>
+  </si>
+  <si>
+    <t>The email message should be processed and forwarded with no errors.</t>
+  </si>
+  <si>
+    <t>Verify SMS Engine Processing</t>
+  </si>
+  <si>
+    <t>SMS Engine is active, and SMS messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue an SMS message.
+Monitor the SMS Engine for processing.
+Verify that the SMS message is processed and forwarded to the Adapter Queue.</t>
+  </si>
+  <si>
+    <t>The SMS message should be processed and forwarded with no errors</t>
+  </si>
+  <si>
+    <t>Verify PNS Engine Processing</t>
+  </si>
+  <si>
+    <t>PNS Engine is active, and PNS messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a PNS message.
+Monitor the PNS Engine for processing.
+Verify that the PNS message is processed and forwarded to the Adapter Queue.</t>
+  </si>
+  <si>
+    <t>The PNS message should be processed and forwarded with no errors.</t>
+  </si>
+  <si>
+    <t>Test_case_8</t>
+  </si>
+  <si>
+    <t>Test_case_9</t>
+  </si>
+  <si>
+    <t>Test_case_10</t>
+  </si>
+  <si>
+    <t>Ensure messages are forwarded to the correct service provider (Twilio, Clickatel, etc.).</t>
+  </si>
+  <si>
+    <t>Adapter Queue API
+Verify Message Forwarding to Service Providers</t>
+  </si>
+  <si>
+    <t>Adapter Queue is operational and service providers are configured.</t>
+  </si>
+  <si>
+    <t>Queue messages for different service providers (e.g., Twilio, Clickatel).
+Verify that each message is forwarded to the correct service provider.</t>
+  </si>
+  <si>
+    <t>Messages should be forwarded to the appropriate service provider as per the configuration.</t>
+  </si>
+  <si>
+    <t>Failover Engine API</t>
+  </si>
+  <si>
+    <t>Test failover scenarios to ensure messages are correctly rerouted in case of failure.</t>
+  </si>
+  <si>
+    <t>Failover scenarios are configured.</t>
+  </si>
+  <si>
+    <t>Simulate a failure in one of the service providers.
+Queue a message to the failed service provider.
+Verify that the message is rerouted to the failover service provider.</t>
+  </si>
+  <si>
+    <t>The message should be rerouted to the failover provider without loss.</t>
+  </si>
+  <si>
+    <t>Message Enrichment Queue and components are operational.</t>
+  </si>
+  <si>
+    <t>Validate message enrichment processes.</t>
+  </si>
+  <si>
+    <t>Queue a message requiring enrichment.
+Verify that the message is processed by the enrichment components.
+Check the enriched message for correctness.</t>
+  </si>
+  <si>
+    <t>The message should be correctly enriched and forwarded to the next stage.</t>
+  </si>
+  <si>
+    <t>Validate that each SMS adapter correctly processes and forwards messages to the respective service provider.</t>
+  </si>
+  <si>
+    <t>SMS Adapters (Twilio, Clickatel, BlueLabel, Essendex) Verify Twilio SMS Adapter Processing</t>
+  </si>
+  <si>
+    <t>Twilio SMS Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for Twilio.
+Monitor the Twilio SMS Adapter for processing.
+Verify that the message is forwarded to Twilio.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to Twilio without errors.</t>
+  </si>
+  <si>
+    <t>Test_case_11</t>
+  </si>
+  <si>
+    <t>Test_case_12</t>
+  </si>
+  <si>
+    <t>Test_case_13</t>
+  </si>
+  <si>
+    <t>Test_case_14</t>
+  </si>
+  <si>
+    <t>Test_case_15</t>
+  </si>
+  <si>
+    <t>Test_case_16</t>
+  </si>
+  <si>
+    <t>Test_case_17</t>
+  </si>
+  <si>
+    <t>Test_case_18</t>
+  </si>
+  <si>
+    <t>Test_case_19</t>
+  </si>
+  <si>
+    <t>Verify Clickatel SMS Adapter Processing</t>
+  </si>
+  <si>
+    <t>Clickatel SMS Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for Clickatel.
+Monitor the Clickatel SMS Adapter for processing.
+Verify that the message is forwarded to Clickatel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The message should be processed and forwarded to Clickatel without errors.</t>
+  </si>
+  <si>
+    <t>Verify BlueLabel SMS Adapter Processing</t>
+  </si>
+  <si>
+    <t>BlueLabel SMS Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for BlueLabel.
+Monitor the BlueLabel SMS Adapter for processing.
+Verify that the message is forwarded to BlueLabel.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to BlueLabel without errors.</t>
+  </si>
+  <si>
+    <t>Verify Essendex SMS Adapter Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendex SMS Adapter is active, and messages are queued.
+</t>
+  </si>
+  <si>
+    <t>Queue a message for Essendex.
+Monitor the Essendex SMS Adapter for processing.
+Verify that the message is forwarded to Essendex.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to Essendex without errors.</t>
+  </si>
+  <si>
+    <t>Validate that the PNS adapter correctly processes and forwards messages to HCMCloud.</t>
+  </si>
+  <si>
+    <t>Verify PNS Adapter Processing</t>
+  </si>
+  <si>
+    <t>PNS Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for PNS.
+Monitor the PNS Adapter for processing.
+Verify that the message is forwarded to HCMCloud and then to the PNS API.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to HCMCloud and then to the PNS API without errors.</t>
+  </si>
+  <si>
+    <t>Email Adapters (SendGrid, SMTP)</t>
+  </si>
+  <si>
+    <t>Validate that each email adapter correctly processes and forwards messages to the respective service provider.</t>
+  </si>
+  <si>
+    <t>SendGrid Email Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for SendGrid.
+Monitor the SendGrid Email Adapter for processing.
+Verify that the message is forwarded to SendGrid.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to SendGrid without errors.</t>
+  </si>
+  <si>
+    <t>Verify SMTP Email Adapter Processing</t>
+  </si>
+  <si>
+    <t>SMTP Email Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for SMTP.
+Monitor the SMTP Email Adapter for processing.
+Verify that the message is forwarded to HCMCloud and then to the SMTP Relay API.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to HCMCloud and then to the SMTP Relay API without errors.</t>
+  </si>
+  <si>
+    <t>Failover configuration is set up, and primary SMS Adapter is down.</t>
+  </si>
+  <si>
+    <t>Verify Failover for SMS Adapters</t>
+  </si>
+  <si>
+    <t>Simulate failure in the primary SMS Adapter (e.g., Twilio).
+Queue a message for the failed SMS Adapter.
+Verify that the message is rerouted to the failover adapter and processed.</t>
+  </si>
+  <si>
+    <t>The message should be rerouted to the failover adapter and processed without errors.</t>
+  </si>
+  <si>
+    <t>Verify PassProtect Processing</t>
+  </si>
+  <si>
+    <t>PassProtect Adapter is active, and messages are queued.</t>
+  </si>
+  <si>
+    <t>Queue a message for PassProtect.
+Monitor the PassProtect Adapter for processing.
+Verify that the message is processed and forwarded to PassProtect.</t>
+  </si>
+  <si>
+    <t>The message should be processed and forwarded to PassProtect without errors.</t>
+  </si>
+  <si>
+    <t>Verify Document Config Processing</t>
+  </si>
+  <si>
+    <t>Test_case_20</t>
+  </si>
+  <si>
+    <t>Test_case_21</t>
+  </si>
+  <si>
+    <t>Validate that document configurations are correctly processed and stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Document Config API is accessible, and valid document configurations are available.</t>
+  </si>
+  <si>
+    <t>Send a valid document configuration to the Document Config API.
+Verify that the configuration is processed and stored in the Doc Store.</t>
+  </si>
+  <si>
+    <t>The document configuration should be processed and correctly stored in the Doc Store.</t>
+  </si>
+  <si>
+    <t>Message Enrichment Queue API</t>
+  </si>
+  <si>
+    <t>Test_case_22</t>
+  </si>
+  <si>
+    <t>Test_case_23</t>
+  </si>
+  <si>
+    <t>Test_case_24</t>
+  </si>
+  <si>
+    <t>Ensure messages are correctly routed and processed for Docfusion and PassProtect topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Message Enrichment Queue is operational, and messages with the topic "Docfusion" are available.</t>
+  </si>
+  <si>
+    <t>Send a message with the topic "Docfusion" to the Message Enrichment Queue.
+Verify that the message is routed to the Docfusion Adapter.</t>
+  </si>
+  <si>
+    <t>The message should be routed to the Docfusion Adapter without errors.</t>
+  </si>
+  <si>
+    <t>Verify Comms Event Handler Processing</t>
+  </si>
+  <si>
+    <t>Validate that audit events are correctly processed and forwarded to the respective handlers.</t>
+  </si>
+  <si>
+    <t>Message Audit Events queue and Comms Event Handler are operational.</t>
+  </si>
+  <si>
+    <t>Send a communication event message to the Message Audit Events queue.
+Verify that the message is routed to the Comms Event Handler.
+Ensure that the Comms Event Handler processes the message.</t>
+  </si>
+  <si>
+    <t>The message should be processed by the Comms Event Handler without errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify Internal Audit Handler Processing</t>
+  </si>
+  <si>
+    <t>Message Audit Events queue and Internal Audit Handler are operational.</t>
+  </si>
+  <si>
+    <t>Send an internal audit event message to the Message Audit Events queue.
+Verify that the message is routed to the Internal Audit Handler.
+Ensure that the Internal Audit Handler processes the message.</t>
+  </si>
+  <si>
+    <t>The message should be processed by the Internal Audit Handler without errors.</t>
+  </si>
+  <si>
+    <t>Verify Message Storage</t>
+  </si>
+  <si>
+    <t>Ensure that messages are correctly stored and retrievable.</t>
+  </si>
+  <si>
+    <t>Message Storage service is operational, and messages are available for storage.</t>
+  </si>
+  <si>
+    <t>Send a message to the Message Storage service.
+Verify that the message is stored correctly.</t>
+  </si>
+  <si>
+    <t>The message should be stored in the Message Storage without errors.</t>
+  </si>
+  <si>
+    <t>Verify Enrollment Configuration Processing</t>
+  </si>
+  <si>
+    <t>Ensure that enrollment configurations are correctly processed and stored.</t>
+  </si>
+  <si>
+    <t>Test_case_25</t>
+  </si>
+  <si>
+    <t>Test_case_26</t>
+  </si>
+  <si>
+    <t>Test_case_27</t>
+  </si>
+  <si>
+    <t>Enrollment Config service is operational.</t>
+  </si>
+  <si>
+    <t>Send a valid enrollment configuration to the Enrollment Config service.
+Verify that the configuration is processed and stored in the Storage Tables.</t>
+  </si>
+  <si>
+    <t>The enrollment configuration should be processed and stored without errors.</t>
+  </si>
+  <si>
+    <t>Verify Adapter Configuration Processing</t>
+  </si>
+  <si>
+    <t>Validate that adapter configurations are correctly processed and stored.</t>
+  </si>
+  <si>
+    <t>Adapter Config service is operational.</t>
+  </si>
+  <si>
+    <t>Send a valid adapter configuration to the Adapter Config service.
+Verify that the configuration is processed and stored.</t>
+  </si>
+  <si>
+    <t>The adapter configuration should be processed and stored without errors.</t>
+  </si>
+  <si>
+    <t>Verify Message Components Processing</t>
+  </si>
+  <si>
+    <t>Ensure that message components are correctly processed and stored.</t>
+  </si>
+  <si>
+    <t>Message Components service is operational.</t>
+  </si>
+  <si>
+    <t>Send a valid message component to the Message Components service.
+Verify that the component is processed and stored.</t>
+  </si>
+  <si>
+    <t>The message component should be processed and stored without errors.</t>
+  </si>
+  <si>
+    <t>Verify Communication Event Handling</t>
+  </si>
+  <si>
+    <t>Comms Event service is operational</t>
+  </si>
+  <si>
+    <t>Test_case_28</t>
+  </si>
+  <si>
+    <t>Test_case_29</t>
+  </si>
+  <si>
+    <t>Test_case_30</t>
+  </si>
+  <si>
+    <t>Send a communication event to the Comms Event service.
+Verify that the event is handled and stored in the Storage Tables.</t>
+  </si>
+  <si>
+    <t>The communication event should be handled and stored without errors.</t>
+  </si>
+  <si>
+    <t>Verify Message Replay Handling</t>
+  </si>
+  <si>
+    <t>Replay service is operational, and messages are available for replay.</t>
+  </si>
+  <si>
+    <t>Send a replay request to the Replay service.
+Verify that the message is correctly replayed and processed.</t>
+  </si>
+  <si>
+    <t>Ensure that replayed messages are correctly handled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The message should be replayed and processed without errors.</t>
+  </si>
+  <si>
+    <t>Verify Message Query Handling</t>
+  </si>
+  <si>
+    <t>Validate that message queries return correct results.</t>
+  </si>
+  <si>
+    <t>Query service is operational, and messages are stored.</t>
+  </si>
+  <si>
+    <t>Send a query request to the Query service for specific messages.
+Verify that the correct messages are returned.</t>
+  </si>
+  <si>
+    <t>The query should return the correct messages without errors.</t>
   </si>
 </sst>
 </file>
@@ -3021,7 +3579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3088,15 +3646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3108,6 +3657,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3381,7 +3942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3413,20 +3974,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -3846,20 +4407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -4198,18 +4759,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
@@ -5510,18 +6071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
@@ -5917,18 +6478,18 @@
   <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
@@ -6412,26 +6973,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:J17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
@@ -6465,401 +7026,401 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="28" customFormat="1" ht="60">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="60">
+      <c r="A3" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" s="28" customFormat="1" ht="60">
-      <c r="A4" s="29" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="60">
+      <c r="A4" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" s="28" customFormat="1" ht="75">
-      <c r="A5" s="29" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="75">
+      <c r="A5" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" s="28" customFormat="1" ht="75">
-      <c r="A6" s="29" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="75">
+      <c r="A6" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" s="28" customFormat="1" ht="75">
-      <c r="A7" s="29" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="75">
+      <c r="A7" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" ht="105">
-      <c r="A8" s="29" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="105">
+      <c r="A8" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" s="28" customFormat="1" ht="105">
-      <c r="A9" s="29" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="105">
+      <c r="A9" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" s="28" customFormat="1" ht="120">
-      <c r="A10" s="29" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="120">
+      <c r="A10" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" s="28" customFormat="1" ht="75">
-      <c r="A11" s="29" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="75">
+      <c r="A11" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" s="28" customFormat="1" ht="90">
-      <c r="A12" s="29" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="90">
+      <c r="A12" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" s="28" customFormat="1" ht="45">
-      <c r="A13" s="29" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="45">
+      <c r="A13" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" s="28" customFormat="1" ht="45">
-      <c r="A14" s="29" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="45">
+      <c r="A14" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" s="28" customFormat="1" ht="45">
-      <c r="A15" s="29" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="45">
+      <c r="A15" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" s="28" customFormat="1" ht="120">
-      <c r="A16" s="29" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="120">
+      <c r="A16" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>655</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="105">
-      <c r="A17" s="29" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="105">
+      <c r="A17" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="25" customFormat="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" s="25" customFormat="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9"/>
@@ -6880,4 +7441,798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="45">
+      <c r="A4" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="45">
+      <c r="A5" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="A6" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="A7" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="A8" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="60">
+      <c r="A9" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="60">
+      <c r="A10" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="A12" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="A13" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="A14" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="45">
+      <c r="A15" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="60">
+      <c r="A17" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="60">
+      <c r="A19" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="75">
+      <c r="A20" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="60">
+      <c r="A21" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="60">
+      <c r="A22" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="60">
+      <c r="A23" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="90">
+      <c r="A24" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="90">
+      <c r="A25" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="60">
+      <c r="A27" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="60">
+      <c r="A30" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="45">
+      <c r="A31" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="A32" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramasurendra.Buddha\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A607E-A05A-4779-877D-E18696E654C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -14,10 +20,11 @@
     <sheet name="Scenario5" sheetId="5" r:id="rId5"/>
     <sheet name="DSMQ_Flow" sheetId="6" r:id="rId6"/>
     <sheet name="Cloud_infrastru" sheetId="7" r:id="rId7"/>
+    <sheet name="flow notes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="895">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -3392,12 +3399,159 @@
   <si>
     <t>The query should return the correct messages without errors.</t>
   </si>
+  <si>
+    <t>Verify the Email configuration with Enrolment configuration</t>
+  </si>
+  <si>
+    <t>Verify the Data validation of email request send it to email Topic</t>
+  </si>
+  <si>
+    <t>Ingesion Layer</t>
+  </si>
+  <si>
+    <t>Verify the email engine picks up the service bus from Email Topic</t>
+  </si>
+  <si>
+    <t>Processinng Layer</t>
+  </si>
+  <si>
+    <t>Verify Email orchistrator putting the messages on message components DB</t>
+  </si>
+  <si>
+    <t>Email Engine</t>
+  </si>
+  <si>
+    <t>Verify Email Doc Gen putting the messages on message components DB</t>
+  </si>
+  <si>
+    <t>Verify Email Password protect putting the messages on message components DB</t>
+  </si>
+  <si>
+    <t>verify message breaking functionality of the Email Orchestrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Email completion sends email to the Send Grid adapters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Email completion sends email to the SMTP adapters </t>
+  </si>
+  <si>
+    <t>Verify send Grid adapters are picks up message from Email completion</t>
+  </si>
+  <si>
+    <t>Event Queue Layer</t>
+  </si>
+  <si>
+    <t>Verify SMTP adapters are picks up message from Email completion</t>
+  </si>
+  <si>
+    <t>Adapter Layer</t>
+  </si>
+  <si>
+    <t>Verify SMTP adapters fetch the any generated documents from Doc Store and it will fetch all the attachement that needs from doc store and maps the request for specific service provider and send it over that service provider . That is SMTP adapter--&gt; SMTP Relay API Service provider</t>
+  </si>
+  <si>
+    <t>Verify SendGrid  adapters fetch the any generated documents from Doc Store and it will fetch all the attachement that needs from doc store and maps the request for specific service provider and send it over that service provider . That is SendGrid adapter--&gt; SendGrid Service provider</t>
+  </si>
+  <si>
+    <t>Verify Send Grid Service provider fetch all the information from Send Grid adapter</t>
+  </si>
+  <si>
+    <t>Service provider Layer</t>
+  </si>
+  <si>
+    <t>Verify SMTP Relay API fetch request from SMTP adapter and send that request to Exchange in service provider layer</t>
+  </si>
+  <si>
+    <t>Verify Exchange has received the Request from SMTP  Relay API</t>
+  </si>
+  <si>
+    <t>Verify Message components DB has updated with Email orchistration messages</t>
+  </si>
+  <si>
+    <t>Verify Message components DB has updated with Email DocGen messages</t>
+  </si>
+  <si>
+    <t>Verify Message components DB has updated with Password Prorect  messages</t>
+  </si>
+  <si>
+    <t>Verify SendGrid Email Adapater has got the messages from SendGrid  Adapater Queue service Bus</t>
+  </si>
+  <si>
+    <t>Verify SMTP Email Adapater has got the messages from SMTP  Adapter Queue service Bus</t>
+  </si>
+  <si>
+    <t>High level flow on Layer by Layer</t>
+  </si>
+  <si>
+    <t>Verification of State management of  each layer with Message Audit Events</t>
+  </si>
+  <si>
+    <t>Verify state management of Ingestion layer that has sent message updates to message audit events</t>
+  </si>
+  <si>
+    <t>Ingestion Layer</t>
+  </si>
+  <si>
+    <t>Verify state management of Processing  layer that has sent message updates to message audit events</t>
+  </si>
+  <si>
+    <t>Verify state management of Adapter  layer that has sent message updates to message audit events</t>
+  </si>
+  <si>
+    <t>Message Audit Events scenarios</t>
+  </si>
+  <si>
+    <t>Verify the response flow from Message Audit events to Internal Audit Handler</t>
+  </si>
+  <si>
+    <t>Message Audit  Events</t>
+  </si>
+  <si>
+    <t>Verify the flow from Internal Audit Handler to State management in storage tables</t>
+  </si>
+  <si>
+    <t>Verify the commd Event Handler reads the messages from Message audit events serivice bus</t>
+  </si>
+  <si>
+    <t>Verify that how Comms Event Handler filter out the messages that reads from Message Audit Events and send backs to Consumers though Comms Event Hub</t>
+  </si>
+  <si>
+    <t>Verify Replay API fetch payloads from cosmos DB by using tracking ID and maps it with certain fields and send it back to Email Topic in the Event Queue layer</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>Verify Email Topic Serivce bus has received the request from Email</t>
+  </si>
+  <si>
+    <t>Verify Email Topic Service Bus has received the Payloads from Replay API</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Verify Query API fetch the informatio from cosmos DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Fail over messages are sent to Fail over Topic </t>
+  </si>
+  <si>
+    <t>Verify Fail over topic has received fail over messages and sent them to Fail over Engine</t>
+  </si>
+  <si>
+    <t>Verify Fail over messages are received from Fail over Topic and send them to Inegestion Queue for Email Topic</t>
+  </si>
+  <si>
+    <t>Verify Email Topic has recived the Fail over messages from Fail over Engine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3579,7 +3733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3667,7 +3821,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3942,14 +4099,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -3958,22 +4115,22 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +4146,7 @@
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4023,7 +4180,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="225">
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4057,7 +4214,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="195">
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4089,7 +4246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="240">
+    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4121,7 +4278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="270">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4153,7 +4310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="255">
+    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4185,7 +4342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225">
+    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -4217,7 +4374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="255">
+    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4249,7 +4406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="240">
+    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -4281,7 +4438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="405">
+    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -4313,7 +4470,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="285">
+    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -4345,7 +4502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="285">
+    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -4387,7 +4544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
@@ -4396,17 +4553,17 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="7"/>
-    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.28515625" style="7"/>
-    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.28515625" style="7"/>
+    <col min="1" max="1" width="40.33203125" style="7"/>
+    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.33203125" style="7"/>
+    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>120</v>
       </c>
@@ -4422,7 +4579,7 @@
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4454,7 +4611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.45" customHeight="1">
+    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -4486,7 +4643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="315">
+    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -4515,7 +4672,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="270">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4547,7 +4704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="225">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4579,7 +4736,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="240">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4611,7 +4768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="210">
+    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -4640,7 +4797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="210">
+    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>149</v>
       </c>
@@ -4669,7 +4826,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="285">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -4701,7 +4858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="315">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -4743,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4751,14 +4908,14 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="34.85546875" style="9"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.85546875" style="9"/>
+    <col min="1" max="5" width="34.88671875" style="9"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>159</v>
       </c>
@@ -4772,7 +4929,7 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -4804,7 +4961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
@@ -4828,7 +4985,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="90">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
@@ -4852,7 +5009,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="105">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -4876,7 +5033,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="90">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -4900,7 +5057,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="90">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -4924,7 +5081,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="75">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -4948,7 +5105,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="120">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -4972,7 +5129,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="105">
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -4996,7 +5153,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="105">
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>197</v>
       </c>
@@ -5020,7 +5177,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="105">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -5044,7 +5201,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="105">
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -5068,7 +5225,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
@@ -5092,7 +5249,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="60">
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>179</v>
       </c>
@@ -5116,7 +5273,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="60">
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>217</v>
       </c>
@@ -5140,7 +5297,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="60">
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>221</v>
       </c>
@@ -5164,7 +5321,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="75">
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>226</v>
       </c>
@@ -5188,7 +5345,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -5212,7 +5369,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>235</v>
       </c>
@@ -5236,7 +5393,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="75">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
@@ -5260,7 +5417,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>243</v>
       </c>
@@ -5284,7 +5441,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="75">
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
@@ -5308,7 +5465,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="75">
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
@@ -5332,7 +5489,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="90">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
@@ -5356,7 +5513,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="105">
+    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>261</v>
       </c>
@@ -5380,7 +5537,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="105">
+    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>265</v>
       </c>
@@ -5404,7 +5561,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="60">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
@@ -5428,7 +5585,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="90">
+    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -5452,7 +5609,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="90">
+    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>281</v>
       </c>
@@ -5476,7 +5633,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="75">
+    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -5500,7 +5657,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="75">
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
@@ -5524,7 +5681,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="60">
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>295</v>
       </c>
@@ -5548,7 +5705,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="75">
+    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>299</v>
       </c>
@@ -5572,7 +5729,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>303</v>
       </c>
@@ -5596,7 +5753,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="60">
+    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>307</v>
       </c>
@@ -5620,7 +5777,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="75">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>311</v>
       </c>
@@ -5644,7 +5801,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="75">
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>316</v>
       </c>
@@ -5668,7 +5825,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.5">
+    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -5700,7 +5857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="90">
+    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>322</v>
       </c>
@@ -5724,7 +5881,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="90">
+    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>327</v>
       </c>
@@ -5748,7 +5905,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="120">
+    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>331</v>
       </c>
@@ -5772,7 +5929,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="90">
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>335</v>
       </c>
@@ -5796,7 +5953,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="90">
+    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>340</v>
       </c>
@@ -5820,7 +5977,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="105">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>345</v>
       </c>
@@ -5844,7 +6001,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="105">
+    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>350</v>
       </c>
@@ -5868,7 +6025,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="90">
+    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>355</v>
       </c>
@@ -5892,7 +6049,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="105">
+    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -5916,7 +6073,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="90">
+    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>364</v>
       </c>
@@ -5940,7 +6097,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="120">
+    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -5964,7 +6121,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="105">
+    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>373</v>
       </c>
@@ -5988,7 +6145,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="105">
+    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>377</v>
       </c>
@@ -6012,7 +6169,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.5">
+    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -6053,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6061,16 +6218,16 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="9"/>
-    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.140625" style="9"/>
-    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.140625" style="9"/>
+    <col min="1" max="1" width="46.109375" style="9"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.109375" style="9"/>
+    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>383</v>
       </c>
@@ -6084,7 +6241,7 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6116,7 +6273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="135">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>384</v>
       </c>
@@ -6142,7 +6299,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="345">
+    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>392</v>
       </c>
@@ -6169,7 +6326,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="120">
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
@@ -6195,7 +6352,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105">
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>408</v>
       </c>
@@ -6221,7 +6378,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>416</v>
       </c>
@@ -6247,7 +6404,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="135">
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>424</v>
       </c>
@@ -6276,7 +6433,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>433</v>
       </c>
@@ -6302,7 +6459,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="150">
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>441</v>
       </c>
@@ -6328,7 +6485,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="150">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>449</v>
       </c>
@@ -6354,7 +6511,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="180">
+    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>457</v>
       </c>
@@ -6380,7 +6537,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="150">
+    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>465</v>
       </c>
@@ -6406,7 +6563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="135">
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>473</v>
       </c>
@@ -6432,7 +6589,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="180">
+    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>480</v>
       </c>
@@ -6467,7 +6624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6475,9 +6632,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>488</v>
       </c>
@@ -6491,7 +6648,7 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6523,7 +6680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="150">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
@@ -6555,7 +6712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="285">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -6585,7 +6742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="195">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6617,7 +6774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.5">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>494</v>
       </c>
@@ -6647,7 +6804,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="75">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>502</v>
       </c>
@@ -6675,7 +6832,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" ht="105">
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>512</v>
       </c>
@@ -6705,7 +6862,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="180">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>520</v>
       </c>
@@ -6735,7 +6892,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="330">
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>528</v>
       </c>
@@ -6765,7 +6922,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" ht="105">
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>538</v>
       </c>
@@ -6795,7 +6952,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="150">
+    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>546</v>
       </c>
@@ -6825,7 +6982,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="105">
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>556</v>
       </c>
@@ -6853,7 +7010,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="409.5">
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>562</v>
       </c>
@@ -6881,7 +7038,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5">
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>569</v>
       </c>
@@ -6907,7 +7064,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5">
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>578</v>
       </c>
@@ -6933,7 +7090,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5">
+    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>584</v>
       </c>
@@ -6970,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6978,9 +7135,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>590</v>
       </c>
@@ -6994,7 +7151,7 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7026,7 +7183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="60">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>618</v>
       </c>
@@ -7050,7 +7207,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="60">
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>617</v>
       </c>
@@ -7074,7 +7231,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>616</v>
       </c>
@@ -7098,7 +7255,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>615</v>
       </c>
@@ -7122,7 +7279,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>619</v>
       </c>
@@ -7146,7 +7303,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>624</v>
       </c>
@@ -7170,7 +7327,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>629</v>
       </c>
@@ -7194,7 +7351,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="120">
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>634</v>
       </c>
@@ -7218,7 +7375,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>639</v>
       </c>
@@ -7242,7 +7399,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="90">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>644</v>
       </c>
@@ -7266,7 +7423,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>652</v>
       </c>
@@ -7290,7 +7447,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>660</v>
       </c>
@@ -7314,7 +7471,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>665</v>
       </c>
@@ -7338,7 +7495,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="120">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>670</v>
       </c>
@@ -7362,7 +7519,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>675</v>
       </c>
@@ -7386,7 +7543,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1">
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="27"/>
       <c r="C18" s="24"/>
@@ -7398,7 +7555,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1">
+    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
@@ -7410,7 +7567,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1">
+    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -7422,7 +7579,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7444,28 +7601,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>677</v>
       </c>
@@ -7479,7 +7636,7 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7511,7 +7668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>678</v>
       </c>
@@ -7535,7 +7692,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>684</v>
       </c>
@@ -7559,7 +7716,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>695</v>
       </c>
@@ -7583,8 +7740,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>699</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -7607,7 +7764,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="60">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>705</v>
       </c>
@@ -7631,7 +7788,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="60">
+    <row r="8" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>709</v>
       </c>
@@ -7655,7 +7812,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="60">
+    <row r="9" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>713</v>
       </c>
@@ -7679,7 +7836,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="60">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>721</v>
       </c>
@@ -7703,7 +7860,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>725</v>
       </c>
@@ -7727,7 +7884,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>616</v>
       </c>
@@ -7751,7 +7908,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>735</v>
       </c>
@@ -7775,7 +7932,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>748</v>
       </c>
@@ -7799,7 +7956,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>752</v>
       </c>
@@ -7823,7 +7980,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>756</v>
       </c>
@@ -7845,7 +8002,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="60">
+    <row r="17" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>761</v>
       </c>
@@ -7869,7 +8026,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="45">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>765</v>
       </c>
@@ -7893,7 +8050,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="60">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>770</v>
       </c>
@@ -7917,7 +8074,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>775</v>
       </c>
@@ -7941,7 +8098,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="60">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>778</v>
       </c>
@@ -7965,7 +8122,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="60">
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>782</v>
       </c>
@@ -7989,7 +8146,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="60">
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>789</v>
       </c>
@@ -8013,7 +8170,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="90">
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>797</v>
       </c>
@@ -8037,7 +8194,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="90">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>802</v>
       </c>
@@ -8061,7 +8218,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="30">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>806</v>
       </c>
@@ -8085,7 +8242,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="60">
+    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>811</v>
       </c>
@@ -8109,7 +8266,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="45">
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>819</v>
       </c>
@@ -8133,7 +8290,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="45">
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>824</v>
       </c>
@@ -8157,7 +8314,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="60">
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>829</v>
       </c>
@@ -8181,7 +8338,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="45">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>836</v>
       </c>
@@ -8205,7 +8362,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="45">
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>841</v>
       </c>
@@ -8235,4 +8392,713 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05780083-B743-4935-B023-6AA4A1338F58}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="75.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="32" t="s">
+        <v>879</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramasurendra.Buddha\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A607E-A05A-4779-877D-E18696E654C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -23,8 +17,8 @@
     <sheet name="flow notes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="932">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -3546,12 +3540,250 @@
   <si>
     <t>Verify Email Topic has recived the Fail over messages from Fail over Engine</t>
   </si>
+  <si>
+    <t>You have a tool to send API requests 
+You have the API documentation for the system under test.
+You have known API endpoints for Email configuration and Enrollment configuration.
+You have credentials (API key, token) for accessing the API.</t>
+  </si>
+  <si>
+    <t>Use a POST request to the Email configuration API endpoint.
+1.2. Set the request body with the following data (replace placeholders with actual values):
+1.3. Set the appropriate headers for authentication and content type (refer to API documentation).
+1.4. Send the request and verify the response status code is 200 (Success).
+1.5. Store the response data (if any) for later verification.</t>
+  </si>
+  <si>
+    <t>Verify Email Notification 
+ Use a separate email account to sign up for the system under test (or perform an action that triggers the notification).
+ Check the email inbox of the registered email for a notification email.</t>
+  </si>
+  <si>
+    <t>The response status code for all API requests is 200 (Success).
+An email notification is sent to the registered email address.</t>
+  </si>
+  <si>
+    <t>Pass: The API requests are successful, and the email notification is received with the correct information.
+Fail: Any API request fails, or the email notification is not received or contains incorrect information.</t>
+  </si>
+  <si>
+    <t>API endpoint URLs for Email configuration and Enrollment configuration.
+Valid data for Email configuration 
+Email template ID for Enrollment configuration 
+Additional data for enrollment event simulation</t>
+  </si>
+  <si>
+    <t>You have a tool to send API requests.
+You have the API documentation for the system under test.
+You know the API endpoint for sending email requests.
+You have credentials (API key, token) for accessing the API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a POST request to the email API endpoint.
+Set the request body with the following data (replace placeholders with valid values):
+Invalid Email Address (Missing Domain):
+Modify the request body from step 1 to include an invalid email address (missing domain).
+Invalid Email Address (Invalid Format):
+Modify the request body an invalid email address format.
+Missing Recipient Email:
+Modify the request body to remove the "to" field.
+Missing Email Topic:
+Modify the request body from step 1 to remove the "topic" field
+Missing Email Message:
+Modify the request body from step 1 to remove the "message" field.
+</t>
+  </si>
+  <si>
+    <t>The valid email request results in a 200 status code.
+Invalid email requests result in error status codes with appropriate error messages.</t>
+  </si>
+  <si>
+    <t>Pass: The valid email request is successful, and error responses are received for invalid requests with informative messages.
+Fail: The valid email request fails, or error responses are not received for invalid requests, or error messages are not informative.</t>
+  </si>
+  <si>
+    <t>Valid email address.
+Invalid email addresses (missing domain, invalid format).
+Email API endpoint URL.</t>
+  </si>
+  <si>
+    <t>You know the name of the Email topic.
+You have a tool to send API requests (e.g., Postman, CURL).
+You know the API endpoint for sending email requests.
+You have credentials (API key, token) for accessing the API.</t>
+  </si>
+  <si>
+    <t>Monitor Service Bus for Messages:
+Start the Service Bus monitoring tool and connect to the Service Bus using your credentials.
+Ensure the message count is zero 
+Send Valid Email Request:
+Use a POST request to the email API endpoint.
+Set the request body with valid data (refer to Test Case ID: TC02_API for an example).
+Set the appropriate headers for authentication and content type (refer to API documentation).
+Send the request and verify the response status code is 200 (Success).
+Verify Message in Service Bus:
+Refresh the Service Bus monitoring tool to update message count.
+Verify that the message count for the Email topic has increased by one.
+You may double-click the message to view its content (if possible) and confirm it contains the email details</t>
+  </si>
+  <si>
+    <t>The valid email request results in a 200 status code.
+The message count in the Email topic of the Service Bus increases by one</t>
+  </si>
+  <si>
+    <t>Pass: The valid email request is successful, and a new message appears in the Email topic of the Service Bus.
+Fail: The valid email request fails, or no new message is added to the Email topic.</t>
+  </si>
+  <si>
+    <t>Valid email address.
+Email API endpoint URL.
+Service Bus connection string or credentials.
+Email topic name (from flowchart).</t>
+  </si>
+  <si>
+    <t>This test case relies on using a Service Bus monitoring tool to verify message arrival. You may need to adapt this step based on the specific tools available in your environment.
+You can modify the test steps to send emails with different content and verify the corresponding messages are received in the Service Bus.</t>
+  </si>
+  <si>
+    <t>You have the connection string or other credentials for accessing the Service Bus.
+You know the name of the Email topic.
+You have a tool to send API requests (e.g., Postman, CURL).
+You know the API endpoints for Replay API and sending email requests.
+You have credentials (API key, token) for accessing both APIs</t>
+  </si>
+  <si>
+    <t>Monitor Service Bus for Messages:
+Start the Service Bus monitoring tool and connect to the Service Bus using your credentials.
+Focus on the queue/topic named "Email" (or the name specified in the flowchart).
+Ensure the message count is zero (or the expected baseline count before the test).
+Trigger Replay API (Simulate Payload):
+Use your API tool to send a request to the Replay API endpoint.
+The request payload should simulate the data you expect the Replay API to send to the Email topic (refer to your API documentation for specific data format).
+Verify the response status code from the Replay API indicates success (200).
+Verify Message in Service Bus:
+Refresh the Service Bus monitoring tool to update message count.
+Verify that the message count for the Email topic has increased by one.
+You may double-click the message to view its content (if possible) and confirm it contains the replay data.</t>
+  </si>
+  <si>
+    <t>The Replay API request results in a successful status code.
+The message count in the Email topic of the Service Bus increases by one</t>
+  </si>
+  <si>
+    <t>Pass: The Replay API request is successful, and a new message appears in the Email topic of the Service Bus.
+Fail: The Replay API request fails, or no new message is added to the Email topic.</t>
+  </si>
+  <si>
+    <t>API endpoints for Replay API and Email API.
+Service Bus connection string or credentials.
+Email topic name (from flowchart).
+Sample payload data for Replay API (refer to API documentation).</t>
+  </si>
+  <si>
+    <t>You have the connection string or other credentials for accessing the Service Bus.
+You know the name of the Email topic.
+You have a tool to simulate Failover Engine events (e.g., scripting tool).
+You may need additional tools or knowledge to initiate a failover scenario in your system (depending on your environment)</t>
+  </si>
+  <si>
+    <t>Monitor Service Bus for Messages:
+Start the Service Bus monitoring tool and connect to the Service Bus using your credentials.
+Focus on the queue/topic named "Email" (or the name specified in the flowchart).
+Ensure the message count is zero (or the expected baseline count before the test).
+Simulate Failover Event:
+Use your scripting tool or other appropriate method to initiate a simulated Failover event in your system.
+This might involve triggering specific actions within the Failover Engine or creating conditions that would cause a failover to occur (depending on your system's implementation).
+Verify Message in Service Bus:
+Refresh the Service Bus monitoring tool to update message count.
+Verify that the message count for the Email topic has increased by one or more (depending on the number of Failover messages expected).
+You may double-click the message(s) to view their content (if possible) and confirm it contains Failover-related information.</t>
+  </si>
+  <si>
+    <t>The simulated Failover event is triggered successfully.
+The message count in the Email topic of the Service Bus increases with one or more messages containing Failover information.</t>
+  </si>
+  <si>
+    <t>Pass: The Failover event is simulated successfully, and new messages containing Failover information are added to the Email topic.
+Fail: The Failover event fails to simulate, or no new messages are added to the Email topic, or messages lack Failover information</t>
+  </si>
+  <si>
+    <t>Service Bus connection string or credentials.
+Email topic name (from flowchart).</t>
+  </si>
+  <si>
+    <t>You have the connection string or other credentials for accessing the Service Bus.
+You know the name of the Email topic.
+You have a tool to send API requests (e.g., Postman, CURL).
+You know the API endpoint for sending email requests.
+You have credentials (API key, token) for accessing the API.</t>
+  </si>
+  <si>
+    <t>Monitor Service Bus Queue for Messages:
+Start the Service Bus monitoring tool and connect to the Service Bus using your credentials.
+Ensure the message count for the Email queue (or topic, depending on the flowchart) is zero (or the expected baseline count before the test).
+Send Valid Email Request:
+Use a POST request to the email API endpoint.
+Set the request body with valid data
+Set the appropriate headers for authentication and content type (refer to API documentation).
+Send the request and verify the response status code is 200 (Success).
+Verify Message Processing:
+You may observe the message count in the Email queue decrease by one, indicating the message has been picked up for processing by the Email Engine (depending on your Service Bus configuration).
+Alternatively, you may not see an immediate change in the queue count. If the Email Engine retrieves messages asynchronously, you might need to wait some time or refresh the monitoring tool to see the message disappear from the queue.
+Use a separate email account to sign up for the system under test (or perform an action that triggers the notification).
+Check the email inbox of the registered email for a notification email</t>
+  </si>
+  <si>
+    <t>The valid email request results in a 200 status code.
+The message count in the Email queue eventually decreases by one (or the message disappears from the queue).
+An email notification is sent to the registered email address</t>
+  </si>
+  <si>
+    <t>Pass: The valid email request is successful, the message is removed from the Service Bus queue, and an email notification is delivered (if applicable).
+Fail: The valid email request fails, the message remains in the Service Bus queue, or no email notification is delivered.</t>
+  </si>
+  <si>
+    <t>Valid email address.
+Email API endpoint URL.
+Service Bus connection string or credentials</t>
+  </si>
+  <si>
+    <t>You know the database schema and table structure for message components.
+You have a tool to send API requests (e.g., Postman, CURL).
+You know the API endpoint for sending email requests.
+You have credentials (API key, token) for accessing the API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use your database query tool to retrieve the count of messages in the relevant table of the Message Components Database (based on your knowledge of the schema).
+Note down the baseline count before proceeding.
+Send Valid Email Request:
+Use a POST request to the email API endpoint.
+Set the request body with valid data
+Set the appropriate headers for authentication and content type (refer to API documentation).
+Send the request and verify the response status code is 200 (Success).
+Verify Message in Database:
+Use your database query tool to retrieve the count of messages in the relevant table of the Message Components Database
+Verify that the message count has increased by one compared to the baseline count (or previous count if baseline was not obtained).</t>
+  </si>
+  <si>
+    <t>The valid email request results in a 200 status code.
+The message count in the message components database increases by one</t>
+  </si>
+  <si>
+    <t>Pass: The valid email request is successful, and a new message record is added to the message components database.
+Fail: The valid email request fails, or no new message record is added to the database</t>
+  </si>
+  <si>
+    <t>Valid email address.
+Email API endpoint URL.
+Database connection details for Message Components Database.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3813,6 +4045,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3820,12 +4058,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4099,14 +4331,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -4115,38 +4347,38 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4180,7 +4412,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="225">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4446,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4246,7 +4478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="240">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4278,7 +4510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="270">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4310,7 +4542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="255">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4342,7 +4574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -4374,7 +4606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="255">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4406,7 +4638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="240">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -4438,7 +4670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="405">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -4470,7 +4702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="285">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -4502,7 +4734,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="285">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -4544,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
@@ -4553,33 +4785,33 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="7"/>
-    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.33203125" style="7"/>
-    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.33203125" style="7"/>
+    <col min="1" max="1" width="40.28515625" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.28515625" style="7"/>
+    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1">
+      <c r="A1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4611,7 +4843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="179.45" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -4643,7 +4875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="315">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -4672,7 +4904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="270">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4704,7 +4936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="225">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4736,7 +4968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="240">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4768,7 +5000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="210">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -4797,7 +5029,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="210">
       <c r="A9" s="7" t="s">
         <v>149</v>
       </c>
@@ -4826,7 +5058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="285">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -4858,7 +5090,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="315">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -4900,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,28 +5140,28 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="34.88671875" style="9"/>
-    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.88671875" style="9"/>
+    <col min="1" max="5" width="34.85546875" style="9"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +5193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="105">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
@@ -4985,7 +5217,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="90">
       <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
@@ -5009,7 +5241,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="105">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -5033,7 +5265,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="90">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -5057,7 +5289,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="90">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -5081,7 +5313,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="75">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -5105,7 +5337,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -5129,7 +5361,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="105">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -5153,7 +5385,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="105">
       <c r="A11" s="10" t="s">
         <v>197</v>
       </c>
@@ -5177,7 +5409,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="105">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -5201,7 +5433,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -5225,7 +5457,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="60">
       <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
@@ -5249,7 +5481,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="10" t="s">
         <v>179</v>
       </c>
@@ -5273,7 +5505,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="10" t="s">
         <v>217</v>
       </c>
@@ -5297,7 +5529,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60">
       <c r="A17" s="10" t="s">
         <v>221</v>
       </c>
@@ -5321,7 +5553,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="75">
       <c r="A18" s="10" t="s">
         <v>226</v>
       </c>
@@ -5345,7 +5577,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="75">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -5369,7 +5601,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75">
       <c r="A20" s="10" t="s">
         <v>235</v>
       </c>
@@ -5393,7 +5625,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="75">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
@@ -5417,7 +5649,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="75">
       <c r="A22" s="10" t="s">
         <v>243</v>
       </c>
@@ -5441,7 +5673,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="75">
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
@@ -5465,7 +5697,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="75">
       <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
@@ -5489,7 +5721,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
@@ -5513,7 +5745,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="105">
       <c r="A26" s="10" t="s">
         <v>261</v>
       </c>
@@ -5537,7 +5769,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="105">
       <c r="A27" s="10" t="s">
         <v>265</v>
       </c>
@@ -5561,7 +5793,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60">
       <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
@@ -5585,7 +5817,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="90">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -5609,7 +5841,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="90">
       <c r="A30" s="10" t="s">
         <v>281</v>
       </c>
@@ -5633,7 +5865,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="75">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -5657,7 +5889,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="75">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
@@ -5681,7 +5913,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="60">
       <c r="A33" s="10" t="s">
         <v>295</v>
       </c>
@@ -5705,7 +5937,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="75">
       <c r="A34" s="10" t="s">
         <v>299</v>
       </c>
@@ -5729,7 +5961,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="60">
       <c r="A35" s="10" t="s">
         <v>303</v>
       </c>
@@ -5753,7 +5985,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="60">
       <c r="A36" s="10" t="s">
         <v>307</v>
       </c>
@@ -5777,7 +6009,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="75">
       <c r="A37" s="10" t="s">
         <v>311</v>
       </c>
@@ -5801,7 +6033,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="75">
       <c r="A38" s="10" t="s">
         <v>316</v>
       </c>
@@ -5825,7 +6057,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="409.5">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -5857,7 +6089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="90">
       <c r="A40" s="10" t="s">
         <v>322</v>
       </c>
@@ -5881,7 +6113,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="90">
       <c r="A41" s="10" t="s">
         <v>327</v>
       </c>
@@ -5905,7 +6137,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="120">
       <c r="A42" s="10" t="s">
         <v>331</v>
       </c>
@@ -5929,7 +6161,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="90">
       <c r="A43" s="10" t="s">
         <v>335</v>
       </c>
@@ -5953,7 +6185,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="90">
       <c r="A44" s="10" t="s">
         <v>340</v>
       </c>
@@ -5977,7 +6209,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="105">
       <c r="A45" s="10" t="s">
         <v>345</v>
       </c>
@@ -6001,7 +6233,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="105">
       <c r="A46" s="10" t="s">
         <v>350</v>
       </c>
@@ -6025,7 +6257,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="90">
       <c r="A47" s="10" t="s">
         <v>355</v>
       </c>
@@ -6049,7 +6281,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="105">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -6073,7 +6305,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="90">
       <c r="A49" s="10" t="s">
         <v>364</v>
       </c>
@@ -6097,7 +6329,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="120">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -6121,7 +6353,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="105">
       <c r="A51" s="10" t="s">
         <v>373</v>
       </c>
@@ -6145,7 +6377,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="105">
       <c r="A52" s="10" t="s">
         <v>377</v>
       </c>
@@ -6169,7 +6401,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="409.5">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -6210,7 +6442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6218,30 +6450,30 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="9"/>
-    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.109375" style="9"/>
-    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.109375" style="9"/>
+    <col min="1" max="1" width="46.140625" style="9"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.140625" style="9"/>
+    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6273,7 +6505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="135">
       <c r="A3" s="10" t="s">
         <v>384</v>
       </c>
@@ -6299,7 +6531,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="345">
       <c r="A4" s="10" t="s">
         <v>392</v>
       </c>
@@ -6326,7 +6558,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="120">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
@@ -6352,7 +6584,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="105">
       <c r="A6" s="10" t="s">
         <v>408</v>
       </c>
@@ -6378,7 +6610,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="120">
       <c r="A7" s="10" t="s">
         <v>416</v>
       </c>
@@ -6404,7 +6636,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="135">
       <c r="A8" s="10" t="s">
         <v>424</v>
       </c>
@@ -6433,7 +6665,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>433</v>
       </c>
@@ -6459,7 +6691,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="150">
       <c r="A10" s="10" t="s">
         <v>441</v>
       </c>
@@ -6485,7 +6717,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="150">
       <c r="A11" s="10" t="s">
         <v>449</v>
       </c>
@@ -6511,7 +6743,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="180">
       <c r="A12" s="10" t="s">
         <v>457</v>
       </c>
@@ -6537,7 +6769,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="150">
       <c r="A13" s="10" t="s">
         <v>465</v>
       </c>
@@ -6563,7 +6795,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="135">
       <c r="A14" s="10" t="s">
         <v>473</v>
       </c>
@@ -6589,7 +6821,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="180">
       <c r="A15" s="10" t="s">
         <v>480</v>
       </c>
@@ -6624,7 +6856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6632,23 +6864,23 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6680,7 +6912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="150">
       <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
@@ -6712,7 +6944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="285">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -6742,7 +6974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="195">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -6774,7 +7006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.5">
       <c r="A6" s="23" t="s">
         <v>494</v>
       </c>
@@ -6804,7 +7036,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="75">
       <c r="A7" s="23" t="s">
         <v>502</v>
       </c>
@@ -6832,7 +7064,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A8" s="21" t="s">
         <v>512</v>
       </c>
@@ -6862,7 +7094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="180">
       <c r="A9" s="21" t="s">
         <v>520</v>
       </c>
@@ -6892,7 +7124,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="330">
       <c r="A10" s="21" t="s">
         <v>528</v>
       </c>
@@ -6922,7 +7154,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A11" s="21" t="s">
         <v>538</v>
       </c>
@@ -6952,7 +7184,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="150">
       <c r="A12" s="23" t="s">
         <v>546</v>
       </c>
@@ -6982,7 +7214,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="21" t="s">
         <v>556</v>
       </c>
@@ -7010,7 +7242,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="409.5">
       <c r="A14" s="21" t="s">
         <v>562</v>
       </c>
@@ -7038,7 +7270,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="409.5">
       <c r="A15" s="21" t="s">
         <v>569</v>
       </c>
@@ -7064,7 +7296,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="409.5">
       <c r="A16" s="21" t="s">
         <v>578</v>
       </c>
@@ -7090,7 +7322,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="21" t="s">
         <v>584</v>
       </c>
@@ -7127,7 +7359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7135,23 +7367,23 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7183,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="60">
       <c r="A3" s="26" t="s">
         <v>618</v>
       </c>
@@ -7207,7 +7439,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="60">
       <c r="A4" s="26" t="s">
         <v>617</v>
       </c>
@@ -7231,7 +7463,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A5" s="26" t="s">
         <v>616</v>
       </c>
@@ -7255,7 +7487,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A6" s="26" t="s">
         <v>615</v>
       </c>
@@ -7279,7 +7511,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A7" s="26" t="s">
         <v>619</v>
       </c>
@@ -7303,7 +7535,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A8" s="26" t="s">
         <v>624</v>
       </c>
@@ -7327,7 +7559,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A9" s="26" t="s">
         <v>629</v>
       </c>
@@ -7351,7 +7583,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="120">
       <c r="A10" s="26" t="s">
         <v>634</v>
       </c>
@@ -7375,7 +7607,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A11" s="26" t="s">
         <v>639</v>
       </c>
@@ -7399,7 +7631,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="90">
       <c r="A12" s="26" t="s">
         <v>644</v>
       </c>
@@ -7423,7 +7655,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A13" s="26" t="s">
         <v>652</v>
       </c>
@@ -7447,7 +7679,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A14" s="26" t="s">
         <v>660</v>
       </c>
@@ -7471,7 +7703,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A15" s="26" t="s">
         <v>665</v>
       </c>
@@ -7495,7 +7727,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="120">
       <c r="A16" s="26" t="s">
         <v>670</v>
       </c>
@@ -7519,7 +7751,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A17" s="26" t="s">
         <v>675</v>
       </c>
@@ -7543,7 +7775,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="25" customFormat="1">
       <c r="A18" s="24"/>
       <c r="B18" s="27"/>
       <c r="C18" s="24"/>
@@ -7555,7 +7787,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="25" customFormat="1">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
@@ -7567,7 +7799,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="25" customFormat="1">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -7579,7 +7811,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7601,42 +7833,42 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7668,7 +7900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="8" t="s">
         <v>678</v>
       </c>
@@ -7692,7 +7924,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="8" t="s">
         <v>684</v>
       </c>
@@ -7716,7 +7948,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="8" t="s">
         <v>695</v>
       </c>
@@ -7740,7 +7972,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="8" t="s">
         <v>699</v>
       </c>
@@ -7764,7 +7996,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="60">
       <c r="A7" s="8" t="s">
         <v>705</v>
       </c>
@@ -7788,7 +8020,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="60" hidden="1">
       <c r="A8" s="8" t="s">
         <v>709</v>
       </c>
@@ -7812,7 +8044,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="60" hidden="1">
       <c r="A9" s="8" t="s">
         <v>713</v>
       </c>
@@ -7836,7 +8068,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60">
       <c r="A10" s="8" t="s">
         <v>721</v>
       </c>
@@ -7860,7 +8092,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="8" t="s">
         <v>725</v>
       </c>
@@ -7884,7 +8116,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60">
       <c r="A12" s="8" t="s">
         <v>616</v>
       </c>
@@ -7908,7 +8140,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" hidden="1">
       <c r="A13" s="8" t="s">
         <v>735</v>
       </c>
@@ -7932,7 +8164,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="45" hidden="1">
       <c r="A14" s="8" t="s">
         <v>748</v>
       </c>
@@ -7956,7 +8188,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="45" hidden="1">
       <c r="A15" s="8" t="s">
         <v>752</v>
       </c>
@@ -7980,7 +8212,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" hidden="1">
       <c r="A16" s="8" t="s">
         <v>756</v>
       </c>
@@ -8002,7 +8234,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60" hidden="1">
       <c r="A17" s="8" t="s">
         <v>761</v>
       </c>
@@ -8026,7 +8258,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="8" t="s">
         <v>765</v>
       </c>
@@ -8050,7 +8282,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="8" t="s">
         <v>770</v>
       </c>
@@ -8074,7 +8306,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75" hidden="1">
       <c r="A20" s="8" t="s">
         <v>775</v>
       </c>
@@ -8098,7 +8330,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="60">
       <c r="A21" s="8" t="s">
         <v>778</v>
       </c>
@@ -8122,7 +8354,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="60">
       <c r="A22" s="8" t="s">
         <v>782</v>
       </c>
@@ -8146,7 +8378,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="60">
       <c r="A23" s="8" t="s">
         <v>789</v>
       </c>
@@ -8170,7 +8402,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="90">
       <c r="A24" s="8" t="s">
         <v>797</v>
       </c>
@@ -8194,7 +8426,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="8" t="s">
         <v>802</v>
       </c>
@@ -8218,7 +8450,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="8" t="s">
         <v>806</v>
       </c>
@@ -8242,7 +8474,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="60">
       <c r="A27" s="8" t="s">
         <v>811</v>
       </c>
@@ -8266,7 +8498,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="45">
       <c r="A28" s="8" t="s">
         <v>819</v>
       </c>
@@ -8290,7 +8522,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="45">
       <c r="A29" s="8" t="s">
         <v>824</v>
       </c>
@@ -8314,7 +8546,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="60">
       <c r="A30" s="8" t="s">
         <v>829</v>
       </c>
@@ -8338,7 +8570,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="45">
       <c r="A31" s="8" t="s">
         <v>836</v>
       </c>
@@ -8362,7 +8594,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="45">
       <c r="A32" s="8" t="s">
         <v>841</v>
       </c>
@@ -8395,708 +8627,730 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05780083-B743-4935-B023-6AA4A1338F58}">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="75.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="28" t="s">
         <v>873</v>
       </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="210">
+      <c r="A3" s="8" t="s">
+        <v>846</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="390">
+      <c r="A4" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
-        <v>847</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>901</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>903</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>905</v>
+      </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5">
+      <c r="A5" s="8" t="s">
+        <v>887</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.5">
+      <c r="A6" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>888</v>
-      </c>
       <c r="C6" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="409.5">
+      <c r="A7" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>894</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+        <v>917</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>920</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>921</v>
+      </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="409.5">
+      <c r="A8" s="8" t="s">
+        <v>849</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+        <v>922</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>925</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>926</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="409.5">
+      <c r="A9" s="8" t="s">
+        <v>851</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>852</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="45">
+      <c r="A11" s="8" t="s">
+        <v>854</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="C11" s="8" t="s">
         <v>852</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>868</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="C12" s="8" t="s">
         <v>850</v>
       </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="8" t="s">
+        <v>869</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="C13" s="8" t="s">
         <v>850</v>
       </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="8" t="s">
+        <v>870</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="C14" s="8" t="s">
         <v>850</v>
       </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="60">
+      <c r="A15" s="8" t="s">
+        <v>893</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="C15" s="8" t="s">
         <v>850</v>
       </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>855</v>
+      </c>
       <c r="B16" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="C16" s="8" t="s">
         <v>852</v>
       </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="8" t="s">
+        <v>857</v>
+      </c>
       <c r="B17" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="C17" s="8" t="s">
         <v>852</v>
       </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>856</v>
+      </c>
       <c r="B18" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="C18" s="8" t="s">
         <v>852</v>
       </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="8" t="s">
+        <v>858</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="C19" s="8" t="s">
         <v>859</v>
       </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="8" t="s">
+        <v>860</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="C20" s="8" t="s">
         <v>859</v>
       </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="8" t="s">
+        <v>892</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="C21" s="8" t="s">
         <v>859</v>
       </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="60">
+      <c r="A22" s="8" t="s">
+        <v>871</v>
+      </c>
       <c r="B22" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="C22" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="45">
+      <c r="A23" s="8" t="s">
+        <v>872</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="C23" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="150">
+      <c r="A24" s="8" t="s">
+        <v>863</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="C24" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="150">
+      <c r="A25" s="8" t="s">
+        <v>862</v>
+      </c>
       <c r="B25" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="C25" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="8" t="s">
+        <v>864</v>
+      </c>
       <c r="B26" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="C26" s="8" t="s">
         <v>865</v>
       </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="60">
+      <c r="A27" s="8" t="s">
+        <v>866</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C27" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="8" t="s">
+        <v>891</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="C28" s="8" t="s">
         <v>861</v>
       </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="45">
+      <c r="A29" s="8" t="s">
+        <v>867</v>
+      </c>
       <c r="B29" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="C29" s="8" t="s">
         <v>865</v>
       </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="32" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="29" t="s">
         <v>874</v>
       </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="60">
+      <c r="A32" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="C32" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="60">
+      <c r="A33" s="8" t="s">
+        <v>877</v>
+      </c>
       <c r="B33" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="C33" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="60">
+      <c r="A34" s="8" t="s">
+        <v>878</v>
+      </c>
       <c r="B34" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="C34" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="32" t="s">
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="29" t="s">
         <v>879</v>
       </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="45">
+      <c r="A36" s="8" t="s">
+        <v>880</v>
+      </c>
       <c r="B36" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="C36" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="45">
+      <c r="A37" s="8" t="s">
+        <v>882</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="C37" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="60">
+      <c r="A38" s="8" t="s">
+        <v>883</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="C38" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="90">
+      <c r="A39" s="8" t="s">
+        <v>884</v>
+      </c>
       <c r="B39" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="C39" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="90">
+      <c r="A40" s="8" t="s">
+        <v>885</v>
+      </c>
       <c r="B40" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="C40" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="8" t="s">
+        <v>890</v>
+      </c>
       <c r="B41" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="C41" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoDATA\CMA_Project\New_Project_CMA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A0F77-2770-4A90-9029-93AB1062BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,8 @@
     <sheet name="flow notes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="971">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -3778,12 +3784,293 @@
 Email API endpoint URL.
 Database connection details for Message Components Database.</t>
   </si>
+  <si>
+    <t>The Email Doc Gen service is up and running.
+The message components DB is accessible.</t>
+  </si>
+  <si>
+    <t>Trigger an event that would normally cause Email Doc Gen to generate an email. This could involve simulating an email notification or using a tool to interact with the Event Queue Layer.
+Verify that a new message record is created in the message components DB. You can do this by querying the DB directly or using a database management tool.
+Validate the message content in the DB to ensure it matches the expected content of the email that should have been generated. This may involve checking fields such as recipient email address, subject line, and body content.</t>
+  </si>
+  <si>
+    <t>A new message record is created in the message components DB.
+The message content in the DB matches the expected content of the email that should have been generated.</t>
+  </si>
+  <si>
+    <t>Pass: The test case passes if a new message record is created in the message components DB with the expected content.
+Fail: The test case fails if no new message record is created in the message components DB, or if the message content does not match the expected content.</t>
+  </si>
+  <si>
+    <t>The Email Password Protect functionality is enabled.
+The message components DB is accessible.</t>
+  </si>
+  <si>
+    <t>Send an email that requires password protection. This might involve using a specific feature within the system or manually adding a password protection flag.
+Verify that a new message record is created in the message components DB. You can do this by querying the DB directly or using a database management tool.
+Validate the message content in the DB to ensure it includes a password field or reference to password protection.</t>
+  </si>
+  <si>
+    <t>A new message record is created in the message components DB.
+The message content includes a password field or a flag indicating password protection is applied.</t>
+  </si>
+  <si>
+    <t>Pass: The test case passes if a new message record is created in the message components DB with a password field or reference to password protection.
+Fail: The test case fails if no new message record is created in the message components DB, or if there's no indication of password protection within the message content.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator service is up and running.
+The message components DB is accessible.</t>
+  </si>
+  <si>
+    <t>Trigger an event that would normally cause the Email Orchestrator to send an email. This could involve simulating an email notification or using a tool to interact with the Email Orchestrator service.
+Verify that a new message record is created in the message components DB. You can do this by querying the DB directly or using a database management tool.
+Validate the message content in the DB to ensure it matches the expected content of the email that should have been orchestrated. This may involve checking fields such as recipient email address, subject line, and body content.</t>
+  </si>
+  <si>
+    <t>A new message record is created in the message components DB.
+The message content in the DB matches the expected content of the email that should have been orchestrated.</t>
+  </si>
+  <si>
+    <t>The Email DocGen service is up and running.
+The message components DB is accessible.</t>
+  </si>
+  <si>
+    <t>Trigger an event that would normally cause Email DocGen to generate an email document. This could involve:
+Simulating an action that triggers a notification email (e.g., user registration).
+Using a testing tool to interact with the system and initiate the document generation process.
+Verify that a new message record is created in the message components DB. You can achieve this by:
+Querying the DB directly using a SQL query tool.
+Using a database management tool to view recently added records.
+Validate the message content in the DB to ensure it matches the expected email content. This may involve checking fields such as:
+Recipient email address (if applicable).
+Subject line.
+Body content containing the generated document information.
+Any additional fields specific to DocGen messages (e.g., document type, template used).</t>
+  </si>
+  <si>
+    <t>Pass: The test case passes if:
+A new message record exists in the message components DB.
+The message content matches the expected DocGen email content.
+Fail: The test case fails if:
+No new message record is created in the DB.
+The message content does not match the expected DocGen email content.</t>
+  </si>
+  <si>
+    <t>A new message record is created in the message components DB.
+The message content matches the expected content of the email that should have been generated by Email DocGen.You can delete the test message record from the DB after the test is complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on your Email DocGen implementation, you might need to prepare specific data to trigger the document generation </t>
+  </si>
+  <si>
+    <t>The Email functionality with password protection is enabled.
+The message components DB is accessible.</t>
+  </si>
+  <si>
+    <t>Send an email requiring password protection. This might involve:
+Using a dedicated "password protect" feature within the system.
+Manually adding a password protection flag during email creation (if supported).
+Verify that a new message record is created in the message components DB. You can achieve this by:
+Querying the DB directly with a SQL query targeting recently added records.
+Using a database management tool to view new entries.
+Validate the message content in the DB to ensure it includes password information. This may involve checking for:
+A dedicated field storing the password itself (caution: avoid storing actual passwords in test data).
+A flag indicating password protection is applied.
+An encrypted representation of the password (depending on the implementation)</t>
+  </si>
+  <si>
+    <t>A new message record is created in the message components DB.
+The message content includes a field or reference indicating password protection is applied.</t>
+  </si>
+  <si>
+    <t>Pass: The test case passes if:
+A new message record exists in the message components DB.
+The message content includes a field or reference indicating password protection.You can delete the test message record from the DB after the test is complete.
+Fail: The test case fails if:
+No new message record is created in the DB.
+There's no indication of password protection within the message content.</t>
+  </si>
+  <si>
+    <t>An email with password protection enabled</t>
+  </si>
+  <si>
+    <t>The primary message processing system is unavailable (simulated or actual failover).
+The Failover Topic exists and is configured correctly.
+The Inegestion Queue for the Email Topic exists and is accessible.</t>
+  </si>
+  <si>
+    <t>Simulate a failover event:
+Stop the primary message processing system (if a simulated failover).
+Alternatively, induce a failover event using your system's specific failover mechanism.
+Trigger an event that would normally be processed by the primary system and generate a message.
+Verify message presence in the Failover Topic:
+Use a message broker monitoring tool to confirm the message arrived in the Failover Topic.
+Alternatively, query the Failover Topic directly using a dedicated client (if supported).
+Simulate failover recovery (optional):
+Restart the primary message processing system (if a simulated failover).
+Allow the system to recover from the failover event naturally.
+Verify message presence in the Inegestion Queue for the Email Topic:
+Use a queue monitoring tool to confirm the message was routed to the Inegestion Queue.
+Alternatively, query the Inegestion Queue directly using a dedicated client (if supported).</t>
+  </si>
+  <si>
+    <t>The message is published to the Failover Topic during the failover event.
+After failover recovery (or simulated recovery), the message is present in the Inegestion Queue for the Email Topic.</t>
+  </si>
+  <si>
+    <t>Pass: The test case passes if:
+The message is published to the Failover Topic during the failover event.
+The message is present in the Inegestion Queue for the Email Topic after failover recovery.
+Fail: The test case fails if:
+The message is not published to the Failover Topic.
+The message is not present in the Inegestion Queue for the Email Topic after failover recovery.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator system should be up and running.
+Ingestion Queue is operational and able to receive messages.
+Necessary API endpoints are accessible.</t>
+  </si>
+  <si>
+    <t>Prepare an email message that exceeds the maximum size limit supported by the Email Orchestrator.
+Use the test data provided above and ensure the body text is large enough to trigger the breaking functionality.
+Send the prepared email message to the Ingestion Queue.
+Use a tool or script to push the email message into the Ingestion Queue.
+Monitor the Ingestion Queue to ensure the message is received.
+Verify the email message appears in the Ingestion Queue.
+Verify the Email Orchestrator picks up the email message from the Ingestion Queue.
+Check the processing logs of the Email Orchestrator.
+Verify that the Email Orchestrator breaks the email message into multiple parts.
+Ensure each part is within the maximum size limit and properly formatted.
+Confirm that all broken parts are queued in the Adapter Queue.
+Check the Adapter Queue to see if all parts of the original message are present.
+Verify each part is sent through the appropriate channels (e.g., SMTP, SendGrid).
+Check the logs or monitoring tools to ensure each part is processed and sent correctly.
+Validate the complete email is received by the recipient.
+Send the broken parts to a test email account and verify the email can be reassembled correctly.</t>
+  </si>
+  <si>
+    <t>The email message should be broken into multiple parts if it exceeds the maximum size limit.
+Each part should be correctly formatted and within the size limit.
+All parts should be queued in the Adapter Queue and processed by the appropriate channels.
+The recipient should receive the email, and it should be reassembled correctly, maintaining the original content.</t>
+  </si>
+  <si>
+    <t>The system should clear the test email from the queues.
+Logs should be reviewed and maintained for future reference.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator system should be up and running.
+Ingestion Queue is operational and able to receive messages.
+Necessary API endpoints are accessible.
+SMTP adapters configured and operational.</t>
+  </si>
+  <si>
+    <t>1 Prepare a standard email message.
+Use the test data provided above.
+2 Send the prepared email message to the Ingestion Queue.
+Use a tool or script to push the email message into the Ingestion Queue.
+3 Monitor the Ingestion Queue to ensure the message is received.
+Verify the email message appears in the Ingestion Queue.
+4 Verify the Email Orchestrator picks up the email message from the Ingestion Queue.
+Check the processing logs of the Email Orchestrator.
+5 Verify the Email Orchestrator processes the email through the Email Completion module.
+Ensure the email goes through the necessary steps of the Email Completion process.
+6 Check if the email is placed in the Adapter Queue after completion.
+Ensure the processed email appears in the Adapter Queue.
+7 Confirm that the email in the Adapter Queue is directed to the SMTP adapters.
+Check the Adapter Queue to see if the email is being routed to the SMTP adapters.
+8 Verify that the email is sent through the SMTP adapters.
+Use logs or monitoring tools to confirm the email is handed over to the SMTP adapters.
+9 Validate the email is successfully received by the recipient.
+Send the email to a test email account and verify its receipt.</t>
+  </si>
+  <si>
+    <t>The email message should be processed through the Email Completion module without errors.
+The completed email should be queued in the Adapter Queue.
+The email should be correctly routed to the SMTP adapters from the Adapter Queue.
+The recipient should receive the email successfully through the SMTP channel.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator system should be up and running.
+Ingestion Queue is operational and able to receive messages.
+Necessary API endpoints are accessible.
+SendGrid adapters configured and operational.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Prepare a standard email message.
+Use the test data provided above.
+ 2 Send the prepared email message to the Ingestion Queue.
+Use a tool or script to push the email message into the Ingestion Queue.
+ 3 Monitor the Ingestion Queue to ensure the message is received.
+Verify the email message appears in the Ingestion Queue.
+ 4 Verify the Email Orchestrator picks up the email message from the Ingestion Queue.
+Check the processing logs of the Email Orchestrator.
+ 5 Verify the Email Orchestrator processes the email through the Email Completion module.
+Ensure the email goes through the necessary s of the Email Completion process.
+ 6 Check if the email is placed in the Adapter Queue after completion.
+Ensure the processed email appears in the Adapter Queue.
+ 7 Confirm that the email in the Adapter Queue is directed to the SendGrid adapters.
+Check the Adapter Queue to see if the email is being routed to the SendGrid adapters.
+ 8 Verify that the email is sent through the SendGrid adapters.
+Use logs or monitoring tools to confirm the email is handed over to the SendGrid adapters.
+ 9 Validate the email is successfully received by the recipient.
+Send the email to a test email account and verify its receipt.</t>
+  </si>
+  <si>
+    <t>The email message should be processed through the Email Completion module without errors.
+The completed email should be queued in the Adapter Queue.
+The email should be correctly routed to the SendGrid adapters from the Adapter Queue.The recipient should receive the email successfully through the SendGrid channel.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator system should be up and running.
+Ingestion Queue is operational and able to receive messages.
+Email Completion module is operational.
+SendGrid adapters configured and operational.
+Necessary API endpoints are accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Prepare a standard email message.
+Use the test data provided above.
+ 2 Send the prepared email message to the Ingestion Queue.
+Use a tool or script to push the email message into the Ingestion Queue.
+ 3 Monitor the Ingestion Queue to ensure the message is received.
+Verify the email message appears in the Ingestion Queue.
+ 4 Verify the Email Orchestrator picks up the email message from the Ingestion Queue.
+Check the processing logs of the Email Orchestrator.
+ 5 Verify the Email Orchestrator processes the email through the Email Completion module.
+Ensure the email goes through the necessary s of the Email Completion process.
+ 6 Check if the email is placed in the Adapter Queue after completion.
+Ensure the processed email appears in the Adapter Queue.
+ 7 Confirm that the email in the Adapter Queue is directed to the SendGrid adapters.
+Check the Adapter Queue to see if the email is being routed to the SendGrid adapters.
+ 8 Verify that the SendGrid adapters pick up the email from the Adapter Queue.
+Use logs or monitoring tools to confirm the email is handed over to the SendGrid adapters.
+ 9 Validate the email is successfully sent by the SendGrid adapters.
+Check the SendGrid adapter logs or dashboard to ensure the email is processed and sent.
+ 10 Validate the email is successfully received by the recipient.
+Send the email to a test email account and verify its receipt.</t>
+  </si>
+  <si>
+    <t>The email message should be processed through the Email Completion module without errors.
+The completed email should be queued in the Adapter Queue.
+The email should be correctly routed to the SendGrid adapters from the Adapter Queue.
+The SendGrid adapters should pick up the email and process it.
+The recipient should receive the email successfully through the SendGrid channel.</t>
+  </si>
+  <si>
+    <t>The Email Orchestrator system should be up and running.
+Ingestion Queue is operational and able to receive messages.
+Failover Engine is operational.
+Necessary API endpoints are accessible.
+Failover mechanisms configured.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4331,14 +4618,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -4347,22 +4634,22 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4378,7 +4665,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4412,7 +4699,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="225">
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4446,7 +4733,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="195">
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4478,7 +4765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="240">
+    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4510,7 +4797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="270">
+    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4542,7 +4829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="255">
+    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4574,7 +4861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225">
+    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -4606,7 +4893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="255">
+    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4638,7 +4925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="240">
+    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -4670,7 +4957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="405">
+    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -4702,7 +4989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="285">
+    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -4734,7 +5021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="285">
+    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -4776,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
@@ -4785,17 +5072,17 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="7"/>
-    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.28515625" style="7"/>
-    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.28515625" style="7"/>
+    <col min="1" max="1" width="40.33203125" style="7"/>
+    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.33203125" style="7"/>
+    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>120</v>
       </c>
@@ -4811,7 +5098,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4843,7 +5130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.45" customHeight="1">
+    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -4875,7 +5162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="315">
+    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -4904,7 +5191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="270">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4936,7 +5223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="225">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4968,7 +5255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="240">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -5000,7 +5287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="210">
+    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -5029,7 +5316,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="210">
+    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>149</v>
       </c>
@@ -5058,7 +5345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="285">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -5090,7 +5377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="315">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -5132,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5140,14 +5427,14 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="34.85546875" style="9"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.85546875" style="9"/>
+    <col min="1" max="5" width="34.88671875" style="9"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>159</v>
       </c>
@@ -5161,7 +5448,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5193,7 +5480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
@@ -5217,7 +5504,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="90">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
@@ -5241,7 +5528,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="105">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -5265,7 +5552,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="90">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -5289,7 +5576,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="90">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -5313,7 +5600,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="75">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -5337,7 +5624,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="120">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -5361,7 +5648,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="105">
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -5385,7 +5672,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="105">
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>197</v>
       </c>
@@ -5409,7 +5696,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="105">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -5433,7 +5720,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="105">
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -5457,7 +5744,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
@@ -5481,7 +5768,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="60">
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>179</v>
       </c>
@@ -5505,7 +5792,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="60">
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>217</v>
       </c>
@@ -5529,7 +5816,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="60">
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>221</v>
       </c>
@@ -5553,7 +5840,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="75">
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>226</v>
       </c>
@@ -5577,7 +5864,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -5601,7 +5888,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>235</v>
       </c>
@@ -5625,7 +5912,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="75">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
@@ -5649,7 +5936,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>243</v>
       </c>
@@ -5673,7 +5960,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="75">
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
@@ -5697,7 +5984,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="75">
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
@@ -5721,7 +6008,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="90">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
@@ -5745,7 +6032,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="105">
+    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>261</v>
       </c>
@@ -5769,7 +6056,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="105">
+    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>265</v>
       </c>
@@ -5793,7 +6080,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="60">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
@@ -5817,7 +6104,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="90">
+    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -5841,7 +6128,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="90">
+    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>281</v>
       </c>
@@ -5865,7 +6152,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="75">
+    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -5889,7 +6176,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="75">
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
@@ -5913,7 +6200,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="60">
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>295</v>
       </c>
@@ -5937,7 +6224,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="75">
+    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>299</v>
       </c>
@@ -5961,7 +6248,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>303</v>
       </c>
@@ -5985,7 +6272,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="60">
+    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>307</v>
       </c>
@@ -6009,7 +6296,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="75">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>311</v>
       </c>
@@ -6033,7 +6320,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="75">
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>316</v>
       </c>
@@ -6057,7 +6344,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.5">
+    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -6089,7 +6376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="90">
+    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>322</v>
       </c>
@@ -6113,7 +6400,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="90">
+    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>327</v>
       </c>
@@ -6137,7 +6424,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="120">
+    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>331</v>
       </c>
@@ -6161,7 +6448,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="90">
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>335</v>
       </c>
@@ -6185,7 +6472,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="90">
+    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>340</v>
       </c>
@@ -6209,7 +6496,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="105">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>345</v>
       </c>
@@ -6233,7 +6520,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="105">
+    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>350</v>
       </c>
@@ -6257,7 +6544,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="90">
+    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>355</v>
       </c>
@@ -6281,7 +6568,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="105">
+    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -6305,7 +6592,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="90">
+    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>364</v>
       </c>
@@ -6329,7 +6616,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="120">
+    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -6353,7 +6640,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="105">
+    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>373</v>
       </c>
@@ -6377,7 +6664,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="105">
+    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>377</v>
       </c>
@@ -6401,7 +6688,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.5">
+    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -6442,7 +6729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6450,16 +6737,16 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="9"/>
-    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.140625" style="9"/>
-    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.140625" style="9"/>
+    <col min="1" max="1" width="46.109375" style="9"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.109375" style="9"/>
+    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>383</v>
       </c>
@@ -6473,7 +6760,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="135">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>384</v>
       </c>
@@ -6531,7 +6818,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="345">
+    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>392</v>
       </c>
@@ -6558,7 +6845,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="120">
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
@@ -6584,7 +6871,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105">
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>408</v>
       </c>
@@ -6610,7 +6897,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>416</v>
       </c>
@@ -6636,7 +6923,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="135">
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>424</v>
       </c>
@@ -6665,7 +6952,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120">
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>433</v>
       </c>
@@ -6691,7 +6978,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="150">
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>441</v>
       </c>
@@ -6717,7 +7004,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="150">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>449</v>
       </c>
@@ -6743,7 +7030,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="180">
+    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>457</v>
       </c>
@@ -6769,7 +7056,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="150">
+    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>465</v>
       </c>
@@ -6795,7 +7082,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="135">
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>473</v>
       </c>
@@ -6821,7 +7108,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="180">
+    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>480</v>
       </c>
@@ -6856,7 +7143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6864,9 +7151,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>488</v>
       </c>
@@ -6880,7 +7167,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6912,7 +7199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="150">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
@@ -6944,7 +7231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="285">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -6974,7 +7261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="195">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -7006,7 +7293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.5">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>494</v>
       </c>
@@ -7036,7 +7323,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="75">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>502</v>
       </c>
@@ -7064,7 +7351,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" ht="105">
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>512</v>
       </c>
@@ -7094,7 +7381,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="180">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>520</v>
       </c>
@@ -7124,7 +7411,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="330">
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>528</v>
       </c>
@@ -7154,7 +7441,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" ht="105">
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>538</v>
       </c>
@@ -7184,7 +7471,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="150">
+    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>546</v>
       </c>
@@ -7214,7 +7501,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="105">
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>556</v>
       </c>
@@ -7242,7 +7529,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="409.5">
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>562</v>
       </c>
@@ -7270,7 +7557,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5">
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>569</v>
       </c>
@@ -7296,7 +7583,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5">
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>578</v>
       </c>
@@ -7322,7 +7609,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5">
+    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>584</v>
       </c>
@@ -7359,7 +7646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7367,9 +7654,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>590</v>
       </c>
@@ -7383,7 +7670,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7415,7 +7702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="60">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>618</v>
       </c>
@@ -7439,7 +7726,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="60">
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>617</v>
       </c>
@@ -7463,7 +7750,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>616</v>
       </c>
@@ -7487,7 +7774,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>615</v>
       </c>
@@ -7511,7 +7798,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>619</v>
       </c>
@@ -7535,7 +7822,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>624</v>
       </c>
@@ -7559,7 +7846,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>629</v>
       </c>
@@ -7583,7 +7870,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="120">
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>634</v>
       </c>
@@ -7607,7 +7894,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="75">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>639</v>
       </c>
@@ -7631,7 +7918,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="90">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>644</v>
       </c>
@@ -7655,7 +7942,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>652</v>
       </c>
@@ -7679,7 +7966,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>660</v>
       </c>
@@ -7703,7 +7990,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="45">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>665</v>
       </c>
@@ -7727,7 +8014,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="120">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>670</v>
       </c>
@@ -7751,7 +8038,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="105">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>675</v>
       </c>
@@ -7775,7 +8062,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1">
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="27"/>
       <c r="C18" s="24"/>
@@ -7787,7 +8074,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1">
+    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
@@ -7799,7 +8086,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1">
+    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -7811,7 +8098,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7833,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7842,19 +8129,19 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>677</v>
       </c>
@@ -7868,7 +8155,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7900,7 +8187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>678</v>
       </c>
@@ -7924,7 +8211,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>684</v>
       </c>
@@ -7948,7 +8235,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>695</v>
       </c>
@@ -7972,7 +8259,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="60">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>699</v>
       </c>
@@ -7996,7 +8283,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="60">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>705</v>
       </c>
@@ -8020,7 +8307,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="60" hidden="1">
+    <row r="8" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>709</v>
       </c>
@@ -8044,7 +8331,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="60" hidden="1">
+    <row r="9" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>713</v>
       </c>
@@ -8068,7 +8355,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="60">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>721</v>
       </c>
@@ -8092,7 +8379,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>725</v>
       </c>
@@ -8116,7 +8403,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>616</v>
       </c>
@@ -8140,7 +8427,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="45" hidden="1">
+    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>735</v>
       </c>
@@ -8164,7 +8451,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="45" hidden="1">
+    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>748</v>
       </c>
@@ -8188,7 +8475,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="45" hidden="1">
+    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>752</v>
       </c>
@@ -8212,7 +8499,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="45" hidden="1">
+    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>756</v>
       </c>
@@ -8234,7 +8521,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="60" hidden="1">
+    <row r="17" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>761</v>
       </c>
@@ -8258,7 +8545,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="45">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>765</v>
       </c>
@@ -8282,7 +8569,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="60">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>770</v>
       </c>
@@ -8306,7 +8593,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="75" hidden="1">
+    <row r="20" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>775</v>
       </c>
@@ -8330,7 +8617,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="60">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>778</v>
       </c>
@@ -8354,7 +8641,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="60">
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>782</v>
       </c>
@@ -8378,7 +8665,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="60">
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>789</v>
       </c>
@@ -8402,7 +8689,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="90">
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>797</v>
       </c>
@@ -8426,7 +8713,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="90">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>802</v>
       </c>
@@ -8450,7 +8737,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="30">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>806</v>
       </c>
@@ -8474,7 +8761,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="60">
+    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>811</v>
       </c>
@@ -8498,7 +8785,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="45">
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>819</v>
       </c>
@@ -8522,7 +8809,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="45">
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>824</v>
       </c>
@@ -8546,7 +8833,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="60">
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>829</v>
       </c>
@@ -8570,7 +8857,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="45">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>836</v>
       </c>
@@ -8594,7 +8881,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="45">
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>841</v>
       </c>
@@ -8627,17 +8914,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8666,7 +8958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>873</v>
       </c>
@@ -8679,7 +8971,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="210">
+    <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>846</v>
       </c>
@@ -8706,7 +8998,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="390">
+    <row r="4" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>847</v>
       </c>
@@ -8731,7 +9023,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="409.5">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>887</v>
       </c>
@@ -8758,7 +9050,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.5">
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>888</v>
       </c>
@@ -8783,7 +9075,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="409.5">
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>894</v>
       </c>
@@ -8808,7 +9100,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="409.5">
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>849</v>
       </c>
@@ -8833,7 +9125,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="409.5">
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>851</v>
       </c>
@@ -8858,157 +9150,241 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="45">
+    <row r="10" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>853</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>933</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>935</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>854</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>937</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>939</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>868</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>941</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>935</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>869</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>944</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>947</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="45">
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>870</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>949</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>952</v>
+      </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="60">
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>893</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>954</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>956</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>855</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>958</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>856</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="45">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>858</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>968</v>
+      </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>860</v>
       </c>
@@ -9023,14 +9399,16 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>892</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>970</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -9038,7 +9416,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="60">
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>871</v>
       </c>
@@ -9053,7 +9431,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>872</v>
       </c>
@@ -9068,7 +9446,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="150">
+    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>863</v>
       </c>
@@ -9083,7 +9461,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="150">
+    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>862</v>
       </c>
@@ -9098,7 +9476,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>864</v>
       </c>
@@ -9113,7 +9491,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="60">
+    <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>866</v>
       </c>
@@ -9128,7 +9506,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>891</v>
       </c>
@@ -9143,7 +9521,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="45">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>867</v>
       </c>
@@ -9158,7 +9536,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9169,7 +9547,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="45">
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>874</v>
       </c>
@@ -9182,7 +9560,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="60">
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>875</v>
       </c>
@@ -9197,7 +9575,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="60">
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>877</v>
       </c>
@@ -9212,7 +9590,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="60">
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>878</v>
       </c>
@@ -9227,7 +9605,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>879</v>
       </c>
@@ -9240,7 +9618,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>880</v>
       </c>
@@ -9255,7 +9633,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="45">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>882</v>
       </c>
@@ -9270,7 +9648,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="60">
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>883</v>
       </c>
@@ -9285,7 +9663,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="90">
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>884</v>
       </c>
@@ -9300,7 +9678,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" ht="90">
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>885</v>
       </c>
@@ -9315,7 +9693,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>890</v>
       </c>
@@ -9330,7 +9708,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -9341,7 +9719,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>

--- a/surendra_testCases.xlsx
+++ b/surendra_testCases.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoDATA\CMA_Project\New_Project_CMA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A0F77-2770-4A90-9029-93AB1062BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -23,8 +17,8 @@
     <sheet name="flow notes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="976">
   <si>
     <t>Email with only a subject and a Body Rendered in DocFusion</t>
   </si>
@@ -4059,18 +4053,43 @@
 The recipient should receive the email successfully through the SendGrid channel.</t>
   </si>
   <si>
-    <t>The Email Orchestrator system should be up and running.
-Ingestion Queue is operational and able to receive messages.
-Failover Engine is operational.
-Necessary API endpoints are accessible.
-Failover mechanisms configured.</t>
+    <t>Ensure you have an email account that can be used to send test emails.
+Identify the API endpoint that is used to trigger the Email completion event.
+Configure an SMTP adapter to listen for email messages from the specified email address.</t>
+  </si>
+  <si>
+    <t>Send an email to the email address that is being monitored by the SMTP adapter.
+Use the API to trigger the Email completion event.
+Verify that the SMTP adapter receives the email message. You can check the logs of the SMTP adapter for confirmation.
+Reply to the test email.
+Trigger the Email completion event again using the API.
+Verify that the SMTP adapter does not receive the same email message again. This is to ensure that the adapter is only processing new emails.</t>
+  </si>
+  <si>
+    <t>The SMTP adapter should receive the email message after the Email completion event is triggered.
+The SMTP adapter should not receive the same email message again if the Email completion event is triggered subsequently.</t>
+  </si>
+  <si>
+    <t>Simulate a failover scenario. This could involve stopping a service, disconnecting a network connection, or introducing some other type of failure.
+Trigger the API endpoint or process that is known to cause failover.
+Monitor the Failover topic for messages. You should see a message published to the topic after the failover event occurs.
+Verify that the Failover Engine receives the message from the Failover topic. You can use your chosen monitoring mechanism to confirm that the message is delivered to the engine.</t>
+  </si>
+  <si>
+    <t>Identify the API endpoint or process that triggers a failover event.
+Identify the Failover topic that receives messages when a failover occurs.
+Identify a mechanism to monitor the Failover Engine for incoming messages (e.g., logs, queue viewer).</t>
+  </si>
+  <si>
+    <t>The Failover topic should receive a message after the failover event is triggered.
+The Failover Engine should receive the message from the Failover topic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4618,14 +4637,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
@@ -4634,22 +4653,22 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4665,7 +4684,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4699,7 +4718,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="225">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4733,7 +4752,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="195">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4765,7 +4784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="240">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4797,7 +4816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="270">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4829,7 +4848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="255">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4861,7 +4880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="225">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -4893,7 +4912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="255">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4925,7 +4944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="240">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -4957,7 +4976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="405">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="285">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -5021,7 +5040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="285">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -5063,7 +5082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
@@ -5072,17 +5091,17 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="7"/>
-    <col min="2" max="2" width="16.88671875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="40.33203125" style="7"/>
-    <col min="8" max="8" width="40.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="40.33203125" style="7"/>
+    <col min="1" max="1" width="40.28515625" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="7" width="40.28515625" style="7"/>
+    <col min="8" max="8" width="40.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="40.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>120</v>
       </c>
@@ -5098,7 +5117,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5130,7 +5149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="179.45" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
@@ -5162,7 +5181,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="288.60000000000002" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="315">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -5191,7 +5210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="270">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -5223,7 +5242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="225">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -5255,7 +5274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="240">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -5287,7 +5306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="202.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="210">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -5316,7 +5335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="210">
       <c r="A9" s="7" t="s">
         <v>149</v>
       </c>
@@ -5345,7 +5364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="285">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -5377,7 +5396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="315">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -5419,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5427,14 +5446,14 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="34.88671875" style="9"/>
-    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="34.88671875" style="9"/>
+    <col min="1" max="5" width="34.85546875" style="9"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="34.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>159</v>
       </c>
@@ -5448,7 +5467,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5480,7 +5499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="105">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
@@ -5504,7 +5523,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="90">
       <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
@@ -5528,7 +5547,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="105">
       <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
@@ -5552,7 +5571,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="90">
       <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
@@ -5576,7 +5595,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="90">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -5600,7 +5619,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="75">
       <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
@@ -5624,7 +5643,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -5648,7 +5667,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="105">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -5672,7 +5691,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="105">
       <c r="A11" s="10" t="s">
         <v>197</v>
       </c>
@@ -5696,7 +5715,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="105">
       <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
@@ -5720,7 +5739,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="10" t="s">
         <v>205</v>
       </c>
@@ -5744,7 +5763,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="60">
       <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
@@ -5768,7 +5787,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="10" t="s">
         <v>179</v>
       </c>
@@ -5792,7 +5811,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="10" t="s">
         <v>217</v>
       </c>
@@ -5816,7 +5835,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60">
       <c r="A17" s="10" t="s">
         <v>221</v>
       </c>
@@ -5840,7 +5859,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="75">
       <c r="A18" s="10" t="s">
         <v>226</v>
       </c>
@@ -5864,7 +5883,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="75">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -5888,7 +5907,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75">
       <c r="A20" s="10" t="s">
         <v>235</v>
       </c>
@@ -5912,7 +5931,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="75">
       <c r="A21" s="10" t="s">
         <v>239</v>
       </c>
@@ -5936,7 +5955,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="75">
       <c r="A22" s="10" t="s">
         <v>243</v>
       </c>
@@ -5960,7 +5979,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="75">
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
@@ -5984,7 +6003,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="75">
       <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
@@ -6008,7 +6027,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="10" t="s">
         <v>256</v>
       </c>
@@ -6032,7 +6051,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="105">
       <c r="A26" s="10" t="s">
         <v>261</v>
       </c>
@@ -6056,7 +6075,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="105">
       <c r="A27" s="10" t="s">
         <v>265</v>
       </c>
@@ -6080,7 +6099,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60">
       <c r="A28" s="10" t="s">
         <v>271</v>
       </c>
@@ -6104,7 +6123,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="90">
       <c r="A29" s="10" t="s">
         <v>276</v>
       </c>
@@ -6128,7 +6147,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="90">
       <c r="A30" s="10" t="s">
         <v>281</v>
       </c>
@@ -6152,7 +6171,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="75">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -6176,7 +6195,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="75">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
@@ -6200,7 +6219,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="60">
       <c r="A33" s="10" t="s">
         <v>295</v>
       </c>
@@ -6224,7 +6243,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="75">
       <c r="A34" s="10" t="s">
         <v>299</v>
       </c>
@@ -6248,7 +6267,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="60">
       <c r="A35" s="10" t="s">
         <v>303</v>
       </c>
@@ -6272,7 +6291,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="60">
       <c r="A36" s="10" t="s">
         <v>307</v>
       </c>
@@ -6296,7 +6315,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="75">
       <c r="A37" s="10" t="s">
         <v>311</v>
       </c>
@@ -6320,7 +6339,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="75">
       <c r="A38" s="10" t="s">
         <v>316</v>
       </c>
@@ -6344,7 +6363,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="409.5">
       <c r="A39" s="11" t="s">
         <v>80</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="90">
       <c r="A40" s="10" t="s">
         <v>322</v>
       </c>
@@ -6400,7 +6419,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="90">
       <c r="A41" s="10" t="s">
         <v>327</v>
       </c>
@@ -6424,7 +6443,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="120">
       <c r="A42" s="10" t="s">
         <v>331</v>
       </c>
@@ -6448,7 +6467,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="90">
       <c r="A43" s="10" t="s">
         <v>335</v>
       </c>
@@ -6472,7 +6491,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="90">
       <c r="A44" s="10" t="s">
         <v>340</v>
       </c>
@@ -6496,7 +6515,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="105">
       <c r="A45" s="10" t="s">
         <v>345</v>
       </c>
@@ -6520,7 +6539,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="105">
       <c r="A46" s="10" t="s">
         <v>350</v>
       </c>
@@ -6544,7 +6563,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="90">
       <c r="A47" s="10" t="s">
         <v>355</v>
       </c>
@@ -6568,7 +6587,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="105">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -6592,7 +6611,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="90">
       <c r="A49" s="10" t="s">
         <v>364</v>
       </c>
@@ -6616,7 +6635,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="120">
       <c r="A50" s="10" t="s">
         <v>369</v>
       </c>
@@ -6640,7 +6659,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="105">
       <c r="A51" s="10" t="s">
         <v>373</v>
       </c>
@@ -6664,7 +6683,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="105">
       <c r="A52" s="10" t="s">
         <v>377</v>
       </c>
@@ -6688,7 +6707,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="409.5">
       <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
@@ -6729,7 +6748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6737,16 +6756,16 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="9"/>
-    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="46.109375" style="9"/>
-    <col min="10" max="10" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="46.109375" style="9"/>
+    <col min="1" max="1" width="46.140625" style="9"/>
+    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="46.140625" style="9"/>
+    <col min="10" max="10" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="46.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="31" t="s">
         <v>383</v>
       </c>
@@ -6760,7 +6779,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6792,7 +6811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="135">
       <c r="A3" s="10" t="s">
         <v>384</v>
       </c>
@@ -6818,7 +6837,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="345">
       <c r="A4" s="10" t="s">
         <v>392</v>
       </c>
@@ -6845,7 +6864,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="120">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
@@ -6871,7 +6890,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="105">
       <c r="A6" s="10" t="s">
         <v>408</v>
       </c>
@@ -6897,7 +6916,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="120">
       <c r="A7" s="10" t="s">
         <v>416</v>
       </c>
@@ -6923,7 +6942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="135">
       <c r="A8" s="10" t="s">
         <v>424</v>
       </c>
@@ -6952,7 +6971,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="120">
       <c r="A9" s="10" t="s">
         <v>433</v>
       </c>
@@ -6978,7 +6997,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="150">
       <c r="A10" s="10" t="s">
         <v>441</v>
       </c>
@@ -7004,7 +7023,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="150">
       <c r="A11" s="10" t="s">
         <v>449</v>
       </c>
@@ -7030,7 +7049,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="180">
       <c r="A12" s="10" t="s">
         <v>457</v>
       </c>
@@ -7056,7 +7075,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="150">
       <c r="A13" s="10" t="s">
         <v>465</v>
       </c>
@@ -7082,7 +7101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="135">
       <c r="A14" s="10" t="s">
         <v>473</v>
       </c>
@@ -7108,7 +7127,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="180">
       <c r="A15" s="10" t="s">
         <v>480</v>
       </c>
@@ -7143,7 +7162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7151,9 +7170,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="31" t="s">
         <v>488</v>
       </c>
@@ -7167,7 +7186,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7199,7 +7218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="150">
       <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
@@ -7231,7 +7250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="245.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="285">
       <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
@@ -7261,7 +7280,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="195">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -7293,7 +7312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="409.5">
       <c r="A6" s="23" t="s">
         <v>494</v>
       </c>
@@ -7323,7 +7342,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="75">
       <c r="A7" s="23" t="s">
         <v>502</v>
       </c>
@@ -7351,7 +7370,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A8" s="21" t="s">
         <v>512</v>
       </c>
@@ -7381,7 +7400,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="180">
       <c r="A9" s="21" t="s">
         <v>520</v>
       </c>
@@ -7411,7 +7430,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="22" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="22" customFormat="1" ht="330">
       <c r="A10" s="21" t="s">
         <v>528</v>
       </c>
@@ -7441,7 +7460,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="22" customFormat="1" ht="105">
       <c r="A11" s="21" t="s">
         <v>538</v>
       </c>
@@ -7471,7 +7490,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="150">
       <c r="A12" s="23" t="s">
         <v>546</v>
       </c>
@@ -7501,7 +7520,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105">
       <c r="A13" s="21" t="s">
         <v>556</v>
       </c>
@@ -7529,7 +7548,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="409.5">
       <c r="A14" s="21" t="s">
         <v>562</v>
       </c>
@@ -7557,7 +7576,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="409.5">
       <c r="A15" s="21" t="s">
         <v>569</v>
       </c>
@@ -7583,7 +7602,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="409.5">
       <c r="A16" s="21" t="s">
         <v>578</v>
       </c>
@@ -7609,7 +7628,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="21" t="s">
         <v>584</v>
       </c>
@@ -7646,7 +7665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7654,9 +7673,9 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="31" t="s">
         <v>590</v>
       </c>
@@ -7670,7 +7689,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="60">
       <c r="A3" s="26" t="s">
         <v>618</v>
       </c>
@@ -7726,7 +7745,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="60">
       <c r="A4" s="26" t="s">
         <v>617</v>
       </c>
@@ -7750,7 +7769,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A5" s="26" t="s">
         <v>616</v>
       </c>
@@ -7774,7 +7793,7 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A6" s="26" t="s">
         <v>615</v>
       </c>
@@ -7798,7 +7817,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A7" s="26" t="s">
         <v>619</v>
       </c>
@@ -7822,7 +7841,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A8" s="26" t="s">
         <v>624</v>
       </c>
@@ -7846,7 +7865,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A9" s="26" t="s">
         <v>629</v>
       </c>
@@ -7870,7 +7889,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="120">
       <c r="A10" s="26" t="s">
         <v>634</v>
       </c>
@@ -7894,7 +7913,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="75">
       <c r="A11" s="26" t="s">
         <v>639</v>
       </c>
@@ -7918,7 +7937,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="90">
       <c r="A12" s="26" t="s">
         <v>644</v>
       </c>
@@ -7942,7 +7961,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A13" s="26" t="s">
         <v>652</v>
       </c>
@@ -7966,7 +7985,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A14" s="26" t="s">
         <v>660</v>
       </c>
@@ -7990,7 +8009,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="45">
       <c r="A15" s="26" t="s">
         <v>665</v>
       </c>
@@ -8014,7 +8033,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="120">
       <c r="A16" s="26" t="s">
         <v>670</v>
       </c>
@@ -8038,7 +8057,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="105">
       <c r="A17" s="26" t="s">
         <v>675</v>
       </c>
@@ -8062,7 +8081,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="25" customFormat="1">
       <c r="A18" s="24"/>
       <c r="B18" s="27"/>
       <c r="C18" s="24"/>
@@ -8074,7 +8093,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="25" customFormat="1">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
@@ -8086,7 +8105,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="25" customFormat="1">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -8098,7 +8117,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8120,7 +8139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8129,19 +8148,19 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="31" t="s">
         <v>677</v>
       </c>
@@ -8155,7 +8174,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -8187,7 +8206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="8" t="s">
         <v>678</v>
       </c>
@@ -8211,7 +8230,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="8" t="s">
         <v>684</v>
       </c>
@@ -8235,7 +8254,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="8" t="s">
         <v>695</v>
       </c>
@@ -8259,7 +8278,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="8" t="s">
         <v>699</v>
       </c>
@@ -8283,7 +8302,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="60">
       <c r="A7" s="8" t="s">
         <v>705</v>
       </c>
@@ -8307,7 +8326,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="60" hidden="1">
       <c r="A8" s="8" t="s">
         <v>709</v>
       </c>
@@ -8331,7 +8350,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="60" hidden="1">
       <c r="A9" s="8" t="s">
         <v>713</v>
       </c>
@@ -8355,7 +8374,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60">
       <c r="A10" s="8" t="s">
         <v>721</v>
       </c>
@@ -8379,7 +8398,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="8" t="s">
         <v>725</v>
       </c>
@@ -8403,7 +8422,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60">
       <c r="A12" s="8" t="s">
         <v>616</v>
       </c>
@@ -8427,7 +8446,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" hidden="1">
       <c r="A13" s="8" t="s">
         <v>735</v>
       </c>
@@ -8451,7 +8470,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="45" hidden="1">
       <c r="A14" s="8" t="s">
         <v>748</v>
       </c>
@@ -8475,7 +8494,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="45" hidden="1">
       <c r="A15" s="8" t="s">
         <v>752</v>
       </c>
@@ -8499,7 +8518,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" hidden="1">
       <c r="A16" s="8" t="s">
         <v>756</v>
       </c>
@@ -8521,7 +8540,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60" hidden="1">
       <c r="A17" s="8" t="s">
         <v>761</v>
       </c>
@@ -8545,7 +8564,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="8" t="s">
         <v>765</v>
       </c>
@@ -8569,7 +8588,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="8" t="s">
         <v>770</v>
       </c>
@@ -8593,7 +8612,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75" hidden="1">
       <c r="A20" s="8" t="s">
         <v>775</v>
       </c>
@@ -8617,7 +8636,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="60">
       <c r="A21" s="8" t="s">
         <v>778</v>
       </c>
@@ -8641,7 +8660,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="60">
       <c r="A22" s="8" t="s">
         <v>782</v>
       </c>
@@ -8665,7 +8684,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="60">
       <c r="A23" s="8" t="s">
         <v>789</v>
       </c>
@@ -8689,7 +8708,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="90">
       <c r="A24" s="8" t="s">
         <v>797</v>
       </c>
@@ -8713,7 +8732,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="8" t="s">
         <v>802</v>
       </c>
@@ -8737,7 +8756,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="8" t="s">
         <v>806</v>
       </c>
@@ -8761,7 +8780,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="60">
       <c r="A27" s="8" t="s">
         <v>811</v>
       </c>
@@ -8785,7 +8804,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="45">
       <c r="A28" s="8" t="s">
         <v>819</v>
       </c>
@@ -8809,7 +8828,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="45">
       <c r="A29" s="8" t="s">
         <v>824</v>
       </c>
@@ -8833,7 +8852,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="60">
       <c r="A30" s="8" t="s">
         <v>829</v>
       </c>
@@ -8857,7 +8876,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="45">
       <c r="A31" s="8" t="s">
         <v>836</v>
       </c>
@@ -8881,7 +8900,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="45">
       <c r="A32" s="8" t="s">
         <v>841</v>
       </c>
@@ -8914,22 +8933,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8958,7 +8977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
         <v>873</v>
       </c>
@@ -8971,7 +8990,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="135">
       <c r="A3" s="8" t="s">
         <v>846</v>
       </c>
@@ -8998,7 +9017,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="240">
       <c r="A4" s="8" t="s">
         <v>847</v>
       </c>
@@ -9023,7 +9042,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="315">
       <c r="A5" s="8" t="s">
         <v>887</v>
       </c>
@@ -9050,7 +9069,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="345">
       <c r="A6" s="8" t="s">
         <v>888</v>
       </c>
@@ -9075,7 +9094,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="345">
       <c r="A7" s="8" t="s">
         <v>894</v>
       </c>
@@ -9100,7 +9119,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="8" t="s">
         <v>849</v>
       </c>
@@ -9125,7 +9144,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="285">
       <c r="A9" s="8" t="s">
         <v>851</v>
       </c>
@@ -9150,7 +9169,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="150">
       <c r="A10" s="8" t="s">
         <v>853</v>
       </c>
@@ -9173,7 +9192,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="180">
       <c r="A11" s="8" t="s">
         <v>854</v>
       </c>
@@ -9196,7 +9215,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="165">
       <c r="A12" s="8" t="s">
         <v>868</v>
       </c>
@@ -9219,7 +9238,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="255">
       <c r="A13" s="8" t="s">
         <v>869</v>
       </c>
@@ -9244,7 +9263,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="240">
       <c r="A14" s="8" t="s">
         <v>870</v>
       </c>
@@ -9269,7 +9288,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="330">
       <c r="A15" s="8" t="s">
         <v>893</v>
       </c>
@@ -9292,7 +9311,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="409.5">
       <c r="A16" s="8" t="s">
         <v>855</v>
       </c>
@@ -9315,7 +9334,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="409.5">
       <c r="A17" s="8" t="s">
         <v>857</v>
       </c>
@@ -9338,7 +9357,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="409.5">
       <c r="A18" s="8" t="s">
         <v>856</v>
       </c>
@@ -9361,7 +9380,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="409.5">
       <c r="A19" s="8" t="s">
         <v>858</v>
       </c>
@@ -9384,22 +9403,28 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="150">
       <c r="A20" s="8" t="s">
         <v>860</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>971</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>972</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="150">
       <c r="A21" s="8" t="s">
         <v>892</v>
       </c>
@@ -9407,16 +9432,20 @@
         <v>859</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>974</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>973</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>975</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="8" t="s">
         <v>871</v>
       </c>
@@ -9431,7 +9460,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="8" t="s">
         <v>872</v>
       </c>
@@ -9446,7 +9475,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="75">
       <c r="A24" s="8" t="s">
         <v>863</v>
       </c>
@@ -9461,7 +9490,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="75">
       <c r="A25" s="8" t="s">
         <v>862</v>
       </c>
@@ -9476,7 +9505,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="8" t="s">
         <v>864</v>
       </c>
@@ -9491,7 +9520,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="8" t="s">
         <v>866</v>
       </c>
@@ -9506,7 +9535,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
         <v>891</v>
       </c>
@@ -9521,7 +9550,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30">
       <c r="A29" s="8" t="s">
         <v>867</v>
       </c>
@@ -9536,7 +9565,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9547,7 +9576,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="30">
       <c r="A31" s="29" t="s">
         <v>874</v>
       </c>
@@ -9560,7 +9589,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30">
       <c r="A32" s="8" t="s">
         <v>875</v>
       </c>
@@ -9575,7 +9604,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="8" t="s">
         <v>877</v>
       </c>
@@ -9590,7 +9619,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="8" t="s">
         <v>878</v>
       </c>
@@ -9605,7 +9634,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="29" t="s">
         <v>879</v>
       </c>
@@ -9618,7 +9647,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="8" t="s">
         <v>880</v>
       </c>
@@ -9633,7 +9662,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="8" t="s">
         <v>882</v>
       </c>
@@ -9648,7 +9677,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="8" t="s">
         <v>883</v>
       </c>
@@ -9663,7 +9692,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="8" t="s">
         <v>884</v>
       </c>
@@ -9678,7 +9707,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="8" t="s">
         <v>885</v>
       </c>
@@ -9693,7 +9722,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
         <v>890</v>
       </c>
@@ -9708,7 +9737,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -9719,7 +9748,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
